--- a/BackTest/2020-01-16 BackTest VET.xlsx
+++ b/BackTest/2020-01-16 BackTest VET.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M277"/>
+  <dimension ref="A1:M278"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>6.562</v>
+        <v>6.528</v>
       </c>
       <c r="C2" t="n">
-        <v>6.562</v>
+        <v>6.528</v>
       </c>
       <c r="D2" t="n">
-        <v>6.562</v>
+        <v>6.528</v>
       </c>
       <c r="E2" t="n">
-        <v>6.562</v>
+        <v>6.528</v>
       </c>
       <c r="F2" t="n">
-        <v>13145.2283</v>
+        <v>4805.229</v>
       </c>
       <c r="G2" t="n">
-        <v>6.371399999999999</v>
+        <v>6.366549999999999</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6.541</v>
+        <v>6.562</v>
       </c>
       <c r="C3" t="n">
-        <v>6.541</v>
+        <v>6.562</v>
       </c>
       <c r="D3" t="n">
-        <v>6.541</v>
+        <v>6.562</v>
       </c>
       <c r="E3" t="n">
-        <v>6.541</v>
+        <v>6.562</v>
       </c>
       <c r="F3" t="n">
-        <v>5393.5622</v>
+        <v>13145.2283</v>
       </c>
       <c r="G3" t="n">
-        <v>6.375733333333332</v>
+        <v>6.371399999999999</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>6.555</v>
+        <v>6.541</v>
       </c>
       <c r="C4" t="n">
-        <v>6.552</v>
+        <v>6.541</v>
       </c>
       <c r="D4" t="n">
-        <v>6.555</v>
+        <v>6.541</v>
       </c>
       <c r="E4" t="n">
-        <v>6.552</v>
+        <v>6.541</v>
       </c>
       <c r="F4" t="n">
-        <v>26070</v>
+        <v>5393.5622</v>
       </c>
       <c r="G4" t="n">
-        <v>6.379933333333332</v>
+        <v>6.375733333333332</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>6.552</v>
+        <v>6.555</v>
       </c>
       <c r="C5" t="n">
         <v>6.552</v>
       </c>
       <c r="D5" t="n">
-        <v>6.552</v>
+        <v>6.555</v>
       </c>
       <c r="E5" t="n">
         <v>6.552</v>
       </c>
       <c r="F5" t="n">
-        <v>125438.6704</v>
+        <v>26070</v>
       </c>
       <c r="G5" t="n">
-        <v>6.384449999999999</v>
+        <v>6.379933333333332</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>6.543</v>
+        <v>6.552</v>
       </c>
       <c r="C6" t="n">
-        <v>6.543</v>
+        <v>6.552</v>
       </c>
       <c r="D6" t="n">
-        <v>6.543</v>
+        <v>6.552</v>
       </c>
       <c r="E6" t="n">
-        <v>6.543</v>
+        <v>6.552</v>
       </c>
       <c r="F6" t="n">
-        <v>40728.4306</v>
+        <v>125438.6704</v>
       </c>
       <c r="G6" t="n">
-        <v>6.388199999999999</v>
+        <v>6.384449999999999</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -620,10 +620,10 @@
         <v>6.543</v>
       </c>
       <c r="F7" t="n">
-        <v>634393.1179</v>
+        <v>40728.4306</v>
       </c>
       <c r="G7" t="n">
-        <v>6.39195</v>
+        <v>6.388199999999999</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -649,16 +649,16 @@
         <v>6.543</v>
       </c>
       <c r="D8" t="n">
-        <v>6.548</v>
+        <v>6.543</v>
       </c>
       <c r="E8" t="n">
         <v>6.543</v>
       </c>
       <c r="F8" t="n">
-        <v>324457.0726</v>
+        <v>634393.1179</v>
       </c>
       <c r="G8" t="n">
-        <v>6.395366666666666</v>
+        <v>6.39195</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -681,19 +681,19 @@
         <v>6.543</v>
       </c>
       <c r="C9" t="n">
-        <v>6.551</v>
+        <v>6.543</v>
       </c>
       <c r="D9" t="n">
-        <v>6.551</v>
+        <v>6.548</v>
       </c>
       <c r="E9" t="n">
         <v>6.543</v>
       </c>
       <c r="F9" t="n">
-        <v>51310.1842</v>
+        <v>324457.0726</v>
       </c>
       <c r="G9" t="n">
-        <v>6.399199999999999</v>
+        <v>6.395366666666666</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -716,19 +716,19 @@
         <v>6.543</v>
       </c>
       <c r="C10" t="n">
-        <v>6.543</v>
+        <v>6.551</v>
       </c>
       <c r="D10" t="n">
-        <v>6.543</v>
+        <v>6.551</v>
       </c>
       <c r="E10" t="n">
         <v>6.543</v>
       </c>
       <c r="F10" t="n">
-        <v>14052.7886</v>
+        <v>51310.1842</v>
       </c>
       <c r="G10" t="n">
-        <v>6.403083333333332</v>
+        <v>6.399199999999999</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>6.548</v>
+        <v>6.543</v>
       </c>
       <c r="C11" t="n">
-        <v>6.548</v>
+        <v>6.543</v>
       </c>
       <c r="D11" t="n">
-        <v>6.548</v>
+        <v>6.543</v>
       </c>
       <c r="E11" t="n">
-        <v>6.548</v>
+        <v>6.543</v>
       </c>
       <c r="F11" t="n">
-        <v>102814</v>
+        <v>14052.7886</v>
       </c>
       <c r="G11" t="n">
-        <v>6.407749999999999</v>
+        <v>6.403083333333332</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>6.521</v>
+        <v>6.548</v>
       </c>
       <c r="C12" t="n">
-        <v>6.52</v>
+        <v>6.548</v>
       </c>
       <c r="D12" t="n">
-        <v>6.521</v>
+        <v>6.548</v>
       </c>
       <c r="E12" t="n">
-        <v>6.52</v>
+        <v>6.548</v>
       </c>
       <c r="F12" t="n">
-        <v>60857</v>
+        <v>102814</v>
       </c>
       <c r="G12" t="n">
-        <v>6.411883333333333</v>
+        <v>6.407749999999999</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>6.535</v>
+        <v>6.521</v>
       </c>
       <c r="C13" t="n">
-        <v>6.535</v>
+        <v>6.52</v>
       </c>
       <c r="D13" t="n">
-        <v>6.535</v>
+        <v>6.521</v>
       </c>
       <c r="E13" t="n">
-        <v>6.535</v>
+        <v>6.52</v>
       </c>
       <c r="F13" t="n">
-        <v>33894.5187</v>
+        <v>60857</v>
       </c>
       <c r="G13" t="n">
-        <v>6.415983333333333</v>
+        <v>6.411883333333333</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>6.535</v>
       </c>
       <c r="F14" t="n">
-        <v>13198.5896</v>
+        <v>33894.5187</v>
       </c>
       <c r="G14" t="n">
-        <v>6.420083333333334</v>
+        <v>6.415983333333333</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>6.545</v>
+        <v>6.535</v>
       </c>
       <c r="C15" t="n">
-        <v>6.551</v>
+        <v>6.535</v>
       </c>
       <c r="D15" t="n">
-        <v>6.551</v>
+        <v>6.535</v>
       </c>
       <c r="E15" t="n">
-        <v>6.545</v>
+        <v>6.535</v>
       </c>
       <c r="F15" t="n">
-        <v>465000</v>
+        <v>13198.5896</v>
       </c>
       <c r="G15" t="n">
-        <v>6.424283333333334</v>
+        <v>6.420083333333334</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>6.52</v>
+        <v>6.545</v>
       </c>
       <c r="C16" t="n">
-        <v>6.52</v>
+        <v>6.551</v>
       </c>
       <c r="D16" t="n">
-        <v>6.52</v>
+        <v>6.551</v>
       </c>
       <c r="E16" t="n">
-        <v>6.52</v>
+        <v>6.545</v>
       </c>
       <c r="F16" t="n">
-        <v>273705.6492</v>
+        <v>465000</v>
       </c>
       <c r="G16" t="n">
-        <v>6.427533333333334</v>
+        <v>6.424283333333334</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -961,19 +961,19 @@
         <v>6.52</v>
       </c>
       <c r="C17" t="n">
-        <v>6.549</v>
+        <v>6.52</v>
       </c>
       <c r="D17" t="n">
-        <v>6.549</v>
+        <v>6.52</v>
       </c>
       <c r="E17" t="n">
         <v>6.52</v>
       </c>
       <c r="F17" t="n">
-        <v>59383.7106</v>
+        <v>273705.6492</v>
       </c>
       <c r="G17" t="n">
-        <v>6.431500000000001</v>
+        <v>6.427533333333334</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>6.551</v>
+        <v>6.52</v>
       </c>
       <c r="C18" t="n">
-        <v>6.551</v>
+        <v>6.549</v>
       </c>
       <c r="D18" t="n">
-        <v>6.551</v>
+        <v>6.549</v>
       </c>
       <c r="E18" t="n">
-        <v>6.551</v>
+        <v>6.52</v>
       </c>
       <c r="F18" t="n">
-        <v>230250.075</v>
+        <v>59383.7106</v>
       </c>
       <c r="G18" t="n">
-        <v>6.4352</v>
+        <v>6.431500000000001</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1040,10 +1040,10 @@
         <v>6.551</v>
       </c>
       <c r="F19" t="n">
-        <v>577745.4867</v>
+        <v>230250.075</v>
       </c>
       <c r="G19" t="n">
-        <v>6.439216666666667</v>
+        <v>6.4352</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1075,10 +1075,10 @@
         <v>6.551</v>
       </c>
       <c r="F20" t="n">
-        <v>73317.36139999999</v>
+        <v>577745.4867</v>
       </c>
       <c r="G20" t="n">
-        <v>6.443233333333334</v>
+        <v>6.439216666666667</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>6.551</v>
       </c>
       <c r="F21" t="n">
-        <v>290492.0842</v>
+        <v>73317.36139999999</v>
       </c>
       <c r="G21" t="n">
-        <v>6.446783333333332</v>
+        <v>6.443233333333334</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1145,10 +1145,10 @@
         <v>6.551</v>
       </c>
       <c r="F22" t="n">
-        <v>241545.7125</v>
+        <v>290492.0842</v>
       </c>
       <c r="G22" t="n">
-        <v>6.450316666666666</v>
+        <v>6.446783333333332</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1171,19 +1171,19 @@
         <v>6.551</v>
       </c>
       <c r="C23" t="n">
-        <v>6.593</v>
+        <v>6.551</v>
       </c>
       <c r="D23" t="n">
-        <v>6.593</v>
+        <v>6.551</v>
       </c>
       <c r="E23" t="n">
         <v>6.551</v>
       </c>
       <c r="F23" t="n">
-        <v>489144.2209</v>
+        <v>241545.7125</v>
       </c>
       <c r="G23" t="n">
-        <v>6.454533333333333</v>
+        <v>6.450316666666666</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>6.593</v>
+        <v>6.551</v>
       </c>
       <c r="C24" t="n">
         <v>6.593</v>
@@ -1212,13 +1212,13 @@
         <v>6.593</v>
       </c>
       <c r="E24" t="n">
-        <v>6.593</v>
+        <v>6.551</v>
       </c>
       <c r="F24" t="n">
-        <v>190158.9937</v>
+        <v>489144.2209</v>
       </c>
       <c r="G24" t="n">
-        <v>6.458616666666667</v>
+        <v>6.454533333333333</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1241,19 +1241,19 @@
         <v>6.593</v>
       </c>
       <c r="C25" t="n">
-        <v>6.594</v>
+        <v>6.593</v>
       </c>
       <c r="D25" t="n">
-        <v>6.594</v>
+        <v>6.593</v>
       </c>
       <c r="E25" t="n">
         <v>6.593</v>
       </c>
       <c r="F25" t="n">
-        <v>107370.6197</v>
+        <v>190158.9937</v>
       </c>
       <c r="G25" t="n">
-        <v>6.462716666666666</v>
+        <v>6.458616666666667</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1276,19 +1276,19 @@
         <v>6.593</v>
       </c>
       <c r="C26" t="n">
-        <v>6.593</v>
+        <v>6.594</v>
       </c>
       <c r="D26" t="n">
-        <v>6.593</v>
+        <v>6.594</v>
       </c>
       <c r="E26" t="n">
         <v>6.593</v>
       </c>
       <c r="F26" t="n">
-        <v>60243.3172</v>
+        <v>107370.6197</v>
       </c>
       <c r="G26" t="n">
-        <v>6.466666666666667</v>
+        <v>6.462716666666666</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>6.594</v>
+        <v>6.593</v>
       </c>
       <c r="C27" t="n">
-        <v>6.6</v>
+        <v>6.593</v>
       </c>
       <c r="D27" t="n">
-        <v>6.6</v>
+        <v>6.593</v>
       </c>
       <c r="E27" t="n">
-        <v>6.594</v>
+        <v>6.593</v>
       </c>
       <c r="F27" t="n">
-        <v>70796.8561</v>
+        <v>60243.3172</v>
       </c>
       <c r="G27" t="n">
-        <v>6.471500000000001</v>
+        <v>6.466666666666667</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,7 +1343,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>6.6</v>
+        <v>6.594</v>
       </c>
       <c r="C28" t="n">
         <v>6.6</v>
@@ -1352,13 +1352,13 @@
         <v>6.6</v>
       </c>
       <c r="E28" t="n">
-        <v>6.6</v>
+        <v>6.594</v>
       </c>
       <c r="F28" t="n">
-        <v>200387.1827</v>
+        <v>70796.8561</v>
       </c>
       <c r="G28" t="n">
-        <v>6.476183333333334</v>
+        <v>6.471500000000001</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>6.593</v>
+        <v>6.6</v>
       </c>
       <c r="C29" t="n">
-        <v>6.592</v>
+        <v>6.6</v>
       </c>
       <c r="D29" t="n">
-        <v>6.593</v>
+        <v>6.6</v>
       </c>
       <c r="E29" t="n">
-        <v>6.592</v>
+        <v>6.6</v>
       </c>
       <c r="F29" t="n">
-        <v>318385.535</v>
+        <v>200387.1827</v>
       </c>
       <c r="G29" t="n">
-        <v>6.480383333333334</v>
+        <v>6.476183333333334</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>6.553</v>
+        <v>6.593</v>
       </c>
       <c r="C30" t="n">
-        <v>6.553</v>
+        <v>6.592</v>
       </c>
       <c r="D30" t="n">
-        <v>6.553</v>
+        <v>6.593</v>
       </c>
       <c r="E30" t="n">
-        <v>6.553</v>
+        <v>6.592</v>
       </c>
       <c r="F30" t="n">
-        <v>7892.232</v>
+        <v>318385.535</v>
       </c>
       <c r="G30" t="n">
-        <v>6.48385</v>
+        <v>6.480383333333334</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>6.587</v>
+        <v>6.553</v>
       </c>
       <c r="C31" t="n">
-        <v>6.597</v>
+        <v>6.553</v>
       </c>
       <c r="D31" t="n">
-        <v>6.597</v>
+        <v>6.553</v>
       </c>
       <c r="E31" t="n">
-        <v>6.587</v>
+        <v>6.553</v>
       </c>
       <c r="F31" t="n">
-        <v>102000</v>
+        <v>7892.232</v>
       </c>
       <c r="G31" t="n">
-        <v>6.4883</v>
+        <v>6.48385</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>6.581</v>
+        <v>6.587</v>
       </c>
       <c r="C32" t="n">
-        <v>6.581</v>
+        <v>6.597</v>
       </c>
       <c r="D32" t="n">
-        <v>6.581</v>
+        <v>6.597</v>
       </c>
       <c r="E32" t="n">
-        <v>6.581</v>
+        <v>6.587</v>
       </c>
       <c r="F32" t="n">
-        <v>31708.2413</v>
+        <v>102000</v>
       </c>
       <c r="G32" t="n">
-        <v>6.492966666666667</v>
+        <v>6.4883</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>6.59</v>
+        <v>6.581</v>
       </c>
       <c r="C33" t="n">
-        <v>6.554</v>
+        <v>6.581</v>
       </c>
       <c r="D33" t="n">
-        <v>6.59</v>
+        <v>6.581</v>
       </c>
       <c r="E33" t="n">
-        <v>6.554</v>
+        <v>6.581</v>
       </c>
       <c r="F33" t="n">
-        <v>146825.2442</v>
+        <v>31708.2413</v>
       </c>
       <c r="G33" t="n">
-        <v>6.4966</v>
+        <v>6.492966666666667</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>6.617</v>
+        <v>6.59</v>
       </c>
       <c r="C34" t="n">
-        <v>6.62</v>
+        <v>6.554</v>
       </c>
       <c r="D34" t="n">
-        <v>6.62</v>
+        <v>6.59</v>
       </c>
       <c r="E34" t="n">
-        <v>6.602</v>
+        <v>6.554</v>
       </c>
       <c r="F34" t="n">
-        <v>216071.5307</v>
+        <v>146825.2442</v>
       </c>
       <c r="G34" t="n">
-        <v>6.501533333333333</v>
+        <v>6.4966</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,7 +1588,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>6.619</v>
+        <v>6.617</v>
       </c>
       <c r="C35" t="n">
         <v>6.62</v>
@@ -1597,13 +1597,13 @@
         <v>6.62</v>
       </c>
       <c r="E35" t="n">
-        <v>6.619</v>
+        <v>6.602</v>
       </c>
       <c r="F35" t="n">
-        <v>58811.6895</v>
+        <v>216071.5307</v>
       </c>
       <c r="G35" t="n">
-        <v>6.506766666666667</v>
+        <v>6.501533333333333</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>6.638</v>
+        <v>6.619</v>
       </c>
       <c r="C36" t="n">
-        <v>6.65</v>
+        <v>6.62</v>
       </c>
       <c r="D36" t="n">
-        <v>6.66</v>
+        <v>6.62</v>
       </c>
       <c r="E36" t="n">
-        <v>6.638</v>
+        <v>6.619</v>
       </c>
       <c r="F36" t="n">
-        <v>304058.9999</v>
+        <v>58811.6895</v>
       </c>
       <c r="G36" t="n">
-        <v>6.512383333333333</v>
+        <v>6.506766666666667</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>6.66</v>
+        <v>6.638</v>
       </c>
       <c r="C37" t="n">
-        <v>6.66</v>
+        <v>6.65</v>
       </c>
       <c r="D37" t="n">
         <v>6.66</v>
       </c>
       <c r="E37" t="n">
-        <v>6.66</v>
+        <v>6.638</v>
       </c>
       <c r="F37" t="n">
-        <v>66793.8082</v>
+        <v>304058.9999</v>
       </c>
       <c r="G37" t="n">
-        <v>6.518133333333334</v>
+        <v>6.512383333333333</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>6.62</v>
+        <v>6.66</v>
       </c>
       <c r="C38" t="n">
-        <v>6.62</v>
+        <v>6.66</v>
       </c>
       <c r="D38" t="n">
-        <v>6.62</v>
+        <v>6.66</v>
       </c>
       <c r="E38" t="n">
-        <v>6.62</v>
+        <v>6.66</v>
       </c>
       <c r="F38" t="n">
-        <v>20130</v>
+        <v>66793.8082</v>
       </c>
       <c r="G38" t="n">
-        <v>6.523133333333334</v>
+        <v>6.518133333333334</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1740,10 +1740,10 @@
         <v>6.62</v>
       </c>
       <c r="F39" t="n">
-        <v>8017.0909</v>
+        <v>20130</v>
       </c>
       <c r="G39" t="n">
-        <v>6.528050000000001</v>
+        <v>6.523133333333334</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1775,10 +1775,10 @@
         <v>6.62</v>
       </c>
       <c r="F40" t="n">
-        <v>32036.1719</v>
+        <v>8017.0909</v>
       </c>
       <c r="G40" t="n">
-        <v>6.532966666666668</v>
+        <v>6.528050000000001</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>6.62</v>
       </c>
       <c r="F41" t="n">
-        <v>2122.0147</v>
+        <v>32036.1719</v>
       </c>
       <c r="G41" t="n">
-        <v>6.537966666666668</v>
+        <v>6.532966666666668</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>6.619</v>
+        <v>6.62</v>
       </c>
       <c r="C42" t="n">
-        <v>6.619</v>
+        <v>6.62</v>
       </c>
       <c r="D42" t="n">
-        <v>6.619</v>
+        <v>6.62</v>
       </c>
       <c r="E42" t="n">
-        <v>6.619</v>
+        <v>6.62</v>
       </c>
       <c r="F42" t="n">
-        <v>1507.025230397341</v>
+        <v>2122.0147</v>
       </c>
       <c r="G42" t="n">
-        <v>6.542783333333334</v>
+        <v>6.537966666666668</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>6.598</v>
+        <v>6.619</v>
       </c>
       <c r="C43" t="n">
-        <v>6.59</v>
+        <v>6.619</v>
       </c>
       <c r="D43" t="n">
-        <v>6.598</v>
+        <v>6.619</v>
       </c>
       <c r="E43" t="n">
-        <v>6.59</v>
+        <v>6.619</v>
       </c>
       <c r="F43" t="n">
-        <v>34793.7097</v>
+        <v>1507.025230397341</v>
       </c>
       <c r="G43" t="n">
-        <v>6.547116666666668</v>
+        <v>6.542783333333334</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>6.6</v>
+        <v>6.598</v>
       </c>
       <c r="C44" t="n">
-        <v>6.6</v>
+        <v>6.59</v>
       </c>
       <c r="D44" t="n">
-        <v>6.6</v>
+        <v>6.598</v>
       </c>
       <c r="E44" t="n">
-        <v>6.6</v>
+        <v>6.59</v>
       </c>
       <c r="F44" t="n">
-        <v>8225.2003</v>
+        <v>34793.7097</v>
       </c>
       <c r="G44" t="n">
-        <v>6.551533333333335</v>
+        <v>6.547116666666668</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1950,10 +1950,10 @@
         <v>6.6</v>
       </c>
       <c r="F45" t="n">
-        <v>8290</v>
+        <v>8225.2003</v>
       </c>
       <c r="G45" t="n">
-        <v>6.555600000000002</v>
+        <v>6.551533333333335</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>6.58</v>
+        <v>6.6</v>
       </c>
       <c r="C46" t="n">
-        <v>6.58</v>
+        <v>6.6</v>
       </c>
       <c r="D46" t="n">
-        <v>6.58</v>
+        <v>6.6</v>
       </c>
       <c r="E46" t="n">
-        <v>6.58</v>
+        <v>6.6</v>
       </c>
       <c r="F46" t="n">
-        <v>50000</v>
+        <v>8290</v>
       </c>
       <c r="G46" t="n">
-        <v>6.558616666666668</v>
+        <v>6.555600000000002</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>6.572</v>
+        <v>6.58</v>
       </c>
       <c r="C47" t="n">
-        <v>6.57</v>
+        <v>6.58</v>
       </c>
       <c r="D47" t="n">
-        <v>6.572</v>
+        <v>6.58</v>
       </c>
       <c r="E47" t="n">
-        <v>6.57</v>
+        <v>6.58</v>
       </c>
       <c r="F47" t="n">
-        <v>48061.4955</v>
+        <v>50000</v>
       </c>
       <c r="G47" t="n">
-        <v>6.561466666666669</v>
+        <v>6.558616666666668</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>6.553</v>
+        <v>6.572</v>
       </c>
       <c r="C48" t="n">
-        <v>6.553</v>
+        <v>6.57</v>
       </c>
       <c r="D48" t="n">
-        <v>6.556</v>
+        <v>6.572</v>
       </c>
       <c r="E48" t="n">
-        <v>6.534</v>
+        <v>6.57</v>
       </c>
       <c r="F48" t="n">
-        <v>34138.92</v>
+        <v>48061.4955</v>
       </c>
       <c r="G48" t="n">
-        <v>6.564016666666669</v>
+        <v>6.561466666666669</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>6.576</v>
+        <v>6.553</v>
       </c>
       <c r="C49" t="n">
-        <v>6.592</v>
+        <v>6.553</v>
       </c>
       <c r="D49" t="n">
-        <v>6.592</v>
+        <v>6.556</v>
       </c>
       <c r="E49" t="n">
-        <v>6.576</v>
+        <v>6.534</v>
       </c>
       <c r="F49" t="n">
-        <v>18680.5274</v>
+        <v>34138.92</v>
       </c>
       <c r="G49" t="n">
-        <v>6.566366666666668</v>
+        <v>6.564016666666669</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,22 +2113,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>6.608</v>
+        <v>6.576</v>
       </c>
       <c r="C50" t="n">
-        <v>6.608</v>
+        <v>6.592</v>
       </c>
       <c r="D50" t="n">
-        <v>6.608</v>
+        <v>6.592</v>
       </c>
       <c r="E50" t="n">
-        <v>6.608</v>
+        <v>6.576</v>
       </c>
       <c r="F50" t="n">
-        <v>27608.9949</v>
+        <v>18680.5274</v>
       </c>
       <c r="G50" t="n">
-        <v>6.568166666666668</v>
+        <v>6.566366666666668</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,22 +2148,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>6.595</v>
+        <v>6.608</v>
       </c>
       <c r="C51" t="n">
-        <v>6.595</v>
+        <v>6.608</v>
       </c>
       <c r="D51" t="n">
-        <v>6.595</v>
+        <v>6.608</v>
       </c>
       <c r="E51" t="n">
-        <v>6.595</v>
+        <v>6.608</v>
       </c>
       <c r="F51" t="n">
-        <v>6844.4936</v>
+        <v>27608.9949</v>
       </c>
       <c r="G51" t="n">
-        <v>6.569750000000002</v>
+        <v>6.568166666666668</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>6.63</v>
+        <v>6.595</v>
       </c>
       <c r="C52" t="n">
-        <v>6.62</v>
+        <v>6.595</v>
       </c>
       <c r="D52" t="n">
-        <v>6.63</v>
+        <v>6.595</v>
       </c>
       <c r="E52" t="n">
-        <v>6.62</v>
+        <v>6.595</v>
       </c>
       <c r="F52" t="n">
-        <v>73171</v>
+        <v>6844.4936</v>
       </c>
       <c r="G52" t="n">
-        <v>6.570916666666668</v>
+        <v>6.569750000000002</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>6.623</v>
+        <v>6.63</v>
       </c>
       <c r="C53" t="n">
-        <v>6.623</v>
+        <v>6.62</v>
       </c>
       <c r="D53" t="n">
-        <v>6.623</v>
+        <v>6.63</v>
       </c>
       <c r="E53" t="n">
-        <v>6.623</v>
+        <v>6.62</v>
       </c>
       <c r="F53" t="n">
-        <v>9520.055899999999</v>
+        <v>73171</v>
       </c>
       <c r="G53" t="n">
-        <v>6.572800000000002</v>
+        <v>6.570916666666668</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,22 +2253,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>6.649</v>
+        <v>6.623</v>
       </c>
       <c r="C54" t="n">
-        <v>6.657</v>
+        <v>6.623</v>
       </c>
       <c r="D54" t="n">
-        <v>6.657</v>
+        <v>6.623</v>
       </c>
       <c r="E54" t="n">
-        <v>6.649</v>
+        <v>6.623</v>
       </c>
       <c r="F54" t="n">
-        <v>12447</v>
+        <v>9520.055899999999</v>
       </c>
       <c r="G54" t="n">
-        <v>6.574500000000001</v>
+        <v>6.572800000000002</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,22 +2288,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>6.644</v>
+        <v>6.649</v>
       </c>
       <c r="C55" t="n">
-        <v>6.66</v>
+        <v>6.657</v>
       </c>
       <c r="D55" t="n">
-        <v>6.66</v>
+        <v>6.657</v>
       </c>
       <c r="E55" t="n">
-        <v>6.63</v>
+        <v>6.649</v>
       </c>
       <c r="F55" t="n">
-        <v>514780.0476</v>
+        <v>12447</v>
       </c>
       <c r="G55" t="n">
-        <v>6.576500000000001</v>
+        <v>6.574500000000001</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,22 +2323,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>6.669</v>
+        <v>6.644</v>
       </c>
       <c r="C56" t="n">
-        <v>6.669</v>
+        <v>6.66</v>
       </c>
       <c r="D56" t="n">
-        <v>6.669</v>
+        <v>6.66</v>
       </c>
       <c r="E56" t="n">
-        <v>6.669</v>
+        <v>6.63</v>
       </c>
       <c r="F56" t="n">
-        <v>82261.3508</v>
+        <v>514780.0476</v>
       </c>
       <c r="G56" t="n">
-        <v>6.578633333333334</v>
+        <v>6.576500000000001</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2370,10 +2370,10 @@
         <v>6.669</v>
       </c>
       <c r="F57" t="n">
-        <v>17247</v>
+        <v>82261.3508</v>
       </c>
       <c r="G57" t="n">
-        <v>6.580333333333334</v>
+        <v>6.578633333333334</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,22 +2393,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>6.668</v>
+        <v>6.669</v>
       </c>
       <c r="C58" t="n">
-        <v>6.668</v>
+        <v>6.669</v>
       </c>
       <c r="D58" t="n">
-        <v>6.668</v>
+        <v>6.669</v>
       </c>
       <c r="E58" t="n">
-        <v>6.668</v>
+        <v>6.669</v>
       </c>
       <c r="F58" t="n">
-        <v>6926.3003</v>
+        <v>17247</v>
       </c>
       <c r="G58" t="n">
-        <v>6.582966666666668</v>
+        <v>6.580333333333334</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2440,10 +2440,10 @@
         <v>6.668</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0001</v>
+        <v>6926.3003</v>
       </c>
       <c r="G59" t="n">
-        <v>6.585400000000002</v>
+        <v>6.582966666666668</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2466,19 +2466,19 @@
         <v>6.668</v>
       </c>
       <c r="C60" t="n">
-        <v>6.665</v>
+        <v>6.668</v>
       </c>
       <c r="D60" t="n">
         <v>6.668</v>
       </c>
       <c r="E60" t="n">
-        <v>6.665</v>
+        <v>6.668</v>
       </c>
       <c r="F60" t="n">
-        <v>79757.19530000001</v>
+        <v>0.0001</v>
       </c>
       <c r="G60" t="n">
-        <v>6.587616666666668</v>
+        <v>6.585400000000002</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2498,22 +2498,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>6.67</v>
+        <v>6.668</v>
       </c>
       <c r="C61" t="n">
-        <v>6.666</v>
+        <v>6.665</v>
       </c>
       <c r="D61" t="n">
-        <v>6.671</v>
+        <v>6.668</v>
       </c>
       <c r="E61" t="n">
-        <v>6.666</v>
+        <v>6.665</v>
       </c>
       <c r="F61" t="n">
-        <v>105708.6704</v>
+        <v>79757.19530000001</v>
       </c>
       <c r="G61" t="n">
-        <v>6.589916666666668</v>
+        <v>6.587616666666668</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2533,22 +2533,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>6.68</v>
+        <v>6.67</v>
       </c>
       <c r="C62" t="n">
-        <v>6.7</v>
+        <v>6.666</v>
       </c>
       <c r="D62" t="n">
-        <v>6.7</v>
+        <v>6.671</v>
       </c>
       <c r="E62" t="n">
-        <v>6.68</v>
+        <v>6.666</v>
       </c>
       <c r="F62" t="n">
-        <v>14549.0255</v>
+        <v>105708.6704</v>
       </c>
       <c r="G62" t="n">
-        <v>6.592216666666668</v>
+        <v>6.589916666666668</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2568,7 +2568,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>6.7</v>
+        <v>6.68</v>
       </c>
       <c r="C63" t="n">
         <v>6.7</v>
@@ -2577,13 +2577,13 @@
         <v>6.7</v>
       </c>
       <c r="E63" t="n">
-        <v>6.7</v>
+        <v>6.68</v>
       </c>
       <c r="F63" t="n">
-        <v>6000</v>
+        <v>14549.0255</v>
       </c>
       <c r="G63" t="n">
-        <v>6.594866666666667</v>
+        <v>6.592216666666668</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2615,10 +2615,10 @@
         <v>6.7</v>
       </c>
       <c r="F64" t="n">
-        <v>96530.4877</v>
+        <v>6000</v>
       </c>
       <c r="G64" t="n">
-        <v>6.597333333333334</v>
+        <v>6.594866666666667</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2650,10 +2650,10 @@
         <v>6.7</v>
       </c>
       <c r="F65" t="n">
-        <v>155096.5289</v>
+        <v>96530.4877</v>
       </c>
       <c r="G65" t="n">
-        <v>6.5998</v>
+        <v>6.597333333333334</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2685,10 +2685,10 @@
         <v>6.7</v>
       </c>
       <c r="F66" t="n">
-        <v>1762.9486</v>
+        <v>155096.5289</v>
       </c>
       <c r="G66" t="n">
-        <v>6.602416666666667</v>
+        <v>6.5998</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2708,22 +2708,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>6.72</v>
+        <v>6.7</v>
       </c>
       <c r="C67" t="n">
-        <v>6.729</v>
+        <v>6.7</v>
       </c>
       <c r="D67" t="n">
-        <v>6.729</v>
+        <v>6.7</v>
       </c>
       <c r="E67" t="n">
-        <v>6.72</v>
+        <v>6.7</v>
       </c>
       <c r="F67" t="n">
-        <v>22206.1372</v>
+        <v>1762.9486</v>
       </c>
       <c r="G67" t="n">
-        <v>6.605516666666666</v>
+        <v>6.602416666666667</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2743,22 +2743,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
+        <v>6.72</v>
+      </c>
+      <c r="C68" t="n">
         <v>6.729</v>
       </c>
-      <c r="C68" t="n">
-        <v>6.74</v>
-      </c>
       <c r="D68" t="n">
-        <v>6.74</v>
+        <v>6.729</v>
       </c>
       <c r="E68" t="n">
-        <v>6.729</v>
+        <v>6.72</v>
       </c>
       <c r="F68" t="n">
-        <v>339950.5292</v>
+        <v>22206.1372</v>
       </c>
       <c r="G68" t="n">
-        <v>6.6088</v>
+        <v>6.605516666666666</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2778,22 +2778,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
+        <v>6.729</v>
+      </c>
+      <c r="C69" t="n">
         <v>6.74</v>
       </c>
-      <c r="C69" t="n">
-        <v>6.772</v>
-      </c>
       <c r="D69" t="n">
-        <v>6.772</v>
+        <v>6.74</v>
       </c>
       <c r="E69" t="n">
-        <v>6.74</v>
+        <v>6.729</v>
       </c>
       <c r="F69" t="n">
-        <v>444709.2401</v>
+        <v>339950.5292</v>
       </c>
       <c r="G69" t="n">
-        <v>6.612483333333333</v>
+        <v>6.6088</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2813,22 +2813,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>6.79</v>
+        <v>6.74</v>
       </c>
       <c r="C70" t="n">
-        <v>6.795</v>
+        <v>6.772</v>
       </c>
       <c r="D70" t="n">
-        <v>6.795</v>
+        <v>6.772</v>
       </c>
       <c r="E70" t="n">
-        <v>6.79</v>
+        <v>6.74</v>
       </c>
       <c r="F70" t="n">
-        <v>92522.8227</v>
+        <v>444709.2401</v>
       </c>
       <c r="G70" t="n">
-        <v>6.616683333333333</v>
+        <v>6.612483333333333</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2848,22 +2848,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
+        <v>6.79</v>
+      </c>
+      <c r="C71" t="n">
         <v>6.795</v>
       </c>
-      <c r="C71" t="n">
-        <v>6.8</v>
-      </c>
       <c r="D71" t="n">
-        <v>6.8</v>
+        <v>6.795</v>
       </c>
       <c r="E71" t="n">
-        <v>6.795</v>
+        <v>6.79</v>
       </c>
       <c r="F71" t="n">
-        <v>275646.0262</v>
+        <v>92522.8227</v>
       </c>
       <c r="G71" t="n">
-        <v>6.620883333333333</v>
+        <v>6.616683333333333</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2883,22 +2883,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>6.81</v>
+        <v>6.795</v>
       </c>
       <c r="C72" t="n">
-        <v>6.792</v>
+        <v>6.8</v>
       </c>
       <c r="D72" t="n">
-        <v>6.81</v>
+        <v>6.8</v>
       </c>
       <c r="E72" t="n">
-        <v>6.792</v>
+        <v>6.795</v>
       </c>
       <c r="F72" t="n">
-        <v>21262.6433</v>
+        <v>275646.0262</v>
       </c>
       <c r="G72" t="n">
-        <v>6.625416666666666</v>
+        <v>6.620883333333333</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2918,22 +2918,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>6.811</v>
+        <v>6.81</v>
       </c>
       <c r="C73" t="n">
-        <v>6.811</v>
+        <v>6.792</v>
       </c>
       <c r="D73" t="n">
-        <v>6.811</v>
+        <v>6.81</v>
       </c>
       <c r="E73" t="n">
-        <v>6.811</v>
+        <v>6.792</v>
       </c>
       <c r="F73" t="n">
-        <v>191.25</v>
+        <v>21262.6433</v>
       </c>
       <c r="G73" t="n">
-        <v>6.630016666666665</v>
+        <v>6.625416666666666</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2953,22 +2953,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>6.85</v>
+        <v>6.811</v>
       </c>
       <c r="C74" t="n">
-        <v>6.858</v>
+        <v>6.811</v>
       </c>
       <c r="D74" t="n">
-        <v>6.858</v>
+        <v>6.811</v>
       </c>
       <c r="E74" t="n">
-        <v>6.85</v>
+        <v>6.811</v>
       </c>
       <c r="F74" t="n">
-        <v>53574.1848</v>
+        <v>191.25</v>
       </c>
       <c r="G74" t="n">
-        <v>6.635399999999999</v>
+        <v>6.630016666666665</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2988,22 +2988,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
+        <v>6.85</v>
+      </c>
+      <c r="C75" t="n">
         <v>6.858</v>
       </c>
-      <c r="C75" t="n">
-        <v>6.889</v>
-      </c>
       <c r="D75" t="n">
-        <v>6.9</v>
+        <v>6.858</v>
       </c>
       <c r="E75" t="n">
-        <v>6.858</v>
+        <v>6.85</v>
       </c>
       <c r="F75" t="n">
-        <v>1868160.7221</v>
+        <v>53574.1848</v>
       </c>
       <c r="G75" t="n">
-        <v>6.641033333333332</v>
+        <v>6.635399999999999</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3023,22 +3023,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>6.869</v>
+        <v>6.858</v>
       </c>
       <c r="C76" t="n">
-        <v>6.869</v>
+        <v>6.889</v>
       </c>
       <c r="D76" t="n">
-        <v>6.869</v>
+        <v>6.9</v>
       </c>
       <c r="E76" t="n">
-        <v>6.869</v>
+        <v>6.858</v>
       </c>
       <c r="F76" t="n">
-        <v>158720.1813</v>
+        <v>1868160.7221</v>
       </c>
       <c r="G76" t="n">
-        <v>6.646849999999999</v>
+        <v>6.641033333333332</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3058,28 +3058,28 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>6.82</v>
+        <v>6.869</v>
       </c>
       <c r="C77" t="n">
-        <v>6.799</v>
+        <v>6.869</v>
       </c>
       <c r="D77" t="n">
-        <v>6.868</v>
+        <v>6.869</v>
       </c>
       <c r="E77" t="n">
-        <v>6.799</v>
+        <v>6.869</v>
       </c>
       <c r="F77" t="n">
-        <v>326202.7785</v>
+        <v>158720.1813</v>
       </c>
       <c r="G77" t="n">
-        <v>6.651016666666665</v>
+        <v>6.646849999999999</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
@@ -3093,22 +3093,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>6.848</v>
+        <v>6.82</v>
       </c>
       <c r="C78" t="n">
-        <v>6.869</v>
+        <v>6.799</v>
       </c>
       <c r="D78" t="n">
-        <v>6.869</v>
+        <v>6.868</v>
       </c>
       <c r="E78" t="n">
-        <v>6.848</v>
+        <v>6.799</v>
       </c>
       <c r="F78" t="n">
-        <v>466382.6007</v>
+        <v>326202.7785</v>
       </c>
       <c r="G78" t="n">
-        <v>6.656316666666666</v>
+        <v>6.651016666666665</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3128,22 +3128,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>6.86</v>
+        <v>6.848</v>
       </c>
       <c r="C79" t="n">
-        <v>6.889</v>
+        <v>6.869</v>
       </c>
       <c r="D79" t="n">
-        <v>6.889</v>
+        <v>6.869</v>
       </c>
       <c r="E79" t="n">
-        <v>6.86</v>
+        <v>6.848</v>
       </c>
       <c r="F79" t="n">
-        <v>550528.4618</v>
+        <v>466382.6007</v>
       </c>
       <c r="G79" t="n">
-        <v>6.66195</v>
+        <v>6.656316666666666</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3163,22 +3163,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
+        <v>6.86</v>
+      </c>
+      <c r="C80" t="n">
         <v>6.889</v>
       </c>
-      <c r="C80" t="n">
-        <v>6.941</v>
-      </c>
       <c r="D80" t="n">
-        <v>6.941</v>
+        <v>6.889</v>
       </c>
       <c r="E80" t="n">
-        <v>6.889</v>
+        <v>6.86</v>
       </c>
       <c r="F80" t="n">
-        <v>420288.3354</v>
+        <v>550528.4618</v>
       </c>
       <c r="G80" t="n">
-        <v>6.668449999999999</v>
+        <v>6.66195</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3198,22 +3198,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>6.909</v>
+        <v>6.889</v>
       </c>
       <c r="C81" t="n">
-        <v>6.9</v>
+        <v>6.941</v>
       </c>
       <c r="D81" t="n">
-        <v>6.909</v>
+        <v>6.941</v>
       </c>
       <c r="E81" t="n">
-        <v>6.9</v>
+        <v>6.889</v>
       </c>
       <c r="F81" t="n">
-        <v>136702.4849</v>
+        <v>420288.3354</v>
       </c>
       <c r="G81" t="n">
-        <v>6.674266666666666</v>
+        <v>6.668449999999999</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3233,22 +3233,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>6.84</v>
+        <v>6.909</v>
       </c>
       <c r="C82" t="n">
-        <v>6.828</v>
+        <v>6.9</v>
       </c>
       <c r="D82" t="n">
-        <v>6.84</v>
+        <v>6.909</v>
       </c>
       <c r="E82" t="n">
-        <v>6.801</v>
+        <v>6.9</v>
       </c>
       <c r="F82" t="n">
-        <v>101235.0812</v>
+        <v>136702.4849</v>
       </c>
       <c r="G82" t="n">
-        <v>6.678883333333332</v>
+        <v>6.674266666666666</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3268,22 +3268,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>6.837</v>
+        <v>6.84</v>
       </c>
       <c r="C83" t="n">
-        <v>6.837</v>
+        <v>6.828</v>
       </c>
       <c r="D83" t="n">
-        <v>6.837</v>
+        <v>6.84</v>
       </c>
       <c r="E83" t="n">
-        <v>6.837</v>
+        <v>6.801</v>
       </c>
       <c r="F83" t="n">
-        <v>3804.3478</v>
+        <v>101235.0812</v>
       </c>
       <c r="G83" t="n">
-        <v>6.682949999999999</v>
+        <v>6.678883333333332</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3303,22 +3303,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>6.85</v>
+        <v>6.837</v>
       </c>
       <c r="C84" t="n">
-        <v>6.85</v>
+        <v>6.837</v>
       </c>
       <c r="D84" t="n">
-        <v>6.85</v>
+        <v>6.837</v>
       </c>
       <c r="E84" t="n">
-        <v>6.85</v>
+        <v>6.837</v>
       </c>
       <c r="F84" t="n">
-        <v>173320.9279</v>
+        <v>3804.3478</v>
       </c>
       <c r="G84" t="n">
-        <v>6.687233333333332</v>
+        <v>6.682949999999999</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3350,10 +3350,10 @@
         <v>6.85</v>
       </c>
       <c r="F85" t="n">
-        <v>42517.4039</v>
+        <v>173320.9279</v>
       </c>
       <c r="G85" t="n">
-        <v>6.6915</v>
+        <v>6.687233333333332</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3373,22 +3373,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>6.843</v>
+        <v>6.85</v>
       </c>
       <c r="C86" t="n">
-        <v>6.746</v>
+        <v>6.85</v>
       </c>
       <c r="D86" t="n">
-        <v>6.844</v>
+        <v>6.85</v>
       </c>
       <c r="E86" t="n">
-        <v>6.746</v>
+        <v>6.85</v>
       </c>
       <c r="F86" t="n">
-        <v>480288.893</v>
+        <v>42517.4039</v>
       </c>
       <c r="G86" t="n">
-        <v>6.694049999999999</v>
+        <v>6.6915</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3408,22 +3408,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>6.745</v>
+        <v>6.843</v>
       </c>
       <c r="C87" t="n">
-        <v>6.771</v>
+        <v>6.746</v>
       </c>
       <c r="D87" t="n">
-        <v>6.771</v>
+        <v>6.844</v>
       </c>
       <c r="E87" t="n">
-        <v>6.701</v>
+        <v>6.746</v>
       </c>
       <c r="F87" t="n">
-        <v>113562.0207</v>
+        <v>480288.893</v>
       </c>
       <c r="G87" t="n">
-        <v>6.696899999999999</v>
+        <v>6.694049999999999</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3443,22 +3443,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>6.759</v>
+        <v>6.745</v>
       </c>
       <c r="C88" t="n">
-        <v>6.759</v>
+        <v>6.771</v>
       </c>
       <c r="D88" t="n">
-        <v>6.759</v>
+        <v>6.771</v>
       </c>
       <c r="E88" t="n">
-        <v>6.759</v>
+        <v>6.701</v>
       </c>
       <c r="F88" t="n">
-        <v>5174.0871</v>
+        <v>113562.0207</v>
       </c>
       <c r="G88" t="n">
-        <v>6.699549999999999</v>
+        <v>6.696899999999999</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3478,22 +3478,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>6.733</v>
+        <v>6.759</v>
       </c>
       <c r="C89" t="n">
-        <v>6.7</v>
+        <v>6.759</v>
       </c>
       <c r="D89" t="n">
-        <v>6.734</v>
+        <v>6.759</v>
       </c>
       <c r="E89" t="n">
-        <v>6.7</v>
+        <v>6.759</v>
       </c>
       <c r="F89" t="n">
-        <v>362518.8159</v>
+        <v>5174.0871</v>
       </c>
       <c r="G89" t="n">
-        <v>6.701349999999999</v>
+        <v>6.699549999999999</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3513,22 +3513,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>6.7</v>
+        <v>6.733</v>
       </c>
       <c r="C90" t="n">
         <v>6.7</v>
       </c>
       <c r="D90" t="n">
-        <v>6.7</v>
+        <v>6.734</v>
       </c>
       <c r="E90" t="n">
         <v>6.7</v>
       </c>
       <c r="F90" t="n">
-        <v>79190.34</v>
+        <v>362518.8159</v>
       </c>
       <c r="G90" t="n">
-        <v>6.703799999999998</v>
+        <v>6.701349999999999</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3548,22 +3548,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>6.635</v>
+        <v>6.7</v>
       </c>
       <c r="C91" t="n">
-        <v>6.625</v>
+        <v>6.7</v>
       </c>
       <c r="D91" t="n">
-        <v>6.635</v>
+        <v>6.7</v>
       </c>
       <c r="E91" t="n">
-        <v>6.625</v>
+        <v>6.7</v>
       </c>
       <c r="F91" t="n">
-        <v>303341.7475</v>
+        <v>79190.34</v>
       </c>
       <c r="G91" t="n">
-        <v>6.704266666666665</v>
+        <v>6.703799999999998</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3583,22 +3583,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
+        <v>6.635</v>
+      </c>
+      <c r="C92" t="n">
         <v>6.625</v>
       </c>
-      <c r="C92" t="n">
-        <v>6.6</v>
-      </c>
       <c r="D92" t="n">
+        <v>6.635</v>
+      </c>
+      <c r="E92" t="n">
         <v>6.625</v>
       </c>
-      <c r="E92" t="n">
-        <v>6.6</v>
-      </c>
       <c r="F92" t="n">
-        <v>331238.8066</v>
+        <v>303341.7475</v>
       </c>
       <c r="G92" t="n">
-        <v>6.704583333333332</v>
+        <v>6.704266666666665</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3618,22 +3618,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>6.55</v>
+        <v>6.625</v>
       </c>
       <c r="C93" t="n">
-        <v>6.55</v>
+        <v>6.6</v>
       </c>
       <c r="D93" t="n">
-        <v>6.55</v>
+        <v>6.625</v>
       </c>
       <c r="E93" t="n">
-        <v>6.55</v>
+        <v>6.6</v>
       </c>
       <c r="F93" t="n">
-        <v>12949.7448</v>
+        <v>331238.8066</v>
       </c>
       <c r="G93" t="n">
-        <v>6.704516666666666</v>
+        <v>6.704583333333332</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3653,22 +3653,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>6.553</v>
+        <v>6.55</v>
       </c>
       <c r="C94" t="n">
-        <v>6.553</v>
+        <v>6.55</v>
       </c>
       <c r="D94" t="n">
-        <v>6.553</v>
+        <v>6.55</v>
       </c>
       <c r="E94" t="n">
-        <v>6.553</v>
+        <v>6.55</v>
       </c>
       <c r="F94" t="n">
-        <v>116.3456</v>
+        <v>12949.7448</v>
       </c>
       <c r="G94" t="n">
-        <v>6.703399999999999</v>
+        <v>6.704516666666666</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3688,22 +3688,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>6.57</v>
+        <v>6.553</v>
       </c>
       <c r="C95" t="n">
-        <v>6.57</v>
+        <v>6.553</v>
       </c>
       <c r="D95" t="n">
-        <v>6.57</v>
+        <v>6.553</v>
       </c>
       <c r="E95" t="n">
-        <v>6.57</v>
+        <v>6.553</v>
       </c>
       <c r="F95" t="n">
-        <v>25393.0152</v>
+        <v>116.3456</v>
       </c>
       <c r="G95" t="n">
-        <v>6.702566666666666</v>
+        <v>6.703399999999999</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3723,22 +3723,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>6.596</v>
+        <v>6.57</v>
       </c>
       <c r="C96" t="n">
-        <v>6.592</v>
+        <v>6.57</v>
       </c>
       <c r="D96" t="n">
-        <v>6.596</v>
+        <v>6.57</v>
       </c>
       <c r="E96" t="n">
-        <v>6.592</v>
+        <v>6.57</v>
       </c>
       <c r="F96" t="n">
-        <v>23768.6932</v>
+        <v>25393.0152</v>
       </c>
       <c r="G96" t="n">
-        <v>6.701599999999999</v>
+        <v>6.702566666666666</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3758,22 +3758,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>6.571</v>
+        <v>6.596</v>
       </c>
       <c r="C97" t="n">
-        <v>6.571</v>
+        <v>6.592</v>
       </c>
       <c r="D97" t="n">
-        <v>6.571</v>
+        <v>6.596</v>
       </c>
       <c r="E97" t="n">
-        <v>6.571</v>
+        <v>6.592</v>
       </c>
       <c r="F97" t="n">
-        <v>700</v>
+        <v>23768.6932</v>
       </c>
       <c r="G97" t="n">
-        <v>6.700116666666665</v>
+        <v>6.701599999999999</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3793,22 +3793,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>6.58</v>
+        <v>6.571</v>
       </c>
       <c r="C98" t="n">
         <v>6.571</v>
       </c>
       <c r="D98" t="n">
-        <v>6.58</v>
+        <v>6.571</v>
       </c>
       <c r="E98" t="n">
         <v>6.571</v>
       </c>
       <c r="F98" t="n">
-        <v>141259.9889</v>
+        <v>700</v>
       </c>
       <c r="G98" t="n">
-        <v>6.699299999999999</v>
+        <v>6.700116666666665</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3828,22 +3828,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>6.553</v>
+        <v>6.58</v>
       </c>
       <c r="C99" t="n">
-        <v>6.553</v>
+        <v>6.571</v>
       </c>
       <c r="D99" t="n">
-        <v>6.553</v>
+        <v>6.58</v>
       </c>
       <c r="E99" t="n">
-        <v>6.553</v>
+        <v>6.571</v>
       </c>
       <c r="F99" t="n">
-        <v>8243.4496</v>
+        <v>141259.9889</v>
       </c>
       <c r="G99" t="n">
-        <v>6.698183333333333</v>
+        <v>6.699299999999999</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3863,22 +3863,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>6.577</v>
+        <v>6.553</v>
       </c>
       <c r="C100" t="n">
-        <v>6.577</v>
+        <v>6.553</v>
       </c>
       <c r="D100" t="n">
-        <v>6.577</v>
+        <v>6.553</v>
       </c>
       <c r="E100" t="n">
-        <v>6.577</v>
+        <v>6.553</v>
       </c>
       <c r="F100" t="n">
-        <v>149547.7341</v>
+        <v>8243.4496</v>
       </c>
       <c r="G100" t="n">
-        <v>6.697466666666666</v>
+        <v>6.698183333333333</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3898,22 +3898,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>6.58</v>
+        <v>6.577</v>
       </c>
       <c r="C101" t="n">
-        <v>6.58</v>
+        <v>6.577</v>
       </c>
       <c r="D101" t="n">
-        <v>6.58</v>
+        <v>6.577</v>
       </c>
       <c r="E101" t="n">
-        <v>6.58</v>
+        <v>6.577</v>
       </c>
       <c r="F101" t="n">
-        <v>6203.9976</v>
+        <v>149547.7341</v>
       </c>
       <c r="G101" t="n">
-        <v>6.696799999999999</v>
+        <v>6.697466666666666</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>6.58</v>
       </c>
       <c r="F102" t="n">
-        <v>26077.3953</v>
+        <v>6203.9976</v>
       </c>
       <c r="G102" t="n">
-        <v>6.696149999999998</v>
+        <v>6.696799999999999</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3980,10 +3980,10 @@
         <v>6.58</v>
       </c>
       <c r="F103" t="n">
-        <v>41994.7746</v>
+        <v>26077.3953</v>
       </c>
       <c r="G103" t="n">
-        <v>6.695983333333332</v>
+        <v>6.696149999999998</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4015,10 +4015,10 @@
         <v>6.58</v>
       </c>
       <c r="F104" t="n">
-        <v>150000</v>
+        <v>41994.7746</v>
       </c>
       <c r="G104" t="n">
-        <v>6.695649999999998</v>
+        <v>6.695983333333332</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4038,7 +4038,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>6.57</v>
+        <v>6.58</v>
       </c>
       <c r="C105" t="n">
         <v>6.58</v>
@@ -4047,13 +4047,13 @@
         <v>6.58</v>
       </c>
       <c r="E105" t="n">
-        <v>6.57</v>
+        <v>6.58</v>
       </c>
       <c r="F105" t="n">
-        <v>177002.3397</v>
+        <v>150000</v>
       </c>
       <c r="G105" t="n">
-        <v>6.695316666666664</v>
+        <v>6.695649999999998</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4073,7 +4073,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>6.58</v>
+        <v>6.57</v>
       </c>
       <c r="C106" t="n">
         <v>6.58</v>
@@ -4082,10 +4082,10 @@
         <v>6.58</v>
       </c>
       <c r="E106" t="n">
-        <v>6.58</v>
+        <v>6.57</v>
       </c>
       <c r="F106" t="n">
-        <v>237006.7679</v>
+        <v>177002.3397</v>
       </c>
       <c r="G106" t="n">
         <v>6.695316666666664</v>
@@ -4108,22 +4108,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>6.59</v>
+        <v>6.58</v>
       </c>
       <c r="C107" t="n">
-        <v>6.59</v>
+        <v>6.58</v>
       </c>
       <c r="D107" t="n">
-        <v>6.59</v>
+        <v>6.58</v>
       </c>
       <c r="E107" t="n">
-        <v>6.59</v>
+        <v>6.58</v>
       </c>
       <c r="F107" t="n">
-        <v>21458.1079</v>
+        <v>237006.7679</v>
       </c>
       <c r="G107" t="n">
-        <v>6.695649999999997</v>
+        <v>6.695316666666664</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4146,19 +4146,19 @@
         <v>6.59</v>
       </c>
       <c r="C108" t="n">
-        <v>6.626</v>
+        <v>6.59</v>
       </c>
       <c r="D108" t="n">
-        <v>6.626</v>
+        <v>6.59</v>
       </c>
       <c r="E108" t="n">
         <v>6.59</v>
       </c>
       <c r="F108" t="n">
-        <v>380926.6003</v>
+        <v>21458.1079</v>
       </c>
       <c r="G108" t="n">
-        <v>6.696866666666663</v>
+        <v>6.695649999999997</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4178,7 +4178,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>6.626</v>
+        <v>6.59</v>
       </c>
       <c r="C109" t="n">
         <v>6.626</v>
@@ -4187,13 +4187,13 @@
         <v>6.626</v>
       </c>
       <c r="E109" t="n">
-        <v>6.626</v>
+        <v>6.59</v>
       </c>
       <c r="F109" t="n">
-        <v>20020.1076</v>
+        <v>380926.6003</v>
       </c>
       <c r="G109" t="n">
-        <v>6.69743333333333</v>
+        <v>6.696866666666663</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4213,22 +4213,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>6.632</v>
+        <v>6.626</v>
       </c>
       <c r="C110" t="n">
-        <v>6.632</v>
+        <v>6.626</v>
       </c>
       <c r="D110" t="n">
-        <v>6.632</v>
+        <v>6.626</v>
       </c>
       <c r="E110" t="n">
-        <v>6.632</v>
+        <v>6.626</v>
       </c>
       <c r="F110" t="n">
-        <v>14897.2669</v>
+        <v>20020.1076</v>
       </c>
       <c r="G110" t="n">
-        <v>6.69783333333333</v>
+        <v>6.69743333333333</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4248,22 +4248,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>6.633</v>
+        <v>6.632</v>
       </c>
       <c r="C111" t="n">
-        <v>6.633</v>
+        <v>6.632</v>
       </c>
       <c r="D111" t="n">
-        <v>6.633</v>
+        <v>6.632</v>
       </c>
       <c r="E111" t="n">
-        <v>6.633</v>
+        <v>6.632</v>
       </c>
       <c r="F111" t="n">
-        <v>150000</v>
+        <v>14897.2669</v>
       </c>
       <c r="G111" t="n">
-        <v>6.698466666666662</v>
+        <v>6.69783333333333</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4283,22 +4283,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>6.636</v>
+        <v>6.633</v>
       </c>
       <c r="C112" t="n">
-        <v>6.636</v>
+        <v>6.633</v>
       </c>
       <c r="D112" t="n">
-        <v>6.636</v>
+        <v>6.633</v>
       </c>
       <c r="E112" t="n">
-        <v>6.636</v>
+        <v>6.633</v>
       </c>
       <c r="F112" t="n">
-        <v>17335.7783</v>
+        <v>150000</v>
       </c>
       <c r="G112" t="n">
-        <v>6.698733333333329</v>
+        <v>6.698466666666662</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4330,10 +4330,10 @@
         <v>6.636</v>
       </c>
       <c r="F113" t="n">
-        <v>31586.3941</v>
+        <v>17335.7783</v>
       </c>
       <c r="G113" t="n">
-        <v>6.698949999999996</v>
+        <v>6.698733333333329</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4353,22 +4353,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>6.643</v>
+        <v>6.636</v>
       </c>
       <c r="C114" t="n">
-        <v>6.643</v>
+        <v>6.636</v>
       </c>
       <c r="D114" t="n">
-        <v>6.643</v>
+        <v>6.636</v>
       </c>
       <c r="E114" t="n">
-        <v>6.643</v>
+        <v>6.636</v>
       </c>
       <c r="F114" t="n">
-        <v>12931</v>
+        <v>31586.3941</v>
       </c>
       <c r="G114" t="n">
-        <v>6.698716666666663</v>
+        <v>6.698949999999996</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4388,22 +4388,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>6.626</v>
+        <v>6.643</v>
       </c>
       <c r="C115" t="n">
-        <v>6.601</v>
+        <v>6.643</v>
       </c>
       <c r="D115" t="n">
-        <v>6.626</v>
+        <v>6.643</v>
       </c>
       <c r="E115" t="n">
-        <v>6.601</v>
+        <v>6.643</v>
       </c>
       <c r="F115" t="n">
-        <v>28532.3068</v>
+        <v>12931</v>
       </c>
       <c r="G115" t="n">
-        <v>6.697733333333329</v>
+        <v>6.698716666666663</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4423,22 +4423,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>6.59</v>
+        <v>6.626</v>
       </c>
       <c r="C116" t="n">
-        <v>6.591</v>
+        <v>6.601</v>
       </c>
       <c r="D116" t="n">
-        <v>6.591</v>
+        <v>6.626</v>
       </c>
       <c r="E116" t="n">
-        <v>6.59</v>
+        <v>6.601</v>
       </c>
       <c r="F116" t="n">
-        <v>71779.2591</v>
+        <v>28532.3068</v>
       </c>
       <c r="G116" t="n">
-        <v>6.69643333333333</v>
+        <v>6.697733333333329</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4458,22 +4458,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
+        <v>6.59</v>
+      </c>
+      <c r="C117" t="n">
         <v>6.591</v>
       </c>
-      <c r="C117" t="n">
-        <v>6.593</v>
-      </c>
       <c r="D117" t="n">
-        <v>6.594</v>
+        <v>6.591</v>
       </c>
       <c r="E117" t="n">
-        <v>6.591</v>
+        <v>6.59</v>
       </c>
       <c r="F117" t="n">
-        <v>113202.2541</v>
+        <v>71779.2591</v>
       </c>
       <c r="G117" t="n">
-        <v>6.695166666666664</v>
+        <v>6.69643333333333</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4493,22 +4493,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>6.59</v>
+        <v>6.591</v>
       </c>
       <c r="C118" t="n">
-        <v>6.59</v>
+        <v>6.593</v>
       </c>
       <c r="D118" t="n">
-        <v>6.59</v>
+        <v>6.594</v>
       </c>
       <c r="E118" t="n">
-        <v>6.59</v>
+        <v>6.591</v>
       </c>
       <c r="F118" t="n">
-        <v>8182.4652</v>
+        <v>113202.2541</v>
       </c>
       <c r="G118" t="n">
-        <v>6.693866666666663</v>
+        <v>6.695166666666664</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4540,10 +4540,10 @@
         <v>6.59</v>
       </c>
       <c r="F119" t="n">
-        <v>4624.8716</v>
+        <v>8182.4652</v>
       </c>
       <c r="G119" t="n">
-        <v>6.692566666666663</v>
+        <v>6.693866666666663</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4563,22 +4563,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>6.63</v>
+        <v>6.59</v>
       </c>
       <c r="C120" t="n">
-        <v>6.64</v>
+        <v>6.59</v>
       </c>
       <c r="D120" t="n">
-        <v>6.64</v>
+        <v>6.59</v>
       </c>
       <c r="E120" t="n">
-        <v>6.63</v>
+        <v>6.59</v>
       </c>
       <c r="F120" t="n">
-        <v>68510</v>
+        <v>4624.8716</v>
       </c>
       <c r="G120" t="n">
-        <v>6.692149999999995</v>
+        <v>6.692566666666663</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4598,22 +4598,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>6.655</v>
+        <v>6.63</v>
       </c>
       <c r="C121" t="n">
-        <v>6.655</v>
+        <v>6.64</v>
       </c>
       <c r="D121" t="n">
-        <v>6.655</v>
+        <v>6.64</v>
       </c>
       <c r="E121" t="n">
-        <v>6.655</v>
+        <v>6.63</v>
       </c>
       <c r="F121" t="n">
-        <v>588.644</v>
+        <v>68510</v>
       </c>
       <c r="G121" t="n">
-        <v>6.691966666666661</v>
+        <v>6.692149999999995</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4645,10 +4645,10 @@
         <v>6.655</v>
       </c>
       <c r="F122" t="n">
-        <v>47979.8716</v>
+        <v>588.644</v>
       </c>
       <c r="G122" t="n">
-        <v>6.691216666666661</v>
+        <v>6.691966666666661</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4668,22 +4668,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>6.631</v>
+        <v>6.655</v>
       </c>
       <c r="C123" t="n">
-        <v>6.631</v>
+        <v>6.655</v>
       </c>
       <c r="D123" t="n">
-        <v>6.631</v>
+        <v>6.655</v>
       </c>
       <c r="E123" t="n">
-        <v>6.631</v>
+        <v>6.655</v>
       </c>
       <c r="F123" t="n">
-        <v>9468.134599999999</v>
+        <v>47979.8716</v>
       </c>
       <c r="G123" t="n">
-        <v>6.690066666666662</v>
+        <v>6.691216666666661</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4703,22 +4703,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>6.63</v>
+        <v>6.631</v>
       </c>
       <c r="C124" t="n">
-        <v>6.591</v>
+        <v>6.631</v>
       </c>
       <c r="D124" t="n">
-        <v>6.63</v>
+        <v>6.631</v>
       </c>
       <c r="E124" t="n">
-        <v>6.591</v>
+        <v>6.631</v>
       </c>
       <c r="F124" t="n">
-        <v>3045332.5565</v>
+        <v>9468.134599999999</v>
       </c>
       <c r="G124" t="n">
-        <v>6.688249999999996</v>
+        <v>6.690066666666662</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4738,22 +4738,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>6.645</v>
+        <v>6.63</v>
       </c>
       <c r="C125" t="n">
-        <v>6.645</v>
+        <v>6.591</v>
       </c>
       <c r="D125" t="n">
-        <v>6.645</v>
+        <v>6.63</v>
       </c>
       <c r="E125" t="n">
-        <v>6.645</v>
+        <v>6.591</v>
       </c>
       <c r="F125" t="n">
-        <v>17130</v>
+        <v>3045332.5565</v>
       </c>
       <c r="G125" t="n">
-        <v>6.687333333333329</v>
+        <v>6.688249999999996</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4773,22 +4773,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>6.633</v>
+        <v>6.645</v>
       </c>
       <c r="C126" t="n">
-        <v>6.632</v>
+        <v>6.645</v>
       </c>
       <c r="D126" t="n">
-        <v>6.633</v>
+        <v>6.645</v>
       </c>
       <c r="E126" t="n">
-        <v>6.632</v>
+        <v>6.645</v>
       </c>
       <c r="F126" t="n">
-        <v>34218.6211</v>
+        <v>17130</v>
       </c>
       <c r="G126" t="n">
-        <v>6.686199999999996</v>
+        <v>6.687333333333329</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4808,22 +4808,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>6.631</v>
+        <v>6.633</v>
       </c>
       <c r="C127" t="n">
-        <v>6.631</v>
+        <v>6.632</v>
       </c>
       <c r="D127" t="n">
-        <v>6.631</v>
+        <v>6.633</v>
       </c>
       <c r="E127" t="n">
-        <v>6.631</v>
+        <v>6.632</v>
       </c>
       <c r="F127" t="n">
-        <v>17732.4312</v>
+        <v>34218.6211</v>
       </c>
       <c r="G127" t="n">
-        <v>6.684566666666663</v>
+        <v>6.686199999999996</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4843,22 +4843,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>6.639</v>
+        <v>6.631</v>
       </c>
       <c r="C128" t="n">
-        <v>6.654</v>
+        <v>6.631</v>
       </c>
       <c r="D128" t="n">
-        <v>6.654</v>
+        <v>6.631</v>
       </c>
       <c r="E128" t="n">
-        <v>6.639</v>
+        <v>6.631</v>
       </c>
       <c r="F128" t="n">
-        <v>107602.637</v>
+        <v>17732.4312</v>
       </c>
       <c r="G128" t="n">
-        <v>6.68313333333333</v>
+        <v>6.684566666666663</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4878,22 +4878,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
+        <v>6.639</v>
+      </c>
+      <c r="C129" t="n">
         <v>6.654</v>
-      </c>
-      <c r="C129" t="n">
-        <v>6.63</v>
       </c>
       <c r="D129" t="n">
         <v>6.654</v>
       </c>
       <c r="E129" t="n">
-        <v>6.63</v>
+        <v>6.639</v>
       </c>
       <c r="F129" t="n">
-        <v>93510.2303</v>
+        <v>107602.637</v>
       </c>
       <c r="G129" t="n">
-        <v>6.680766666666663</v>
+        <v>6.68313333333333</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4913,22 +4913,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>6.63</v>
+        <v>6.654</v>
       </c>
       <c r="C130" t="n">
         <v>6.63</v>
       </c>
       <c r="D130" t="n">
-        <v>6.63</v>
+        <v>6.654</v>
       </c>
       <c r="E130" t="n">
         <v>6.63</v>
       </c>
       <c r="F130" t="n">
-        <v>12699.6087</v>
+        <v>93510.2303</v>
       </c>
       <c r="G130" t="n">
-        <v>6.678016666666663</v>
+        <v>6.680766666666663</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4948,22 +4948,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>6.653</v>
+        <v>6.63</v>
       </c>
       <c r="C131" t="n">
-        <v>6.654</v>
+        <v>6.63</v>
       </c>
       <c r="D131" t="n">
-        <v>6.654</v>
+        <v>6.63</v>
       </c>
       <c r="E131" t="n">
-        <v>6.653</v>
+        <v>6.63</v>
       </c>
       <c r="F131" t="n">
-        <v>19797.7689</v>
+        <v>12699.6087</v>
       </c>
       <c r="G131" t="n">
-        <v>6.675583333333329</v>
+        <v>6.678016666666663</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4995,10 +4995,10 @@
         <v>6.653</v>
       </c>
       <c r="F132" t="n">
-        <v>213644.5947</v>
+        <v>19797.7689</v>
       </c>
       <c r="G132" t="n">
-        <v>6.673283333333329</v>
+        <v>6.675583333333329</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5018,22 +5018,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>6.655</v>
+        <v>6.653</v>
       </c>
       <c r="C133" t="n">
-        <v>6.657</v>
+        <v>6.654</v>
       </c>
       <c r="D133" t="n">
-        <v>6.657</v>
+        <v>6.654</v>
       </c>
       <c r="E133" t="n">
-        <v>6.655</v>
+        <v>6.653</v>
       </c>
       <c r="F133" t="n">
-        <v>266167.4085</v>
+        <v>213644.5947</v>
       </c>
       <c r="G133" t="n">
-        <v>6.670716666666663</v>
+        <v>6.673283333333329</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5053,7 +5053,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>6.657</v>
+        <v>6.655</v>
       </c>
       <c r="C134" t="n">
         <v>6.657</v>
@@ -5062,13 +5062,13 @@
         <v>6.657</v>
       </c>
       <c r="E134" t="n">
-        <v>6.657</v>
+        <v>6.655</v>
       </c>
       <c r="F134" t="n">
-        <v>49363.1592</v>
+        <v>266167.4085</v>
       </c>
       <c r="G134" t="n">
-        <v>6.667366666666663</v>
+        <v>6.670716666666663</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5088,22 +5088,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>6.67</v>
+        <v>6.657</v>
       </c>
       <c r="C135" t="n">
-        <v>6.671</v>
+        <v>6.657</v>
       </c>
       <c r="D135" t="n">
-        <v>6.671</v>
+        <v>6.657</v>
       </c>
       <c r="E135" t="n">
-        <v>6.67</v>
+        <v>6.657</v>
       </c>
       <c r="F135" t="n">
-        <v>277430.4314</v>
+        <v>49363.1592</v>
       </c>
       <c r="G135" t="n">
-        <v>6.663733333333329</v>
+        <v>6.667366666666663</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5123,22 +5123,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>6.719</v>
+        <v>6.67</v>
       </c>
       <c r="C136" t="n">
-        <v>6.718</v>
+        <v>6.671</v>
       </c>
       <c r="D136" t="n">
-        <v>6.719</v>
+        <v>6.671</v>
       </c>
       <c r="E136" t="n">
-        <v>6.718</v>
+        <v>6.67</v>
       </c>
       <c r="F136" t="n">
-        <v>202614.7473</v>
+        <v>277430.4314</v>
       </c>
       <c r="G136" t="n">
-        <v>6.661216666666663</v>
+        <v>6.663733333333329</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5158,22 +5158,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>6.7</v>
+        <v>6.719</v>
       </c>
       <c r="C137" t="n">
-        <v>6.7</v>
+        <v>6.718</v>
       </c>
       <c r="D137" t="n">
-        <v>6.7</v>
+        <v>6.719</v>
       </c>
       <c r="E137" t="n">
-        <v>6.7</v>
+        <v>6.718</v>
       </c>
       <c r="F137" t="n">
-        <v>165843.7621</v>
+        <v>202614.7473</v>
       </c>
       <c r="G137" t="n">
-        <v>6.659566666666663</v>
+        <v>6.661216666666663</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5193,22 +5193,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>6.684</v>
+        <v>6.7</v>
       </c>
       <c r="C138" t="n">
-        <v>6.684</v>
+        <v>6.7</v>
       </c>
       <c r="D138" t="n">
-        <v>6.684</v>
+        <v>6.7</v>
       </c>
       <c r="E138" t="n">
-        <v>6.684</v>
+        <v>6.7</v>
       </c>
       <c r="F138" t="n">
-        <v>534.0071</v>
+        <v>165843.7621</v>
       </c>
       <c r="G138" t="n">
-        <v>6.65648333333333</v>
+        <v>6.659566666666663</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5228,22 +5228,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>6.697</v>
+        <v>6.684</v>
       </c>
       <c r="C139" t="n">
-        <v>6.697</v>
+        <v>6.684</v>
       </c>
       <c r="D139" t="n">
-        <v>6.697</v>
+        <v>6.684</v>
       </c>
       <c r="E139" t="n">
-        <v>6.697</v>
+        <v>6.684</v>
       </c>
       <c r="F139" t="n">
-        <v>33145.9242</v>
+        <v>534.0071</v>
       </c>
       <c r="G139" t="n">
-        <v>6.65328333333333</v>
+        <v>6.65648333333333</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5263,22 +5263,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>6.686</v>
+        <v>6.697</v>
       </c>
       <c r="C140" t="n">
-        <v>6.686</v>
+        <v>6.697</v>
       </c>
       <c r="D140" t="n">
-        <v>6.687</v>
+        <v>6.697</v>
       </c>
       <c r="E140" t="n">
-        <v>6.686</v>
+        <v>6.697</v>
       </c>
       <c r="F140" t="n">
-        <v>417451.9999</v>
+        <v>33145.9242</v>
       </c>
       <c r="G140" t="n">
-        <v>6.64903333333333</v>
+        <v>6.65328333333333</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5304,16 +5304,16 @@
         <v>6.686</v>
       </c>
       <c r="D141" t="n">
-        <v>6.686</v>
+        <v>6.687</v>
       </c>
       <c r="E141" t="n">
         <v>6.686</v>
       </c>
       <c r="F141" t="n">
-        <v>34775.6006</v>
+        <v>417451.9999</v>
       </c>
       <c r="G141" t="n">
-        <v>6.645466666666663</v>
+        <v>6.64903333333333</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5333,22 +5333,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>6.67</v>
+        <v>6.686</v>
       </c>
       <c r="C142" t="n">
-        <v>6.67</v>
+        <v>6.686</v>
       </c>
       <c r="D142" t="n">
-        <v>6.67</v>
+        <v>6.686</v>
       </c>
       <c r="E142" t="n">
-        <v>6.67</v>
+        <v>6.686</v>
       </c>
       <c r="F142" t="n">
-        <v>102814</v>
+        <v>34775.6006</v>
       </c>
       <c r="G142" t="n">
-        <v>6.64283333333333</v>
+        <v>6.645466666666663</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5368,22 +5368,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>6.668</v>
+        <v>6.67</v>
       </c>
       <c r="C143" t="n">
-        <v>6.668</v>
+        <v>6.67</v>
       </c>
       <c r="D143" t="n">
-        <v>6.668</v>
+        <v>6.67</v>
       </c>
       <c r="E143" t="n">
-        <v>6.668</v>
+        <v>6.67</v>
       </c>
       <c r="F143" t="n">
-        <v>96455.81</v>
+        <v>102814</v>
       </c>
       <c r="G143" t="n">
-        <v>6.640016666666664</v>
+        <v>6.64283333333333</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5403,22 +5403,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>6.657</v>
+        <v>6.668</v>
       </c>
       <c r="C144" t="n">
-        <v>6.657</v>
+        <v>6.668</v>
       </c>
       <c r="D144" t="n">
-        <v>6.657</v>
+        <v>6.668</v>
       </c>
       <c r="E144" t="n">
-        <v>6.657</v>
+        <v>6.668</v>
       </c>
       <c r="F144" t="n">
-        <v>343217.6006</v>
+        <v>96455.81</v>
       </c>
       <c r="G144" t="n">
-        <v>6.636799999999996</v>
+        <v>6.640016666666664</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5450,10 +5450,10 @@
         <v>6.657</v>
       </c>
       <c r="F145" t="n">
-        <v>111597.5762</v>
+        <v>343217.6006</v>
       </c>
       <c r="G145" t="n">
-        <v>6.63358333333333</v>
+        <v>6.636799999999996</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5473,22 +5473,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>6.619</v>
+        <v>6.657</v>
       </c>
       <c r="C146" t="n">
-        <v>6.619</v>
+        <v>6.657</v>
       </c>
       <c r="D146" t="n">
-        <v>6.619</v>
+        <v>6.657</v>
       </c>
       <c r="E146" t="n">
-        <v>6.619</v>
+        <v>6.657</v>
       </c>
       <c r="F146" t="n">
-        <v>2069.799</v>
+        <v>111597.5762</v>
       </c>
       <c r="G146" t="n">
-        <v>6.631466666666664</v>
+        <v>6.63358333333333</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5508,22 +5508,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>6.596</v>
+        <v>6.619</v>
       </c>
       <c r="C147" t="n">
-        <v>6.596</v>
+        <v>6.619</v>
       </c>
       <c r="D147" t="n">
-        <v>6.596</v>
+        <v>6.619</v>
       </c>
       <c r="E147" t="n">
-        <v>6.596</v>
+        <v>6.619</v>
       </c>
       <c r="F147" t="n">
-        <v>9920.662200000001</v>
+        <v>2069.799</v>
       </c>
       <c r="G147" t="n">
-        <v>6.628549999999996</v>
+        <v>6.631466666666664</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5546,19 +5546,19 @@
         <v>6.596</v>
       </c>
       <c r="C148" t="n">
-        <v>6.59</v>
+        <v>6.596</v>
       </c>
       <c r="D148" t="n">
         <v>6.596</v>
       </c>
       <c r="E148" t="n">
-        <v>6.59</v>
+        <v>6.596</v>
       </c>
       <c r="F148" t="n">
-        <v>167445.3417</v>
+        <v>9920.662200000001</v>
       </c>
       <c r="G148" t="n">
-        <v>6.625733333333329</v>
+        <v>6.628549999999996</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5578,22 +5578,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>6.591</v>
+        <v>6.596</v>
       </c>
       <c r="C149" t="n">
         <v>6.59</v>
       </c>
       <c r="D149" t="n">
-        <v>6.592</v>
+        <v>6.596</v>
       </c>
       <c r="E149" t="n">
         <v>6.59</v>
       </c>
       <c r="F149" t="n">
-        <v>241047.9999</v>
+        <v>167445.3417</v>
       </c>
       <c r="G149" t="n">
-        <v>6.623899999999995</v>
+        <v>6.625733333333329</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5613,22 +5613,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>6.59</v>
+        <v>6.591</v>
       </c>
       <c r="C150" t="n">
         <v>6.59</v>
       </c>
       <c r="D150" t="n">
-        <v>6.59</v>
+        <v>6.592</v>
       </c>
       <c r="E150" t="n">
         <v>6.59</v>
       </c>
       <c r="F150" t="n">
-        <v>25441.3585</v>
+        <v>241047.9999</v>
       </c>
       <c r="G150" t="n">
-        <v>6.622066666666663</v>
+        <v>6.623899999999995</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5648,22 +5648,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>6.591</v>
+        <v>6.59</v>
       </c>
       <c r="C151" t="n">
         <v>6.59</v>
       </c>
       <c r="D151" t="n">
-        <v>6.591</v>
+        <v>6.59</v>
       </c>
       <c r="E151" t="n">
         <v>6.59</v>
       </c>
       <c r="F151" t="n">
-        <v>72882.06170000001</v>
+        <v>25441.3585</v>
       </c>
       <c r="G151" t="n">
-        <v>6.621483333333329</v>
+        <v>6.622066666666663</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5683,22 +5683,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>6.628</v>
+        <v>6.591</v>
       </c>
       <c r="C152" t="n">
-        <v>6.628</v>
+        <v>6.59</v>
       </c>
       <c r="D152" t="n">
-        <v>6.628</v>
+        <v>6.591</v>
       </c>
       <c r="E152" t="n">
-        <v>6.628</v>
+        <v>6.59</v>
       </c>
       <c r="F152" t="n">
-        <v>374</v>
+        <v>72882.06170000001</v>
       </c>
       <c r="G152" t="n">
-        <v>6.621949999999995</v>
+        <v>6.621483333333329</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5718,22 +5718,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>6.617</v>
+        <v>6.628</v>
       </c>
       <c r="C153" t="n">
-        <v>6.617</v>
+        <v>6.628</v>
       </c>
       <c r="D153" t="n">
-        <v>6.617</v>
+        <v>6.628</v>
       </c>
       <c r="E153" t="n">
-        <v>6.617</v>
+        <v>6.628</v>
       </c>
       <c r="F153" t="n">
-        <v>7687.5319</v>
+        <v>374</v>
       </c>
       <c r="G153" t="n">
-        <v>6.623066666666661</v>
+        <v>6.621949999999995</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5753,22 +5753,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>6.628</v>
+        <v>6.617</v>
       </c>
       <c r="C154" t="n">
-        <v>6.628</v>
+        <v>6.617</v>
       </c>
       <c r="D154" t="n">
-        <v>6.628</v>
+        <v>6.617</v>
       </c>
       <c r="E154" t="n">
-        <v>6.628</v>
+        <v>6.617</v>
       </c>
       <c r="F154" t="n">
-        <v>5220</v>
+        <v>7687.5319</v>
       </c>
       <c r="G154" t="n">
-        <v>6.624316666666661</v>
+        <v>6.623066666666661</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5800,10 +5800,10 @@
         <v>6.628</v>
       </c>
       <c r="F155" t="n">
-        <v>137527.3779</v>
+        <v>5220</v>
       </c>
       <c r="G155" t="n">
-        <v>6.625283333333328</v>
+        <v>6.624316666666661</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5835,10 +5835,10 @@
         <v>6.628</v>
       </c>
       <c r="F156" t="n">
-        <v>93407.1379</v>
+        <v>137527.3779</v>
       </c>
       <c r="G156" t="n">
-        <v>6.625883333333328</v>
+        <v>6.625283333333328</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5858,22 +5858,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>6.637</v>
+        <v>6.628</v>
       </c>
       <c r="C157" t="n">
-        <v>6.637</v>
+        <v>6.628</v>
       </c>
       <c r="D157" t="n">
-        <v>6.637</v>
+        <v>6.628</v>
       </c>
       <c r="E157" t="n">
-        <v>6.637</v>
+        <v>6.628</v>
       </c>
       <c r="F157" t="n">
-        <v>88619.91800000001</v>
+        <v>93407.1379</v>
       </c>
       <c r="G157" t="n">
-        <v>6.626983333333327</v>
+        <v>6.625883333333328</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5893,22 +5893,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>6.626</v>
+        <v>6.637</v>
       </c>
       <c r="C158" t="n">
-        <v>6.648</v>
+        <v>6.637</v>
       </c>
       <c r="D158" t="n">
-        <v>6.648</v>
+        <v>6.637</v>
       </c>
       <c r="E158" t="n">
-        <v>6.626</v>
+        <v>6.637</v>
       </c>
       <c r="F158" t="n">
-        <v>255929.6913357401</v>
+        <v>88619.91800000001</v>
       </c>
       <c r="G158" t="n">
-        <v>6.628266666666661</v>
+        <v>6.626983333333327</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5928,7 +5928,7 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>6.639</v>
+        <v>6.626</v>
       </c>
       <c r="C159" t="n">
         <v>6.648</v>
@@ -5937,13 +5937,13 @@
         <v>6.648</v>
       </c>
       <c r="E159" t="n">
-        <v>6.639</v>
+        <v>6.626</v>
       </c>
       <c r="F159" t="n">
-        <v>756975.3669</v>
+        <v>255929.6913357401</v>
       </c>
       <c r="G159" t="n">
-        <v>6.629849999999994</v>
+        <v>6.628266666666661</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -5963,22 +5963,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>6.649</v>
+        <v>6.639</v>
       </c>
       <c r="C160" t="n">
-        <v>6.649</v>
+        <v>6.648</v>
       </c>
       <c r="D160" t="n">
-        <v>6.649</v>
+        <v>6.648</v>
       </c>
       <c r="E160" t="n">
-        <v>6.649</v>
+        <v>6.639</v>
       </c>
       <c r="F160" t="n">
-        <v>3915.6012</v>
+        <v>756975.3669</v>
       </c>
       <c r="G160" t="n">
-        <v>6.631049999999994</v>
+        <v>6.629849999999994</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -5998,22 +5998,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>6.611</v>
+        <v>6.649</v>
       </c>
       <c r="C161" t="n">
-        <v>6.6</v>
+        <v>6.649</v>
       </c>
       <c r="D161" t="n">
-        <v>6.611</v>
+        <v>6.649</v>
       </c>
       <c r="E161" t="n">
-        <v>6.6</v>
+        <v>6.649</v>
       </c>
       <c r="F161" t="n">
-        <v>54060</v>
+        <v>3915.6012</v>
       </c>
       <c r="G161" t="n">
-        <v>6.631383333333329</v>
+        <v>6.631049999999994</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6033,22 +6033,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>6.59</v>
+        <v>6.611</v>
       </c>
       <c r="C162" t="n">
-        <v>6.59</v>
+        <v>6.6</v>
       </c>
       <c r="D162" t="n">
-        <v>6.59</v>
+        <v>6.611</v>
       </c>
       <c r="E162" t="n">
-        <v>6.59</v>
+        <v>6.6</v>
       </c>
       <c r="F162" t="n">
-        <v>8532.962</v>
+        <v>54060</v>
       </c>
       <c r="G162" t="n">
-        <v>6.631549999999995</v>
+        <v>6.631383333333329</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6068,22 +6068,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>6.575</v>
+        <v>6.59</v>
       </c>
       <c r="C163" t="n">
-        <v>6.575</v>
+        <v>6.59</v>
       </c>
       <c r="D163" t="n">
-        <v>6.585</v>
+        <v>6.59</v>
       </c>
       <c r="E163" t="n">
-        <v>6.575</v>
+        <v>6.59</v>
       </c>
       <c r="F163" t="n">
-        <v>231771.0409</v>
+        <v>8532.962</v>
       </c>
       <c r="G163" t="n">
-        <v>6.631466666666662</v>
+        <v>6.631549999999995</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6109,16 +6109,16 @@
         <v>6.575</v>
       </c>
       <c r="D164" t="n">
-        <v>6.575</v>
+        <v>6.585</v>
       </c>
       <c r="E164" t="n">
         <v>6.575</v>
       </c>
       <c r="F164" t="n">
-        <v>353285.2157</v>
+        <v>231771.0409</v>
       </c>
       <c r="G164" t="n">
-        <v>6.631383333333329</v>
+        <v>6.631466666666662</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6150,10 +6150,10 @@
         <v>6.575</v>
       </c>
       <c r="F165" t="n">
-        <v>216096.527</v>
+        <v>353285.2157</v>
       </c>
       <c r="G165" t="n">
-        <v>6.631299999999995</v>
+        <v>6.631383333333329</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6173,22 +6173,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>6.588</v>
+        <v>6.575</v>
       </c>
       <c r="C166" t="n">
-        <v>6.588</v>
+        <v>6.575</v>
       </c>
       <c r="D166" t="n">
-        <v>6.588</v>
+        <v>6.575</v>
       </c>
       <c r="E166" t="n">
-        <v>6.588</v>
+        <v>6.575</v>
       </c>
       <c r="F166" t="n">
-        <v>19660</v>
+        <v>216096.527</v>
       </c>
       <c r="G166" t="n">
-        <v>6.631433333333329</v>
+        <v>6.631299999999995</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6208,22 +6208,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>6.562</v>
+        <v>6.588</v>
       </c>
       <c r="C167" t="n">
-        <v>6.562</v>
+        <v>6.588</v>
       </c>
       <c r="D167" t="n">
-        <v>6.562</v>
+        <v>6.588</v>
       </c>
       <c r="E167" t="n">
-        <v>6.562</v>
+        <v>6.588</v>
       </c>
       <c r="F167" t="n">
-        <v>496.4217</v>
+        <v>19660</v>
       </c>
       <c r="G167" t="n">
-        <v>6.630966666666663</v>
+        <v>6.631433333333329</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6243,22 +6243,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>6.561</v>
+        <v>6.562</v>
       </c>
       <c r="C168" t="n">
-        <v>6.56</v>
+        <v>6.562</v>
       </c>
       <c r="D168" t="n">
-        <v>6.561</v>
+        <v>6.562</v>
       </c>
       <c r="E168" t="n">
-        <v>6.56</v>
+        <v>6.562</v>
       </c>
       <c r="F168" t="n">
-        <v>34260</v>
+        <v>496.4217</v>
       </c>
       <c r="G168" t="n">
-        <v>6.629866666666663</v>
+        <v>6.630966666666663</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6281,19 +6281,19 @@
         <v>6.561</v>
       </c>
       <c r="C169" t="n">
-        <v>6.561</v>
+        <v>6.56</v>
       </c>
       <c r="D169" t="n">
         <v>6.561</v>
       </c>
       <c r="E169" t="n">
-        <v>6.561</v>
+        <v>6.56</v>
       </c>
       <c r="F169" t="n">
-        <v>7780</v>
+        <v>34260</v>
       </c>
       <c r="G169" t="n">
-        <v>6.62878333333333</v>
+        <v>6.629866666666663</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6313,22 +6313,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>6.571</v>
+        <v>6.561</v>
       </c>
       <c r="C170" t="n">
-        <v>6.571</v>
+        <v>6.561</v>
       </c>
       <c r="D170" t="n">
-        <v>6.571</v>
+        <v>6.561</v>
       </c>
       <c r="E170" t="n">
-        <v>6.571</v>
+        <v>6.561</v>
       </c>
       <c r="F170" t="n">
         <v>7780</v>
       </c>
       <c r="G170" t="n">
-        <v>6.627766666666663</v>
+        <v>6.62878333333333</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6348,22 +6348,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>6.53</v>
+        <v>6.571</v>
       </c>
       <c r="C171" t="n">
-        <v>6.53</v>
+        <v>6.571</v>
       </c>
       <c r="D171" t="n">
-        <v>6.53</v>
+        <v>6.571</v>
       </c>
       <c r="E171" t="n">
-        <v>6.53</v>
+        <v>6.571</v>
       </c>
       <c r="F171" t="n">
-        <v>5000</v>
+        <v>7780</v>
       </c>
       <c r="G171" t="n">
-        <v>6.626049999999997</v>
+        <v>6.627766666666663</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6395,10 +6395,10 @@
         <v>6.53</v>
       </c>
       <c r="F172" t="n">
-        <v>37236.7161</v>
+        <v>5000</v>
       </c>
       <c r="G172" t="n">
-        <v>6.624283333333329</v>
+        <v>6.626049999999997</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6418,22 +6418,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>6.531</v>
+        <v>6.53</v>
       </c>
       <c r="C173" t="n">
-        <v>6.531</v>
+        <v>6.53</v>
       </c>
       <c r="D173" t="n">
-        <v>6.531</v>
+        <v>6.53</v>
       </c>
       <c r="E173" t="n">
-        <v>6.531</v>
+        <v>6.53</v>
       </c>
       <c r="F173" t="n">
-        <v>3017.5965</v>
+        <v>37236.7161</v>
       </c>
       <c r="G173" t="n">
-        <v>6.622533333333329</v>
+        <v>6.624283333333329</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6453,22 +6453,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>6.513</v>
+        <v>6.531</v>
       </c>
       <c r="C174" t="n">
-        <v>6.513</v>
+        <v>6.531</v>
       </c>
       <c r="D174" t="n">
-        <v>6.513</v>
+        <v>6.531</v>
       </c>
       <c r="E174" t="n">
-        <v>6.513</v>
+        <v>6.531</v>
       </c>
       <c r="F174" t="n">
-        <v>7314.9168</v>
+        <v>3017.5965</v>
       </c>
       <c r="G174" t="n">
-        <v>6.620366666666663</v>
+        <v>6.622533333333329</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6488,22 +6488,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>6.538</v>
+        <v>6.513</v>
       </c>
       <c r="C175" t="n">
-        <v>6.538</v>
+        <v>6.513</v>
       </c>
       <c r="D175" t="n">
-        <v>6.538</v>
+        <v>6.513</v>
       </c>
       <c r="E175" t="n">
-        <v>6.538</v>
+        <v>6.513</v>
       </c>
       <c r="F175" t="n">
-        <v>93733.4215</v>
+        <v>7314.9168</v>
       </c>
       <c r="G175" t="n">
-        <v>6.619316666666663</v>
+        <v>6.620366666666663</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6523,22 +6523,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>6.52</v>
+        <v>6.538</v>
       </c>
       <c r="C176" t="n">
-        <v>6.5</v>
+        <v>6.538</v>
       </c>
       <c r="D176" t="n">
-        <v>6.52</v>
+        <v>6.538</v>
       </c>
       <c r="E176" t="n">
-        <v>6.5</v>
+        <v>6.538</v>
       </c>
       <c r="F176" t="n">
-        <v>616449.0095</v>
+        <v>93733.4215</v>
       </c>
       <c r="G176" t="n">
-        <v>6.617799999999996</v>
+        <v>6.619316666666663</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6558,22 +6558,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>6.569</v>
+        <v>6.52</v>
       </c>
       <c r="C177" t="n">
-        <v>6.57</v>
+        <v>6.5</v>
       </c>
       <c r="D177" t="n">
-        <v>6.57</v>
+        <v>6.52</v>
       </c>
       <c r="E177" t="n">
-        <v>6.569</v>
+        <v>6.5</v>
       </c>
       <c r="F177" t="n">
-        <v>28568.2678</v>
+        <v>616449.0095</v>
       </c>
       <c r="G177" t="n">
-        <v>6.617416666666662</v>
+        <v>6.617799999999996</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6593,22 +6593,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>6.568</v>
+        <v>6.569</v>
       </c>
       <c r="C178" t="n">
-        <v>6.567</v>
+        <v>6.57</v>
       </c>
       <c r="D178" t="n">
-        <v>6.568</v>
+        <v>6.57</v>
       </c>
       <c r="E178" t="n">
-        <v>6.567</v>
+        <v>6.569</v>
       </c>
       <c r="F178" t="n">
-        <v>122784</v>
+        <v>28568.2678</v>
       </c>
       <c r="G178" t="n">
-        <v>6.617033333333329</v>
+        <v>6.617416666666662</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6628,22 +6628,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>6.551</v>
+        <v>6.568</v>
       </c>
       <c r="C179" t="n">
-        <v>6.551</v>
+        <v>6.567</v>
       </c>
       <c r="D179" t="n">
-        <v>6.551</v>
+        <v>6.568</v>
       </c>
       <c r="E179" t="n">
-        <v>6.551</v>
+        <v>6.567</v>
       </c>
       <c r="F179" t="n">
-        <v>140.2538</v>
+        <v>122784</v>
       </c>
       <c r="G179" t="n">
-        <v>6.61638333333333</v>
+        <v>6.617033333333329</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6663,22 +6663,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>6.511</v>
+        <v>6.551</v>
       </c>
       <c r="C180" t="n">
-        <v>6.511</v>
+        <v>6.551</v>
       </c>
       <c r="D180" t="n">
-        <v>6.511</v>
+        <v>6.551</v>
       </c>
       <c r="E180" t="n">
-        <v>6.511</v>
+        <v>6.551</v>
       </c>
       <c r="F180" t="n">
-        <v>30623.1817</v>
+        <v>140.2538</v>
       </c>
       <c r="G180" t="n">
-        <v>6.61423333333333</v>
+        <v>6.61638333333333</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6698,22 +6698,22 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>6.5</v>
+        <v>6.511</v>
       </c>
       <c r="C181" t="n">
-        <v>6.45</v>
+        <v>6.511</v>
       </c>
       <c r="D181" t="n">
-        <v>6.5</v>
+        <v>6.511</v>
       </c>
       <c r="E181" t="n">
-        <v>6.45</v>
+        <v>6.511</v>
       </c>
       <c r="F181" t="n">
-        <v>332542.7925</v>
+        <v>30623.1817</v>
       </c>
       <c r="G181" t="n">
-        <v>6.610816666666664</v>
+        <v>6.61423333333333</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6733,22 +6733,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>6.45</v>
+        <v>6.5</v>
       </c>
       <c r="C182" t="n">
         <v>6.45</v>
       </c>
       <c r="D182" t="n">
-        <v>6.45</v>
+        <v>6.5</v>
       </c>
       <c r="E182" t="n">
         <v>6.45</v>
       </c>
       <c r="F182" t="n">
-        <v>16965.8799</v>
+        <v>332542.7925</v>
       </c>
       <c r="G182" t="n">
-        <v>6.607399999999997</v>
+        <v>6.610816666666664</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6780,10 +6780,10 @@
         <v>6.45</v>
       </c>
       <c r="F183" t="n">
-        <v>17202.3188</v>
+        <v>16965.8799</v>
       </c>
       <c r="G183" t="n">
-        <v>6.60438333333333</v>
+        <v>6.607399999999997</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -6815,10 +6815,10 @@
         <v>6.45</v>
       </c>
       <c r="F184" t="n">
-        <v>7928.9982</v>
+        <v>17202.3188</v>
       </c>
       <c r="G184" t="n">
-        <v>6.602033333333329</v>
+        <v>6.60438333333333</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -6838,31 +6838,35 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>6.43</v>
+        <v>6.45</v>
       </c>
       <c r="C185" t="n">
-        <v>6.43</v>
+        <v>6.45</v>
       </c>
       <c r="D185" t="n">
-        <v>6.43</v>
+        <v>6.45</v>
       </c>
       <c r="E185" t="n">
-        <v>6.43</v>
+        <v>6.45</v>
       </c>
       <c r="F185" t="n">
-        <v>700.0001999999999</v>
+        <v>7928.9982</v>
       </c>
       <c r="G185" t="n">
-        <v>6.598449999999997</v>
+        <v>6.602033333333329</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="K185" t="n">
+        <v>6.45</v>
+      </c>
       <c r="L185" t="inlineStr"/>
       <c r="M185" t="n">
         <v>1</v>
@@ -6873,32 +6877,40 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>6.44</v>
+        <v>6.43</v>
       </c>
       <c r="C186" t="n">
-        <v>6.447</v>
+        <v>6.43</v>
       </c>
       <c r="D186" t="n">
-        <v>6.447</v>
+        <v>6.43</v>
       </c>
       <c r="E186" t="n">
-        <v>6.4</v>
+        <v>6.43</v>
       </c>
       <c r="F186" t="n">
-        <v>2911937.3722</v>
+        <v>700.0001999999999</v>
       </c>
       <c r="G186" t="n">
-        <v>6.595366666666663</v>
+        <v>6.598449999999997</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="K186" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -6908,32 +6920,40 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>6.411</v>
+        <v>6.44</v>
       </c>
       <c r="C187" t="n">
-        <v>6.41</v>
+        <v>6.447</v>
       </c>
       <c r="D187" t="n">
-        <v>6.411</v>
+        <v>6.447</v>
       </c>
       <c r="E187" t="n">
-        <v>6.41</v>
+        <v>6.4</v>
       </c>
       <c r="F187" t="n">
-        <v>7314.9168</v>
+        <v>2911937.3722</v>
       </c>
       <c r="G187" t="n">
-        <v>6.591683333333331</v>
+        <v>6.595366666666663</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>6.43</v>
+      </c>
+      <c r="K187" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -6943,22 +6963,22 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>6.39</v>
+        <v>6.411</v>
       </c>
       <c r="C188" t="n">
-        <v>6.39</v>
+        <v>6.41</v>
       </c>
       <c r="D188" t="n">
-        <v>6.39</v>
+        <v>6.411</v>
       </c>
       <c r="E188" t="n">
-        <v>6.39</v>
+        <v>6.41</v>
       </c>
       <c r="F188" t="n">
-        <v>86.43210000000001</v>
+        <v>7314.9168</v>
       </c>
       <c r="G188" t="n">
-        <v>6.587283333333331</v>
+        <v>6.591683333333331</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -6967,8 +6987,14 @@
         <v>0</v>
       </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -6978,22 +7004,22 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>6.4</v>
+        <v>6.39</v>
       </c>
       <c r="C189" t="n">
-        <v>6.4</v>
+        <v>6.39</v>
       </c>
       <c r="D189" t="n">
-        <v>6.4</v>
+        <v>6.39</v>
       </c>
       <c r="E189" t="n">
-        <v>6.4</v>
+        <v>6.39</v>
       </c>
       <c r="F189" t="n">
-        <v>364736.9216</v>
+        <v>86.43210000000001</v>
       </c>
       <c r="G189" t="n">
-        <v>6.583449999999997</v>
+        <v>6.587283333333331</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7002,8 +7028,14 @@
         <v>0</v>
       </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7013,22 +7045,22 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>6.426</v>
+        <v>6.4</v>
       </c>
       <c r="C190" t="n">
-        <v>6.433</v>
+        <v>6.4</v>
       </c>
       <c r="D190" t="n">
-        <v>6.433</v>
+        <v>6.4</v>
       </c>
       <c r="E190" t="n">
-        <v>6.426</v>
+        <v>6.4</v>
       </c>
       <c r="F190" t="n">
-        <v>19749.9653</v>
+        <v>364736.9216</v>
       </c>
       <c r="G190" t="n">
-        <v>6.580166666666664</v>
+        <v>6.583449999999997</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7037,8 +7069,14 @@
         <v>0</v>
       </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7048,22 +7086,22 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>6.431</v>
+        <v>6.426</v>
       </c>
       <c r="C191" t="n">
-        <v>6.431</v>
+        <v>6.433</v>
       </c>
       <c r="D191" t="n">
-        <v>6.431</v>
+        <v>6.433</v>
       </c>
       <c r="E191" t="n">
-        <v>6.431</v>
+        <v>6.426</v>
       </c>
       <c r="F191" t="n">
-        <v>18210</v>
+        <v>19749.9653</v>
       </c>
       <c r="G191" t="n">
-        <v>6.576449999999997</v>
+        <v>6.580166666666664</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7072,8 +7110,14 @@
         <v>0</v>
       </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7083,22 +7127,22 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>6.444</v>
+        <v>6.431</v>
       </c>
       <c r="C192" t="n">
-        <v>6.444</v>
+        <v>6.431</v>
       </c>
       <c r="D192" t="n">
-        <v>6.444</v>
+        <v>6.431</v>
       </c>
       <c r="E192" t="n">
-        <v>6.444</v>
+        <v>6.431</v>
       </c>
       <c r="F192" t="n">
-        <v>25735.055</v>
+        <v>18210</v>
       </c>
       <c r="G192" t="n">
-        <v>6.572949999999997</v>
+        <v>6.576449999999997</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7107,8 +7151,14 @@
         <v>0</v>
       </c>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7118,32 +7168,40 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>6.454</v>
+        <v>6.444</v>
       </c>
       <c r="C193" t="n">
-        <v>6.454</v>
+        <v>6.444</v>
       </c>
       <c r="D193" t="n">
-        <v>6.454</v>
+        <v>6.444</v>
       </c>
       <c r="E193" t="n">
-        <v>6.454</v>
+        <v>6.444</v>
       </c>
       <c r="F193" t="n">
-        <v>15269.9999</v>
+        <v>25735.055</v>
       </c>
       <c r="G193" t="n">
-        <v>6.569566666666664</v>
+        <v>6.572949999999997</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>6.431</v>
+      </c>
+      <c r="K193" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7153,32 +7211,40 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>6.456</v>
+        <v>6.454</v>
       </c>
       <c r="C194" t="n">
-        <v>6.456</v>
+        <v>6.454</v>
       </c>
       <c r="D194" t="n">
-        <v>6.456</v>
+        <v>6.454</v>
       </c>
       <c r="E194" t="n">
-        <v>6.456</v>
+        <v>6.454</v>
       </c>
       <c r="F194" t="n">
-        <v>15280</v>
+        <v>15269.9999</v>
       </c>
       <c r="G194" t="n">
-        <v>6.566216666666665</v>
+        <v>6.569566666666664</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>6.444</v>
+      </c>
+      <c r="K194" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7188,22 +7254,22 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>6.488</v>
+        <v>6.456</v>
       </c>
       <c r="C195" t="n">
-        <v>6.488</v>
+        <v>6.456</v>
       </c>
       <c r="D195" t="n">
-        <v>6.488</v>
+        <v>6.456</v>
       </c>
       <c r="E195" t="n">
-        <v>6.488</v>
+        <v>6.456</v>
       </c>
       <c r="F195" t="n">
-        <v>16676</v>
+        <v>15280</v>
       </c>
       <c r="G195" t="n">
-        <v>6.563166666666665</v>
+        <v>6.566216666666665</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7212,8 +7278,14 @@
         <v>0</v>
       </c>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -7223,22 +7295,22 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>6.487</v>
+        <v>6.488</v>
       </c>
       <c r="C196" t="n">
-        <v>6.487</v>
+        <v>6.488</v>
       </c>
       <c r="D196" t="n">
-        <v>6.487</v>
+        <v>6.488</v>
       </c>
       <c r="E196" t="n">
-        <v>6.487</v>
+        <v>6.488</v>
       </c>
       <c r="F196" t="n">
-        <v>62393.6213</v>
+        <v>16676</v>
       </c>
       <c r="G196" t="n">
-        <v>6.559316666666665</v>
+        <v>6.563166666666665</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7247,8 +7319,14 @@
         <v>0</v>
       </c>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -7258,22 +7336,22 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>6.47</v>
+        <v>6.487</v>
       </c>
       <c r="C197" t="n">
-        <v>6.47</v>
+        <v>6.487</v>
       </c>
       <c r="D197" t="n">
-        <v>6.47</v>
+        <v>6.487</v>
       </c>
       <c r="E197" t="n">
-        <v>6.47</v>
+        <v>6.487</v>
       </c>
       <c r="F197" t="n">
-        <v>241737.2435</v>
+        <v>62393.6213</v>
       </c>
       <c r="G197" t="n">
-        <v>6.555483333333332</v>
+        <v>6.559316666666665</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7282,8 +7360,14 @@
         <v>0</v>
       </c>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -7293,22 +7377,22 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>6.477</v>
+        <v>6.47</v>
       </c>
       <c r="C198" t="n">
-        <v>6.477</v>
+        <v>6.47</v>
       </c>
       <c r="D198" t="n">
-        <v>6.477</v>
+        <v>6.47</v>
       </c>
       <c r="E198" t="n">
-        <v>6.477</v>
+        <v>6.47</v>
       </c>
       <c r="F198" t="n">
-        <v>937.9422</v>
+        <v>241737.2435</v>
       </c>
       <c r="G198" t="n">
-        <v>6.552033333333331</v>
+        <v>6.555483333333332</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7317,8 +7401,14 @@
         <v>0</v>
       </c>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -7328,22 +7418,22 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>6.43</v>
+        <v>6.477</v>
       </c>
       <c r="C199" t="n">
-        <v>6.43</v>
+        <v>6.477</v>
       </c>
       <c r="D199" t="n">
-        <v>6.43</v>
+        <v>6.477</v>
       </c>
       <c r="E199" t="n">
-        <v>6.43</v>
+        <v>6.477</v>
       </c>
       <c r="F199" t="n">
-        <v>24464.9623</v>
+        <v>937.9422</v>
       </c>
       <c r="G199" t="n">
-        <v>6.547583333333332</v>
+        <v>6.552033333333331</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7352,8 +7442,14 @@
         <v>0</v>
       </c>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -7363,22 +7459,22 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>6.422</v>
+        <v>6.43</v>
       </c>
       <c r="C200" t="n">
-        <v>6.422</v>
+        <v>6.43</v>
       </c>
       <c r="D200" t="n">
-        <v>6.422</v>
+        <v>6.43</v>
       </c>
       <c r="E200" t="n">
-        <v>6.422</v>
+        <v>6.43</v>
       </c>
       <c r="F200" t="n">
-        <v>26249.2298</v>
+        <v>24464.9623</v>
       </c>
       <c r="G200" t="n">
-        <v>6.543183333333332</v>
+        <v>6.547583333333332</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7387,8 +7483,14 @@
         <v>0</v>
       </c>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -7398,32 +7500,40 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>6.469</v>
+        <v>6.422</v>
       </c>
       <c r="C201" t="n">
-        <v>6.469</v>
+        <v>6.422</v>
       </c>
       <c r="D201" t="n">
-        <v>6.469</v>
+        <v>6.422</v>
       </c>
       <c r="E201" t="n">
-        <v>6.469</v>
+        <v>6.422</v>
       </c>
       <c r="F201" t="n">
-        <v>4530</v>
+        <v>26249.2298</v>
       </c>
       <c r="G201" t="n">
-        <v>6.539566666666667</v>
+        <v>6.543183333333332</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>6.43</v>
+      </c>
+      <c r="K201" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -7433,32 +7543,40 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>6.391</v>
+        <v>6.469</v>
       </c>
       <c r="C202" t="n">
-        <v>6.391</v>
+        <v>6.469</v>
       </c>
       <c r="D202" t="n">
-        <v>6.391</v>
+        <v>6.469</v>
       </c>
       <c r="E202" t="n">
-        <v>6.391</v>
+        <v>6.469</v>
       </c>
       <c r="F202" t="n">
-        <v>375.1991</v>
+        <v>4530</v>
       </c>
       <c r="G202" t="n">
-        <v>6.534916666666666</v>
+        <v>6.539566666666667</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>6.422</v>
+      </c>
+      <c r="K202" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -7468,22 +7586,22 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>6.39</v>
+        <v>6.391</v>
       </c>
       <c r="C203" t="n">
-        <v>6.39</v>
+        <v>6.391</v>
       </c>
       <c r="D203" t="n">
-        <v>6.39</v>
+        <v>6.391</v>
       </c>
       <c r="E203" t="n">
-        <v>6.39</v>
+        <v>6.391</v>
       </c>
       <c r="F203" t="n">
-        <v>63942.2702</v>
+        <v>375.1991</v>
       </c>
       <c r="G203" t="n">
-        <v>6.530283333333332</v>
+        <v>6.534916666666666</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7492,8 +7610,14 @@
         <v>0</v>
       </c>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -7503,32 +7627,40 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>6.411</v>
+        <v>6.39</v>
       </c>
       <c r="C204" t="n">
-        <v>6.411</v>
+        <v>6.39</v>
       </c>
       <c r="D204" t="n">
-        <v>6.411</v>
+        <v>6.39</v>
       </c>
       <c r="E204" t="n">
-        <v>6.411</v>
+        <v>6.39</v>
       </c>
       <c r="F204" t="n">
-        <v>17130</v>
+        <v>63942.2702</v>
       </c>
       <c r="G204" t="n">
-        <v>6.526183333333333</v>
+        <v>6.530283333333332</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>6.391</v>
+      </c>
+      <c r="K204" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -7538,32 +7670,40 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>6.41</v>
+        <v>6.411</v>
       </c>
       <c r="C205" t="n">
-        <v>6.403</v>
+        <v>6.411</v>
       </c>
       <c r="D205" t="n">
-        <v>6.415</v>
+        <v>6.411</v>
       </c>
       <c r="E205" t="n">
-        <v>6.403</v>
+        <v>6.411</v>
       </c>
       <c r="F205" t="n">
-        <v>66209.9999</v>
+        <v>17130</v>
       </c>
       <c r="G205" t="n">
-        <v>6.52195</v>
+        <v>6.526183333333333</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>6.39</v>
+      </c>
+      <c r="K205" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -7573,32 +7713,40 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>6.42</v>
+        <v>6.41</v>
       </c>
       <c r="C206" t="n">
-        <v>6.42</v>
+        <v>6.403</v>
       </c>
       <c r="D206" t="n">
-        <v>6.42</v>
+        <v>6.415</v>
       </c>
       <c r="E206" t="n">
-        <v>6.42</v>
+        <v>6.403</v>
       </c>
       <c r="F206" t="n">
-        <v>5419.9999</v>
+        <v>66209.9999</v>
       </c>
       <c r="G206" t="n">
-        <v>6.518633333333335</v>
+        <v>6.52195</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>6.411</v>
+      </c>
+      <c r="K206" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -7620,20 +7768,28 @@
         <v>6.42</v>
       </c>
       <c r="F207" t="n">
-        <v>221178.4231</v>
+        <v>5419.9999</v>
       </c>
       <c r="G207" t="n">
-        <v>6.515700000000001</v>
+        <v>6.518633333333335</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>6.403</v>
+      </c>
+      <c r="K207" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -7643,22 +7799,22 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>6.421</v>
+        <v>6.42</v>
       </c>
       <c r="C208" t="n">
         <v>6.42</v>
       </c>
       <c r="D208" t="n">
-        <v>6.421</v>
+        <v>6.42</v>
       </c>
       <c r="E208" t="n">
         <v>6.42</v>
       </c>
       <c r="F208" t="n">
-        <v>13907.8717</v>
+        <v>221178.4231</v>
       </c>
       <c r="G208" t="n">
-        <v>6.512866666666668</v>
+        <v>6.515700000000001</v>
       </c>
       <c r="H208" t="n">
         <v>1</v>
@@ -7669,10 +7825,12 @@
       <c r="J208" t="n">
         <v>6.42</v>
       </c>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>6.45</v>
+      </c>
       <c r="L208" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M208" t="n">
@@ -7684,22 +7842,22 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>6.42</v>
+        <v>6.421</v>
       </c>
       <c r="C209" t="n">
         <v>6.42</v>
       </c>
       <c r="D209" t="n">
-        <v>6.42</v>
+        <v>6.421</v>
       </c>
       <c r="E209" t="n">
         <v>6.42</v>
       </c>
       <c r="F209" t="n">
-        <v>12810.3132</v>
+        <v>13907.8717</v>
       </c>
       <c r="G209" t="n">
-        <v>6.510033333333336</v>
+        <v>6.512866666666668</v>
       </c>
       <c r="H209" t="n">
         <v>1</v>
@@ -7710,7 +7868,9 @@
       <c r="J209" t="n">
         <v>6.42</v>
       </c>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>6.45</v>
+      </c>
       <c r="L209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7725,22 +7885,22 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>6.479</v>
+        <v>6.42</v>
       </c>
       <c r="C210" t="n">
-        <v>6.479</v>
+        <v>6.42</v>
       </c>
       <c r="D210" t="n">
-        <v>6.479</v>
+        <v>6.42</v>
       </c>
       <c r="E210" t="n">
-        <v>6.479</v>
+        <v>6.42</v>
       </c>
       <c r="F210" t="n">
-        <v>4137729.2424</v>
+        <v>12810.3132</v>
       </c>
       <c r="G210" t="n">
-        <v>6.508183333333336</v>
+        <v>6.510033333333336</v>
       </c>
       <c r="H210" t="n">
         <v>1</v>
@@ -7751,7 +7911,9 @@
       <c r="J210" t="n">
         <v>6.42</v>
       </c>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>6.45</v>
+      </c>
       <c r="L210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7766,22 +7928,22 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>6.49</v>
+        <v>6.479</v>
       </c>
       <c r="C211" t="n">
-        <v>6.49</v>
+        <v>6.479</v>
       </c>
       <c r="D211" t="n">
-        <v>6.49</v>
+        <v>6.479</v>
       </c>
       <c r="E211" t="n">
-        <v>6.49</v>
+        <v>6.479</v>
       </c>
       <c r="F211" t="n">
-        <v>203985.2233</v>
+        <v>4137729.2424</v>
       </c>
       <c r="G211" t="n">
-        <v>6.50651666666667</v>
+        <v>6.508183333333336</v>
       </c>
       <c r="H211" t="n">
         <v>1</v>
@@ -7790,9 +7952,11 @@
         <v>0</v>
       </c>
       <c r="J211" t="n">
-        <v>6.479</v>
-      </c>
-      <c r="K211" t="inlineStr"/>
+        <v>6.42</v>
+      </c>
+      <c r="K211" t="n">
+        <v>6.45</v>
+      </c>
       <c r="L211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7807,22 +7971,22 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>6.475</v>
+        <v>6.49</v>
       </c>
       <c r="C212" t="n">
-        <v>6.475</v>
+        <v>6.49</v>
       </c>
       <c r="D212" t="n">
-        <v>6.475</v>
+        <v>6.49</v>
       </c>
       <c r="E212" t="n">
-        <v>6.475</v>
+        <v>6.49</v>
       </c>
       <c r="F212" t="n">
-        <v>168.6466</v>
+        <v>203985.2233</v>
       </c>
       <c r="G212" t="n">
-        <v>6.50396666666667</v>
+        <v>6.50651666666667</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -7831,7 +7995,9 @@
         <v>0</v>
       </c>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>6.45</v>
+      </c>
       <c r="L212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7846,22 +8012,22 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>6.5</v>
+        <v>6.475</v>
       </c>
       <c r="C213" t="n">
-        <v>6.5</v>
+        <v>6.475</v>
       </c>
       <c r="D213" t="n">
-        <v>6.5</v>
+        <v>6.475</v>
       </c>
       <c r="E213" t="n">
-        <v>6.5</v>
+        <v>6.475</v>
       </c>
       <c r="F213" t="n">
-        <v>94321.99340000001</v>
+        <v>168.6466</v>
       </c>
       <c r="G213" t="n">
-        <v>6.502016666666671</v>
+        <v>6.50396666666667</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -7870,7 +8036,9 @@
         <v>0</v>
       </c>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>6.45</v>
+      </c>
       <c r="L213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7885,22 +8053,22 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>6.48</v>
+        <v>6.5</v>
       </c>
       <c r="C214" t="n">
-        <v>6.48</v>
+        <v>6.5</v>
       </c>
       <c r="D214" t="n">
-        <v>6.48</v>
+        <v>6.5</v>
       </c>
       <c r="E214" t="n">
-        <v>6.48</v>
+        <v>6.5</v>
       </c>
       <c r="F214" t="n">
-        <v>39613.066</v>
+        <v>94321.99340000001</v>
       </c>
       <c r="G214" t="n">
-        <v>6.499550000000004</v>
+        <v>6.502016666666671</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -7909,7 +8077,9 @@
         <v>0</v>
       </c>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>6.45</v>
+      </c>
       <c r="L214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7924,22 +8094,22 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>6.49</v>
+        <v>6.48</v>
       </c>
       <c r="C215" t="n">
-        <v>6.49</v>
+        <v>6.48</v>
       </c>
       <c r="D215" t="n">
-        <v>6.49</v>
+        <v>6.48</v>
       </c>
       <c r="E215" t="n">
-        <v>6.49</v>
+        <v>6.48</v>
       </c>
       <c r="F215" t="n">
-        <v>4392.6673</v>
+        <v>39613.066</v>
       </c>
       <c r="G215" t="n">
-        <v>6.497250000000005</v>
+        <v>6.499550000000004</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -7948,7 +8118,9 @@
         <v>0</v>
       </c>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>6.45</v>
+      </c>
       <c r="L215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7963,22 +8135,22 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>6.491</v>
+        <v>6.49</v>
       </c>
       <c r="C216" t="n">
-        <v>6.491</v>
+        <v>6.49</v>
       </c>
       <c r="D216" t="n">
-        <v>6.491</v>
+        <v>6.49</v>
       </c>
       <c r="E216" t="n">
-        <v>6.491</v>
+        <v>6.49</v>
       </c>
       <c r="F216" t="n">
-        <v>19088.8469</v>
+        <v>4392.6673</v>
       </c>
       <c r="G216" t="n">
-        <v>6.494966666666671</v>
+        <v>6.497250000000005</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -7987,7 +8159,9 @@
         <v>0</v>
       </c>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>6.45</v>
+      </c>
       <c r="L216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8014,10 +8188,10 @@
         <v>6.491</v>
       </c>
       <c r="F217" t="n">
-        <v>3896.1535</v>
+        <v>19088.8469</v>
       </c>
       <c r="G217" t="n">
-        <v>6.492533333333338</v>
+        <v>6.494966666666671</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -8026,7 +8200,9 @@
         <v>0</v>
       </c>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>6.45</v>
+      </c>
       <c r="L217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8041,22 +8217,22 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>6.482</v>
+        <v>6.491</v>
       </c>
       <c r="C218" t="n">
-        <v>6.482</v>
+        <v>6.491</v>
       </c>
       <c r="D218" t="n">
-        <v>6.482</v>
+        <v>6.491</v>
       </c>
       <c r="E218" t="n">
-        <v>6.482</v>
+        <v>6.491</v>
       </c>
       <c r="F218" t="n">
-        <v>182.3346</v>
+        <v>3896.1535</v>
       </c>
       <c r="G218" t="n">
-        <v>6.489766666666671</v>
+        <v>6.492533333333338</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8065,7 +8241,9 @@
         <v>0</v>
       </c>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>6.45</v>
+      </c>
       <c r="L218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8080,22 +8258,22 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>6.51</v>
+        <v>6.482</v>
       </c>
       <c r="C219" t="n">
-        <v>6.51</v>
+        <v>6.482</v>
       </c>
       <c r="D219" t="n">
-        <v>6.51</v>
+        <v>6.482</v>
       </c>
       <c r="E219" t="n">
-        <v>6.51</v>
+        <v>6.482</v>
       </c>
       <c r="F219" t="n">
-        <v>730.1075268817204</v>
+        <v>182.3346</v>
       </c>
       <c r="G219" t="n">
-        <v>6.487466666666671</v>
+        <v>6.489766666666671</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -8104,7 +8282,9 @@
         <v>0</v>
       </c>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>6.45</v>
+      </c>
       <c r="L219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8119,22 +8299,22 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>6.52</v>
+        <v>6.51</v>
       </c>
       <c r="C220" t="n">
-        <v>6.52</v>
+        <v>6.51</v>
       </c>
       <c r="D220" t="n">
-        <v>6.52</v>
+        <v>6.51</v>
       </c>
       <c r="E220" t="n">
-        <v>6.52</v>
+        <v>6.51</v>
       </c>
       <c r="F220" t="n">
-        <v>490</v>
+        <v>730.1075268817204</v>
       </c>
       <c r="G220" t="n">
-        <v>6.48531666666667</v>
+        <v>6.487466666666671</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -8143,7 +8323,9 @@
         <v>0</v>
       </c>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>6.45</v>
+      </c>
       <c r="L220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8170,10 +8352,10 @@
         <v>6.52</v>
       </c>
       <c r="F221" t="n">
-        <v>1108.5592</v>
+        <v>490</v>
       </c>
       <c r="G221" t="n">
-        <v>6.483983333333336</v>
+        <v>6.48531666666667</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -8182,7 +8364,9 @@
         <v>0</v>
       </c>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>6.45</v>
+      </c>
       <c r="L221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8197,22 +8381,22 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>6.522</v>
+        <v>6.52</v>
       </c>
       <c r="C222" t="n">
-        <v>6.522</v>
+        <v>6.52</v>
       </c>
       <c r="D222" t="n">
-        <v>6.522</v>
+        <v>6.52</v>
       </c>
       <c r="E222" t="n">
-        <v>6.522</v>
+        <v>6.52</v>
       </c>
       <c r="F222" t="n">
-        <v>6954</v>
+        <v>1108.5592</v>
       </c>
       <c r="G222" t="n">
-        <v>6.482850000000003</v>
+        <v>6.483983333333336</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -8221,7 +8405,9 @@
         <v>0</v>
       </c>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>6.45</v>
+      </c>
       <c r="L222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8236,22 +8422,22 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>6.524</v>
+        <v>6.522</v>
       </c>
       <c r="C223" t="n">
-        <v>6.524</v>
+        <v>6.522</v>
       </c>
       <c r="D223" t="n">
-        <v>6.524</v>
+        <v>6.522</v>
       </c>
       <c r="E223" t="n">
-        <v>6.524</v>
+        <v>6.522</v>
       </c>
       <c r="F223" t="n">
-        <v>2770.0625</v>
+        <v>6954</v>
       </c>
       <c r="G223" t="n">
-        <v>6.482000000000003</v>
+        <v>6.482850000000003</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -8260,7 +8446,9 @@
         <v>0</v>
       </c>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>6.45</v>
+      </c>
       <c r="L223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8275,22 +8463,22 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>6.522</v>
+        <v>6.524</v>
       </c>
       <c r="C224" t="n">
-        <v>6.522</v>
+        <v>6.524</v>
       </c>
       <c r="D224" t="n">
-        <v>6.522</v>
+        <v>6.524</v>
       </c>
       <c r="E224" t="n">
-        <v>6.522</v>
+        <v>6.524</v>
       </c>
       <c r="F224" t="n">
-        <v>29359.8892</v>
+        <v>2770.0625</v>
       </c>
       <c r="G224" t="n">
-        <v>6.48111666666667</v>
+        <v>6.482000000000003</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -8299,7 +8487,9 @@
         <v>0</v>
       </c>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>6.45</v>
+      </c>
       <c r="L224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8314,22 +8504,22 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>6.521</v>
+        <v>6.522</v>
       </c>
       <c r="C225" t="n">
-        <v>6.521</v>
+        <v>6.522</v>
       </c>
       <c r="D225" t="n">
-        <v>6.521</v>
+        <v>6.522</v>
       </c>
       <c r="E225" t="n">
-        <v>6.521</v>
+        <v>6.522</v>
       </c>
       <c r="F225" t="n">
-        <v>500</v>
+        <v>29359.8892</v>
       </c>
       <c r="G225" t="n">
-        <v>6.48021666666667</v>
+        <v>6.48111666666667</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -8338,7 +8528,9 @@
         <v>0</v>
       </c>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>6.45</v>
+      </c>
       <c r="L225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8353,22 +8545,22 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>6.51</v>
+        <v>6.521</v>
       </c>
       <c r="C226" t="n">
-        <v>6.51</v>
+        <v>6.521</v>
       </c>
       <c r="D226" t="n">
-        <v>6.51</v>
+        <v>6.521</v>
       </c>
       <c r="E226" t="n">
-        <v>6.51</v>
+        <v>6.521</v>
       </c>
       <c r="F226" t="n">
-        <v>13000</v>
+        <v>500</v>
       </c>
       <c r="G226" t="n">
-        <v>6.478916666666669</v>
+        <v>6.48021666666667</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -8377,7 +8569,9 @@
         <v>0</v>
       </c>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>6.45</v>
+      </c>
       <c r="L226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8392,22 +8586,22 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>6.521</v>
+        <v>6.51</v>
       </c>
       <c r="C227" t="n">
-        <v>6.56</v>
+        <v>6.51</v>
       </c>
       <c r="D227" t="n">
-        <v>6.56</v>
+        <v>6.51</v>
       </c>
       <c r="E227" t="n">
-        <v>6.521</v>
+        <v>6.51</v>
       </c>
       <c r="F227" t="n">
-        <v>38529</v>
+        <v>13000</v>
       </c>
       <c r="G227" t="n">
-        <v>6.478883333333337</v>
+        <v>6.478916666666669</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -8416,7 +8610,9 @@
         <v>0</v>
       </c>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>6.45</v>
+      </c>
       <c r="L227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8431,22 +8627,22 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>6.553</v>
+        <v>6.521</v>
       </c>
       <c r="C228" t="n">
-        <v>6.554</v>
+        <v>6.56</v>
       </c>
       <c r="D228" t="n">
-        <v>6.554</v>
+        <v>6.56</v>
       </c>
       <c r="E228" t="n">
-        <v>6.553</v>
+        <v>6.521</v>
       </c>
       <c r="F228" t="n">
-        <v>91865.21739999999</v>
+        <v>38529</v>
       </c>
       <c r="G228" t="n">
-        <v>6.478783333333336</v>
+        <v>6.478883333333337</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -8455,7 +8651,9 @@
         <v>0</v>
       </c>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>6.45</v>
+      </c>
       <c r="L228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8473,19 +8671,19 @@
         <v>6.553</v>
       </c>
       <c r="C229" t="n">
-        <v>6.553</v>
+        <v>6.554</v>
       </c>
       <c r="D229" t="n">
-        <v>6.553</v>
+        <v>6.554</v>
       </c>
       <c r="E229" t="n">
         <v>6.553</v>
       </c>
       <c r="F229" t="n">
-        <v>5546.8564</v>
+        <v>91865.21739999999</v>
       </c>
       <c r="G229" t="n">
-        <v>6.478650000000003</v>
+        <v>6.478783333333336</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -8494,7 +8692,9 @@
         <v>0</v>
       </c>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>6.45</v>
+      </c>
       <c r="L229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8509,22 +8709,22 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>6.562</v>
+        <v>6.553</v>
       </c>
       <c r="C230" t="n">
-        <v>6.562</v>
+        <v>6.553</v>
       </c>
       <c r="D230" t="n">
-        <v>6.562</v>
+        <v>6.553</v>
       </c>
       <c r="E230" t="n">
-        <v>6.562</v>
+        <v>6.553</v>
       </c>
       <c r="F230" t="n">
-        <v>77</v>
+        <v>5546.8564</v>
       </c>
       <c r="G230" t="n">
-        <v>6.478500000000002</v>
+        <v>6.478650000000003</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -8533,7 +8733,9 @@
         <v>0</v>
       </c>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>6.45</v>
+      </c>
       <c r="L230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8548,22 +8750,22 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>6.6</v>
+        <v>6.562</v>
       </c>
       <c r="C231" t="n">
-        <v>6.6</v>
+        <v>6.562</v>
       </c>
       <c r="D231" t="n">
-        <v>6.6</v>
+        <v>6.562</v>
       </c>
       <c r="E231" t="n">
-        <v>6.6</v>
+        <v>6.562</v>
       </c>
       <c r="F231" t="n">
-        <v>239999.9999</v>
+        <v>77</v>
       </c>
       <c r="G231" t="n">
-        <v>6.47966666666667</v>
+        <v>6.478500000000002</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -8572,7 +8774,9 @@
         <v>0</v>
       </c>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>6.45</v>
+      </c>
       <c r="L231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8590,19 +8794,19 @@
         <v>6.6</v>
       </c>
       <c r="C232" t="n">
-        <v>6.624</v>
+        <v>6.6</v>
       </c>
       <c r="D232" t="n">
-        <v>6.624</v>
+        <v>6.6</v>
       </c>
       <c r="E232" t="n">
         <v>6.6</v>
       </c>
       <c r="F232" t="n">
-        <v>97728.1685</v>
+        <v>239999.9999</v>
       </c>
       <c r="G232" t="n">
-        <v>6.481233333333337</v>
+        <v>6.47966666666667</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -8611,7 +8815,9 @@
         <v>0</v>
       </c>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>6.45</v>
+      </c>
       <c r="L232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8626,7 +8832,7 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>6.624</v>
+        <v>6.6</v>
       </c>
       <c r="C233" t="n">
         <v>6.624</v>
@@ -8635,13 +8841,13 @@
         <v>6.624</v>
       </c>
       <c r="E233" t="n">
-        <v>6.624</v>
+        <v>6.6</v>
       </c>
       <c r="F233" t="n">
-        <v>1545.3049</v>
+        <v>97728.1685</v>
       </c>
       <c r="G233" t="n">
-        <v>6.482783333333338</v>
+        <v>6.481233333333337</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -8650,7 +8856,9 @@
         <v>0</v>
       </c>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>6.45</v>
+      </c>
       <c r="L233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8677,10 +8885,10 @@
         <v>6.624</v>
       </c>
       <c r="F234" t="n">
-        <v>8412.5237</v>
+        <v>1545.3049</v>
       </c>
       <c r="G234" t="n">
-        <v>6.484633333333338</v>
+        <v>6.482783333333338</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -8689,7 +8897,9 @@
         <v>0</v>
       </c>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>6.45</v>
+      </c>
       <c r="L234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8716,10 +8926,10 @@
         <v>6.624</v>
       </c>
       <c r="F235" t="n">
-        <v>57660.298</v>
+        <v>8412.5237</v>
       </c>
       <c r="G235" t="n">
-        <v>6.486066666666672</v>
+        <v>6.484633333333338</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -8728,7 +8938,9 @@
         <v>0</v>
       </c>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>6.45</v>
+      </c>
       <c r="L235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8755,10 +8967,10 @@
         <v>6.624</v>
       </c>
       <c r="F236" t="n">
-        <v>29475.6983</v>
+        <v>57660.298</v>
       </c>
       <c r="G236" t="n">
-        <v>6.488133333333339</v>
+        <v>6.486066666666672</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -8767,7 +8979,9 @@
         <v>0</v>
       </c>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>6.45</v>
+      </c>
       <c r="L236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8782,7 +8996,7 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>6.614</v>
+        <v>6.624</v>
       </c>
       <c r="C237" t="n">
         <v>6.624</v>
@@ -8791,13 +9005,13 @@
         <v>6.624</v>
       </c>
       <c r="E237" t="n">
-        <v>6.614</v>
+        <v>6.624</v>
       </c>
       <c r="F237" t="n">
-        <v>89962.72319999999</v>
+        <v>29475.6983</v>
       </c>
       <c r="G237" t="n">
-        <v>6.48903333333334</v>
+        <v>6.488133333333339</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -8806,7 +9020,9 @@
         <v>0</v>
       </c>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>6.45</v>
+      </c>
       <c r="L237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8821,7 +9037,7 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>6.624</v>
+        <v>6.614</v>
       </c>
       <c r="C238" t="n">
         <v>6.624</v>
@@ -8830,13 +9046,13 @@
         <v>6.624</v>
       </c>
       <c r="E238" t="n">
-        <v>6.624</v>
+        <v>6.614</v>
       </c>
       <c r="F238" t="n">
-        <v>23273.8366</v>
+        <v>89962.72319999999</v>
       </c>
       <c r="G238" t="n">
-        <v>6.48998333333334</v>
+        <v>6.48903333333334</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -8845,7 +9061,9 @@
         <v>0</v>
       </c>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>6.45</v>
+      </c>
       <c r="L238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8860,22 +9078,22 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>6.632</v>
+        <v>6.624</v>
       </c>
       <c r="C239" t="n">
-        <v>6.632</v>
+        <v>6.624</v>
       </c>
       <c r="D239" t="n">
-        <v>6.632</v>
+        <v>6.624</v>
       </c>
       <c r="E239" t="n">
-        <v>6.632</v>
+        <v>6.624</v>
       </c>
       <c r="F239" t="n">
-        <v>131.1994</v>
+        <v>23273.8366</v>
       </c>
       <c r="G239" t="n">
-        <v>6.491333333333341</v>
+        <v>6.48998333333334</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -8884,7 +9102,9 @@
         <v>0</v>
       </c>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>6.45</v>
+      </c>
       <c r="L239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8899,22 +9119,22 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>6.625</v>
+        <v>6.632</v>
       </c>
       <c r="C240" t="n">
-        <v>6.625</v>
+        <v>6.632</v>
       </c>
       <c r="D240" t="n">
-        <v>6.625</v>
+        <v>6.632</v>
       </c>
       <c r="E240" t="n">
-        <v>6.625</v>
+        <v>6.632</v>
       </c>
       <c r="F240" t="n">
-        <v>110236.3549</v>
+        <v>131.1994</v>
       </c>
       <c r="G240" t="n">
-        <v>6.49323333333334</v>
+        <v>6.491333333333341</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -8923,7 +9143,9 @@
         <v>0</v>
       </c>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>6.45</v>
+      </c>
       <c r="L240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8938,22 +9160,22 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>6.632</v>
+        <v>6.625</v>
       </c>
       <c r="C241" t="n">
-        <v>6.631</v>
+        <v>6.625</v>
       </c>
       <c r="D241" t="n">
-        <v>6.632</v>
+        <v>6.625</v>
       </c>
       <c r="E241" t="n">
-        <v>6.631</v>
+        <v>6.625</v>
       </c>
       <c r="F241" t="n">
-        <v>5130.1556</v>
+        <v>110236.3549</v>
       </c>
       <c r="G241" t="n">
-        <v>6.496250000000006</v>
+        <v>6.49323333333334</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -8962,7 +9184,9 @@
         <v>0</v>
       </c>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>6.45</v>
+      </c>
       <c r="L241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8980,19 +9204,19 @@
         <v>6.632</v>
       </c>
       <c r="C242" t="n">
-        <v>6.632</v>
+        <v>6.631</v>
       </c>
       <c r="D242" t="n">
         <v>6.632</v>
       </c>
       <c r="E242" t="n">
-        <v>6.632</v>
+        <v>6.631</v>
       </c>
       <c r="F242" t="n">
-        <v>1156.0638</v>
+        <v>5130.1556</v>
       </c>
       <c r="G242" t="n">
-        <v>6.49928333333334</v>
+        <v>6.496250000000006</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -9001,7 +9225,9 @@
         <v>0</v>
       </c>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>6.45</v>
+      </c>
       <c r="L242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9016,22 +9242,22 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>6.689</v>
+        <v>6.632</v>
       </c>
       <c r="C243" t="n">
-        <v>6.7</v>
+        <v>6.632</v>
       </c>
       <c r="D243" t="n">
-        <v>6.7</v>
+        <v>6.632</v>
       </c>
       <c r="E243" t="n">
-        <v>6.689</v>
+        <v>6.632</v>
       </c>
       <c r="F243" t="n">
-        <v>69484.51149999999</v>
+        <v>1156.0638</v>
       </c>
       <c r="G243" t="n">
-        <v>6.503450000000006</v>
+        <v>6.49928333333334</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -9040,7 +9266,9 @@
         <v>0</v>
       </c>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>6.45</v>
+      </c>
       <c r="L243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9055,22 +9283,22 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>6.673</v>
+        <v>6.689</v>
       </c>
       <c r="C244" t="n">
-        <v>6.662</v>
+        <v>6.7</v>
       </c>
       <c r="D244" t="n">
-        <v>6.673</v>
+        <v>6.7</v>
       </c>
       <c r="E244" t="n">
-        <v>6.662</v>
+        <v>6.689</v>
       </c>
       <c r="F244" t="n">
-        <v>119573.8659</v>
+        <v>69484.51149999999</v>
       </c>
       <c r="G244" t="n">
-        <v>6.50698333333334</v>
+        <v>6.503450000000006</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -9079,7 +9307,9 @@
         <v>0</v>
       </c>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>6.45</v>
+      </c>
       <c r="L244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9097,19 +9327,19 @@
         <v>6.673</v>
       </c>
       <c r="C245" t="n">
-        <v>6.673</v>
+        <v>6.662</v>
       </c>
       <c r="D245" t="n">
         <v>6.673</v>
       </c>
       <c r="E245" t="n">
-        <v>6.673</v>
+        <v>6.662</v>
       </c>
       <c r="F245" t="n">
-        <v>109057.7864</v>
+        <v>119573.8659</v>
       </c>
       <c r="G245" t="n">
-        <v>6.51103333333334</v>
+        <v>6.50698333333334</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -9118,7 +9348,9 @@
         <v>0</v>
       </c>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>6.45</v>
+      </c>
       <c r="L245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9133,22 +9365,22 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>6.697</v>
+        <v>6.673</v>
       </c>
       <c r="C246" t="n">
-        <v>6.697</v>
+        <v>6.673</v>
       </c>
       <c r="D246" t="n">
-        <v>6.697</v>
+        <v>6.673</v>
       </c>
       <c r="E246" t="n">
-        <v>6.697</v>
+        <v>6.673</v>
       </c>
       <c r="F246" t="n">
-        <v>4026.2456</v>
+        <v>109057.7864</v>
       </c>
       <c r="G246" t="n">
-        <v>6.515200000000006</v>
+        <v>6.51103333333334</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -9157,7 +9389,9 @@
         <v>0</v>
       </c>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>6.45</v>
+      </c>
       <c r="L246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9172,22 +9406,22 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>6.7</v>
+        <v>6.697</v>
       </c>
       <c r="C247" t="n">
-        <v>6.7</v>
+        <v>6.697</v>
       </c>
       <c r="D247" t="n">
-        <v>6.7</v>
+        <v>6.697</v>
       </c>
       <c r="E247" t="n">
-        <v>6.7</v>
+        <v>6.697</v>
       </c>
       <c r="F247" t="n">
-        <v>53304.4497</v>
+        <v>4026.2456</v>
       </c>
       <c r="G247" t="n">
-        <v>6.520033333333339</v>
+        <v>6.515200000000006</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -9196,7 +9430,9 @@
         <v>0</v>
       </c>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>6.45</v>
+      </c>
       <c r="L247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9211,22 +9447,22 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>6.67</v>
+        <v>6.7</v>
       </c>
       <c r="C248" t="n">
-        <v>6.67</v>
+        <v>6.7</v>
       </c>
       <c r="D248" t="n">
-        <v>6.67</v>
+        <v>6.7</v>
       </c>
       <c r="E248" t="n">
-        <v>6.67</v>
+        <v>6.7</v>
       </c>
       <c r="F248" t="n">
-        <v>10581.531</v>
+        <v>53304.4497</v>
       </c>
       <c r="G248" t="n">
-        <v>6.524700000000006</v>
+        <v>6.520033333333339</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -9235,7 +9471,9 @@
         <v>0</v>
       </c>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>6.45</v>
+      </c>
       <c r="L248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9253,19 +9491,19 @@
         <v>6.67</v>
       </c>
       <c r="C249" t="n">
-        <v>6.689</v>
+        <v>6.67</v>
       </c>
       <c r="D249" t="n">
-        <v>6.689</v>
+        <v>6.67</v>
       </c>
       <c r="E249" t="n">
         <v>6.67</v>
       </c>
       <c r="F249" t="n">
-        <v>8686.182500000001</v>
+        <v>10581.531</v>
       </c>
       <c r="G249" t="n">
-        <v>6.529516666666674</v>
+        <v>6.524700000000006</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -9274,7 +9512,9 @@
         <v>0</v>
       </c>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>6.45</v>
+      </c>
       <c r="L249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9289,22 +9529,22 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>6.7</v>
+        <v>6.67</v>
       </c>
       <c r="C250" t="n">
-        <v>6.7</v>
+        <v>6.689</v>
       </c>
       <c r="D250" t="n">
-        <v>6.7</v>
+        <v>6.689</v>
       </c>
       <c r="E250" t="n">
-        <v>6.7</v>
+        <v>6.67</v>
       </c>
       <c r="F250" t="n">
-        <v>161727.8926</v>
+        <v>8686.182500000001</v>
       </c>
       <c r="G250" t="n">
-        <v>6.533966666666673</v>
+        <v>6.529516666666674</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -9313,7 +9553,9 @@
         <v>0</v>
       </c>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>6.45</v>
+      </c>
       <c r="L250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9340,10 +9582,10 @@
         <v>6.7</v>
       </c>
       <c r="F251" t="n">
-        <v>839.6577</v>
+        <v>161727.8926</v>
       </c>
       <c r="G251" t="n">
-        <v>6.538450000000007</v>
+        <v>6.533966666666673</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -9352,7 +9594,9 @@
         <v>0</v>
       </c>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>6.45</v>
+      </c>
       <c r="L251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9379,10 +9623,10 @@
         <v>6.7</v>
       </c>
       <c r="F252" t="n">
-        <v>24569.9999</v>
+        <v>839.6577</v>
       </c>
       <c r="G252" t="n">
-        <v>6.542716666666673</v>
+        <v>6.538450000000007</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -9391,7 +9635,9 @@
         <v>0</v>
       </c>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>6.45</v>
+      </c>
       <c r="L252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9406,22 +9652,22 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>6.737</v>
+        <v>6.7</v>
       </c>
       <c r="C253" t="n">
-        <v>6.737</v>
+        <v>6.7</v>
       </c>
       <c r="D253" t="n">
-        <v>6.737</v>
+        <v>6.7</v>
       </c>
       <c r="E253" t="n">
-        <v>6.737</v>
+        <v>6.7</v>
       </c>
       <c r="F253" t="n">
-        <v>6025</v>
+        <v>24569.9999</v>
       </c>
       <c r="G253" t="n">
-        <v>6.54743333333334</v>
+        <v>6.542716666666673</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -9430,7 +9676,9 @@
         <v>0</v>
       </c>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>6.45</v>
+      </c>
       <c r="L253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9445,38 +9693,40 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>6.688</v>
+        <v>6.737</v>
       </c>
       <c r="C254" t="n">
-        <v>6.688</v>
+        <v>6.737</v>
       </c>
       <c r="D254" t="n">
-        <v>6.688</v>
+        <v>6.737</v>
       </c>
       <c r="E254" t="n">
-        <v>6.688</v>
+        <v>6.737</v>
       </c>
       <c r="F254" t="n">
-        <v>8721.5252</v>
+        <v>6025</v>
       </c>
       <c r="G254" t="n">
-        <v>6.551300000000007</v>
+        <v>6.54743333333334</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
       </c>
       <c r="I254" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="n">
+        <v>6.45</v>
+      </c>
       <c r="L254" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M254" t="n">
-        <v>1</v>
+        <v>1.039496124031008</v>
       </c>
     </row>
     <row r="255">
@@ -9484,22 +9734,22 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>6.674</v>
+        <v>6.688</v>
       </c>
       <c r="C255" t="n">
-        <v>6.69</v>
+        <v>6.688</v>
       </c>
       <c r="D255" t="n">
-        <v>6.69</v>
+        <v>6.688</v>
       </c>
       <c r="E255" t="n">
-        <v>6.674</v>
+        <v>6.688</v>
       </c>
       <c r="F255" t="n">
-        <v>178648.282</v>
+        <v>8721.5252</v>
       </c>
       <c r="G255" t="n">
-        <v>6.554666666666673</v>
+        <v>6.551300000000007</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -9509,40 +9759,38 @@
       </c>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M255" t="inlineStr"/>
+      <c r="L255" t="inlineStr"/>
+      <c r="M255" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>6.682</v>
+        <v>6.674</v>
       </c>
       <c r="C256" t="n">
-        <v>6.682</v>
+        <v>6.69</v>
       </c>
       <c r="D256" t="n">
-        <v>6.682</v>
+        <v>6.69</v>
       </c>
       <c r="E256" t="n">
-        <v>6.682</v>
+        <v>6.674</v>
       </c>
       <c r="F256" t="n">
-        <v>12590</v>
+        <v>178648.282</v>
       </c>
       <c r="G256" t="n">
-        <v>6.557916666666673</v>
+        <v>6.554666666666673</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
       </c>
       <c r="I256" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
@@ -9568,10 +9816,10 @@
         <v>6.682</v>
       </c>
       <c r="F257" t="n">
-        <v>142550.1763</v>
+        <v>12590</v>
       </c>
       <c r="G257" t="n">
-        <v>6.561450000000006</v>
+        <v>6.557916666666673</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -9591,28 +9839,28 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>6.677</v>
+        <v>6.682</v>
       </c>
       <c r="C258" t="n">
-        <v>6.677</v>
+        <v>6.682</v>
       </c>
       <c r="D258" t="n">
-        <v>6.677</v>
+        <v>6.682</v>
       </c>
       <c r="E258" t="n">
-        <v>6.677</v>
+        <v>6.682</v>
       </c>
       <c r="F258" t="n">
-        <v>74999.19839999999</v>
+        <v>142550.1763</v>
       </c>
       <c r="G258" t="n">
-        <v>6.56478333333334</v>
+        <v>6.561450000000006</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
       </c>
       <c r="I258" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
@@ -9626,22 +9874,22 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>6.651</v>
+        <v>6.677</v>
       </c>
       <c r="C259" t="n">
-        <v>6.651</v>
+        <v>6.677</v>
       </c>
       <c r="D259" t="n">
-        <v>6.651</v>
+        <v>6.677</v>
       </c>
       <c r="E259" t="n">
-        <v>6.651</v>
+        <v>6.677</v>
       </c>
       <c r="F259" t="n">
-        <v>165354.5323</v>
+        <v>74999.19839999999</v>
       </c>
       <c r="G259" t="n">
-        <v>6.568466666666674</v>
+        <v>6.56478333333334</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -9673,10 +9921,10 @@
         <v>6.651</v>
       </c>
       <c r="F260" t="n">
-        <v>0.0001</v>
+        <v>165354.5323</v>
       </c>
       <c r="G260" t="n">
-        <v>6.57228333333334</v>
+        <v>6.568466666666674</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -9696,22 +9944,22 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>6.664</v>
+        <v>6.651</v>
       </c>
       <c r="C261" t="n">
-        <v>6.664</v>
+        <v>6.651</v>
       </c>
       <c r="D261" t="n">
-        <v>6.664</v>
+        <v>6.651</v>
       </c>
       <c r="E261" t="n">
-        <v>6.664</v>
+        <v>6.651</v>
       </c>
       <c r="F261" t="n">
-        <v>165354.5324</v>
+        <v>0.0001</v>
       </c>
       <c r="G261" t="n">
-        <v>6.57553333333334</v>
+        <v>6.57228333333334</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -9731,22 +9979,22 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>6.698</v>
+        <v>6.664</v>
       </c>
       <c r="C262" t="n">
-        <v>6.698</v>
+        <v>6.664</v>
       </c>
       <c r="D262" t="n">
-        <v>6.698</v>
+        <v>6.664</v>
       </c>
       <c r="E262" t="n">
-        <v>6.698</v>
+        <v>6.664</v>
       </c>
       <c r="F262" t="n">
-        <v>14893.1195</v>
+        <v>165354.5324</v>
       </c>
       <c r="G262" t="n">
-        <v>6.580650000000006</v>
+        <v>6.57553333333334</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -9766,22 +10014,22 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>6.655</v>
+        <v>6.698</v>
       </c>
       <c r="C263" t="n">
-        <v>6.655</v>
+        <v>6.698</v>
       </c>
       <c r="D263" t="n">
-        <v>6.655</v>
+        <v>6.698</v>
       </c>
       <c r="E263" t="n">
-        <v>6.655</v>
+        <v>6.698</v>
       </c>
       <c r="F263" t="n">
-        <v>5222.75</v>
+        <v>14893.1195</v>
       </c>
       <c r="G263" t="n">
-        <v>6.585066666666672</v>
+        <v>6.580650000000006</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -9801,22 +10049,22 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>6.699</v>
+        <v>6.655</v>
       </c>
       <c r="C264" t="n">
-        <v>6.713</v>
+        <v>6.655</v>
       </c>
       <c r="D264" t="n">
-        <v>6.713</v>
+        <v>6.655</v>
       </c>
       <c r="E264" t="n">
-        <v>6.699</v>
+        <v>6.655</v>
       </c>
       <c r="F264" t="n">
-        <v>271000</v>
+        <v>5222.75</v>
       </c>
       <c r="G264" t="n">
-        <v>6.590100000000006</v>
+        <v>6.585066666666672</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -9836,22 +10084,22 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>6.719</v>
+        <v>6.699</v>
       </c>
       <c r="C265" t="n">
-        <v>6.75</v>
+        <v>6.713</v>
       </c>
       <c r="D265" t="n">
-        <v>6.75</v>
+        <v>6.713</v>
       </c>
       <c r="E265" t="n">
-        <v>6.719</v>
+        <v>6.699</v>
       </c>
       <c r="F265" t="n">
-        <v>292000</v>
+        <v>271000</v>
       </c>
       <c r="G265" t="n">
-        <v>6.595883333333338</v>
+        <v>6.590100000000006</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -9871,22 +10119,22 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>6.731</v>
+        <v>6.719</v>
       </c>
       <c r="C266" t="n">
-        <v>6.731</v>
+        <v>6.75</v>
       </c>
       <c r="D266" t="n">
-        <v>6.731</v>
+        <v>6.75</v>
       </c>
       <c r="E266" t="n">
-        <v>6.731</v>
+        <v>6.719</v>
       </c>
       <c r="F266" t="n">
-        <v>20576.9851</v>
+        <v>292000</v>
       </c>
       <c r="G266" t="n">
-        <v>6.601066666666672</v>
+        <v>6.595883333333338</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -9906,22 +10154,22 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>6.716</v>
+        <v>6.731</v>
       </c>
       <c r="C267" t="n">
-        <v>6.726</v>
+        <v>6.731</v>
       </c>
       <c r="D267" t="n">
-        <v>6.726</v>
+        <v>6.731</v>
       </c>
       <c r="E267" t="n">
-        <v>6.716</v>
+        <v>6.731</v>
       </c>
       <c r="F267" t="n">
-        <v>27515.2976</v>
+        <v>20576.9851</v>
       </c>
       <c r="G267" t="n">
-        <v>6.606166666666671</v>
+        <v>6.601066666666672</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -9941,22 +10189,22 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>6.719</v>
+        <v>6.716</v>
       </c>
       <c r="C268" t="n">
-        <v>6.719</v>
+        <v>6.726</v>
       </c>
       <c r="D268" t="n">
-        <v>6.719</v>
+        <v>6.726</v>
       </c>
       <c r="E268" t="n">
-        <v>6.719</v>
+        <v>6.716</v>
       </c>
       <c r="F268" t="n">
-        <v>105070.5695</v>
+        <v>27515.2976</v>
       </c>
       <c r="G268" t="n">
-        <v>6.611150000000005</v>
+        <v>6.606166666666671</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -9976,22 +10224,22 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>6.693</v>
+        <v>6.719</v>
       </c>
       <c r="C269" t="n">
-        <v>6.693</v>
+        <v>6.719</v>
       </c>
       <c r="D269" t="n">
-        <v>6.693</v>
+        <v>6.719</v>
       </c>
       <c r="E269" t="n">
-        <v>6.693</v>
+        <v>6.719</v>
       </c>
       <c r="F269" t="n">
-        <v>13775</v>
+        <v>105070.5695</v>
       </c>
       <c r="G269" t="n">
-        <v>6.615700000000004</v>
+        <v>6.611150000000005</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -10023,10 +10271,10 @@
         <v>6.693</v>
       </c>
       <c r="F270" t="n">
-        <v>111367.9077</v>
+        <v>13775</v>
       </c>
       <c r="G270" t="n">
-        <v>6.619266666666671</v>
+        <v>6.615700000000004</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -10046,22 +10294,22 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>6.7</v>
+        <v>6.693</v>
       </c>
       <c r="C271" t="n">
-        <v>6.7</v>
+        <v>6.693</v>
       </c>
       <c r="D271" t="n">
-        <v>6.7</v>
+        <v>6.693</v>
       </c>
       <c r="E271" t="n">
-        <v>6.7</v>
+        <v>6.693</v>
       </c>
       <c r="F271" t="n">
-        <v>600</v>
+        <v>111367.9077</v>
       </c>
       <c r="G271" t="n">
-        <v>6.62276666666667</v>
+        <v>6.619266666666671</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -10081,22 +10329,22 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>6.69</v>
+        <v>6.7</v>
       </c>
       <c r="C272" t="n">
-        <v>6.69</v>
+        <v>6.7</v>
       </c>
       <c r="D272" t="n">
-        <v>6.69</v>
+        <v>6.7</v>
       </c>
       <c r="E272" t="n">
-        <v>6.69</v>
+        <v>6.7</v>
       </c>
       <c r="F272" t="n">
-        <v>72199.4375</v>
+        <v>600</v>
       </c>
       <c r="G272" t="n">
-        <v>6.626350000000003</v>
+        <v>6.62276666666667</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -10116,22 +10364,22 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>6.68</v>
+        <v>6.69</v>
       </c>
       <c r="C273" t="n">
-        <v>6.68</v>
+        <v>6.69</v>
       </c>
       <c r="D273" t="n">
-        <v>6.68</v>
+        <v>6.69</v>
       </c>
       <c r="E273" t="n">
-        <v>6.68</v>
+        <v>6.69</v>
       </c>
       <c r="F273" t="n">
-        <v>6000</v>
+        <v>72199.4375</v>
       </c>
       <c r="G273" t="n">
-        <v>6.629350000000003</v>
+        <v>6.626350000000003</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -10151,22 +10399,22 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>6.7</v>
+        <v>6.68</v>
       </c>
       <c r="C274" t="n">
-        <v>6.7</v>
+        <v>6.68</v>
       </c>
       <c r="D274" t="n">
-        <v>6.7</v>
+        <v>6.68</v>
       </c>
       <c r="E274" t="n">
-        <v>6.7</v>
+        <v>6.68</v>
       </c>
       <c r="F274" t="n">
-        <v>22542.6103</v>
+        <v>6000</v>
       </c>
       <c r="G274" t="n">
-        <v>6.633016666666669</v>
+        <v>6.629350000000003</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -10198,10 +10446,10 @@
         <v>6.7</v>
       </c>
       <c r="F275" t="n">
-        <v>9556.911599999999</v>
+        <v>22542.6103</v>
       </c>
       <c r="G275" t="n">
-        <v>6.636516666666669</v>
+        <v>6.633016666666669</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -10233,10 +10481,10 @@
         <v>6.7</v>
       </c>
       <c r="F276" t="n">
-        <v>1714.3937</v>
+        <v>9556.911599999999</v>
       </c>
       <c r="G276" t="n">
-        <v>6.640000000000002</v>
+        <v>6.636516666666669</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -10256,22 +10504,22 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>6.704</v>
+        <v>6.7</v>
       </c>
       <c r="C277" t="n">
-        <v>6.693</v>
+        <v>6.7</v>
       </c>
       <c r="D277" t="n">
-        <v>6.704</v>
+        <v>6.7</v>
       </c>
       <c r="E277" t="n">
-        <v>6.693</v>
+        <v>6.7</v>
       </c>
       <c r="F277" t="n">
-        <v>263450</v>
+        <v>1714.3937</v>
       </c>
       <c r="G277" t="n">
-        <v>6.643366666666669</v>
+        <v>6.640000000000002</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -10286,6 +10534,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B278" t="n">
+        <v>6.704</v>
+      </c>
+      <c r="C278" t="n">
+        <v>6.693</v>
+      </c>
+      <c r="D278" t="n">
+        <v>6.704</v>
+      </c>
+      <c r="E278" t="n">
+        <v>6.693</v>
+      </c>
+      <c r="F278" t="n">
+        <v>263450</v>
+      </c>
+      <c r="G278" t="n">
+        <v>6.643366666666669</v>
+      </c>
+      <c r="H278" t="n">
+        <v>0</v>
+      </c>
+      <c r="I278" t="n">
+        <v>0</v>
+      </c>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
+      <c r="L278" t="inlineStr"/>
+      <c r="M278" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-16 BackTest VET.xlsx
+++ b/BackTest/2020-01-16 BackTest VET.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M278"/>
+  <dimension ref="A1:N288"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>4805.229</v>
       </c>
       <c r="G2" t="n">
+        <v>6.507000000000002</v>
+      </c>
+      <c r="H2" t="n">
         <v>6.366549999999999</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,25 @@
         <v>13145.2283</v>
       </c>
       <c r="G3" t="n">
+        <v>6.517866666666668</v>
+      </c>
+      <c r="H3" t="n">
         <v>6.371399999999999</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>6.528</v>
+      </c>
+      <c r="L3" t="n">
+        <v>6.528</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +533,29 @@
         <v>5393.5622</v>
       </c>
       <c r="G4" t="n">
+        <v>6.527266666666668</v>
+      </c>
+      <c r="H4" t="n">
         <v>6.375733333333332</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>6.562</v>
+      </c>
+      <c r="L4" t="n">
+        <v>6.528</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +579,29 @@
         <v>26070</v>
       </c>
       <c r="G5" t="n">
+        <v>6.534000000000002</v>
+      </c>
+      <c r="H5" t="n">
         <v>6.379933333333332</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>6.541</v>
+      </c>
+      <c r="L5" t="n">
+        <v>6.528</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +625,25 @@
         <v>125438.6704</v>
       </c>
       <c r="G6" t="n">
+        <v>6.537466666666668</v>
+      </c>
+      <c r="H6" t="n">
         <v>6.384449999999999</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>6.552</v>
+      </c>
+      <c r="L6" t="n">
+        <v>6.552</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +667,29 @@
         <v>40728.4306</v>
       </c>
       <c r="G7" t="n">
+        <v>6.540333333333335</v>
+      </c>
+      <c r="H7" t="n">
         <v>6.388199999999999</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>6.552</v>
+      </c>
+      <c r="L7" t="n">
+        <v>6.552</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +713,29 @@
         <v>634393.1179</v>
       </c>
       <c r="G8" t="n">
+        <v>6.539866666666668</v>
+      </c>
+      <c r="H8" t="n">
         <v>6.39195</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>6.543</v>
+      </c>
+      <c r="L8" t="n">
+        <v>6.552</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +759,29 @@
         <v>324457.0726</v>
       </c>
       <c r="G9" t="n">
+        <v>6.542066666666669</v>
+      </c>
+      <c r="H9" t="n">
         <v>6.395366666666666</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>6.543</v>
+      </c>
+      <c r="L9" t="n">
+        <v>6.552</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +805,29 @@
         <v>51310.1842</v>
       </c>
       <c r="G10" t="n">
+        <v>6.541800000000003</v>
+      </c>
+      <c r="H10" t="n">
         <v>6.399199999999999</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>6.543</v>
+      </c>
+      <c r="L10" t="n">
+        <v>6.552</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +851,29 @@
         <v>14052.7886</v>
       </c>
       <c r="G11" t="n">
+        <v>6.542000000000002</v>
+      </c>
+      <c r="H11" t="n">
         <v>6.403083333333332</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>6.551</v>
+      </c>
+      <c r="L11" t="n">
+        <v>6.552</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +897,29 @@
         <v>102814</v>
       </c>
       <c r="G12" t="n">
+        <v>6.54246666666667</v>
+      </c>
+      <c r="H12" t="n">
         <v>6.407749999999999</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>6.543</v>
+      </c>
+      <c r="L12" t="n">
+        <v>6.552</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +943,29 @@
         <v>60857</v>
       </c>
       <c r="G13" t="n">
+        <v>6.539333333333335</v>
+      </c>
+      <c r="H13" t="n">
         <v>6.411883333333333</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>6.548</v>
+      </c>
+      <c r="L13" t="n">
+        <v>6.552</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +989,29 @@
         <v>33894.5187</v>
       </c>
       <c r="G14" t="n">
+        <v>6.541000000000001</v>
+      </c>
+      <c r="H14" t="n">
         <v>6.415983333333333</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>6.52</v>
+      </c>
+      <c r="L14" t="n">
+        <v>6.552</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +1035,29 @@
         <v>13198.5896</v>
       </c>
       <c r="G15" t="n">
+        <v>6.541866666666667</v>
+      </c>
+      <c r="H15" t="n">
         <v>6.420083333333334</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>6.535</v>
+      </c>
+      <c r="L15" t="n">
+        <v>6.552</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +1081,27 @@
         <v>465000</v>
       </c>
       <c r="G16" t="n">
+        <v>6.543133333333334</v>
+      </c>
+      <c r="H16" t="n">
         <v>6.424283333333334</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="L16" t="n">
+        <v>6.552</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1125,27 @@
         <v>273705.6492</v>
       </c>
       <c r="G17" t="n">
+        <v>6.542600000000001</v>
+      </c>
+      <c r="H17" t="n">
         <v>6.427533333333334</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="L17" t="n">
+        <v>6.552</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1169,29 @@
         <v>59383.7106</v>
       </c>
       <c r="G18" t="n">
+        <v>6.541733333333335</v>
+      </c>
+      <c r="H18" t="n">
         <v>6.431500000000001</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>6.52</v>
+      </c>
+      <c r="L18" t="n">
+        <v>6.552</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1215,29 @@
         <v>230250.075</v>
       </c>
       <c r="G19" t="n">
+        <v>6.542400000000002</v>
+      </c>
+      <c r="H19" t="n">
         <v>6.4352</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>6.549</v>
+      </c>
+      <c r="L19" t="n">
+        <v>6.552</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1261,27 @@
         <v>577745.4867</v>
       </c>
       <c r="G20" t="n">
+        <v>6.542333333333334</v>
+      </c>
+      <c r="H20" t="n">
         <v>6.439216666666667</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="L20" t="n">
+        <v>6.552</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1305,27 @@
         <v>73317.36139999999</v>
       </c>
       <c r="G21" t="n">
+        <v>6.542266666666667</v>
+      </c>
+      <c r="H21" t="n">
         <v>6.443233333333334</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="L21" t="n">
+        <v>6.552</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1349,27 @@
         <v>290492.0842</v>
       </c>
       <c r="G22" t="n">
+        <v>6.542800000000001</v>
+      </c>
+      <c r="H22" t="n">
         <v>6.446783333333332</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="L22" t="n">
+        <v>6.552</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1393,27 @@
         <v>241545.7125</v>
       </c>
       <c r="G23" t="n">
+        <v>6.543333333333334</v>
+      </c>
+      <c r="H23" t="n">
         <v>6.450316666666666</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="L23" t="n">
+        <v>6.552</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1437,27 @@
         <v>489144.2209</v>
       </c>
       <c r="G24" t="n">
+        <v>6.546666666666667</v>
+      </c>
+      <c r="H24" t="n">
         <v>6.454533333333333</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="L24" t="n">
+        <v>6.552</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1481,27 @@
         <v>190158.9937</v>
       </c>
       <c r="G25" t="n">
+        <v>6.549466666666667</v>
+      </c>
+      <c r="H25" t="n">
         <v>6.458616666666667</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="L25" t="n">
+        <v>6.552</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1525,27 @@
         <v>107370.6197</v>
       </c>
       <c r="G26" t="n">
+        <v>6.552866666666666</v>
+      </c>
+      <c r="H26" t="n">
         <v>6.462716666666666</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="L26" t="n">
+        <v>6.552</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1569,27 @@
         <v>60243.3172</v>
       </c>
       <c r="G27" t="n">
+        <v>6.555866666666666</v>
+      </c>
+      <c r="H27" t="n">
         <v>6.466666666666667</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="L27" t="n">
+        <v>6.552</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1613,27 @@
         <v>70796.8561</v>
       </c>
       <c r="G28" t="n">
+        <v>6.561199999999999</v>
+      </c>
+      <c r="H28" t="n">
         <v>6.471500000000001</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="L28" t="n">
+        <v>6.552</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1657,27 @@
         <v>200387.1827</v>
       </c>
       <c r="G29" t="n">
+        <v>6.565533333333333</v>
+      </c>
+      <c r="H29" t="n">
         <v>6.476183333333334</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="L29" t="n">
+        <v>6.552</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1701,27 @@
         <v>318385.535</v>
       </c>
       <c r="G30" t="n">
+        <v>6.569333333333333</v>
+      </c>
+      <c r="H30" t="n">
         <v>6.480383333333334</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="L30" t="n">
+        <v>6.552</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1745,27 @@
         <v>7892.232</v>
       </c>
       <c r="G31" t="n">
+        <v>6.569466666666666</v>
+      </c>
+      <c r="H31" t="n">
         <v>6.48385</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="L31" t="n">
+        <v>6.552</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1789,27 @@
         <v>102000</v>
       </c>
       <c r="G32" t="n">
+        <v>6.574599999999999</v>
+      </c>
+      <c r="H32" t="n">
         <v>6.4883</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="L32" t="n">
+        <v>6.552</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1833,27 @@
         <v>31708.2413</v>
       </c>
       <c r="G33" t="n">
+        <v>6.576733333333332</v>
+      </c>
+      <c r="H33" t="n">
         <v>6.492966666666667</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="L33" t="n">
+        <v>6.552</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1877,27 @@
         <v>146825.2442</v>
       </c>
       <c r="G34" t="n">
+        <v>6.576933333333332</v>
+      </c>
+      <c r="H34" t="n">
         <v>6.4966</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="L34" t="n">
+        <v>6.552</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1921,27 @@
         <v>216071.5307</v>
       </c>
       <c r="G35" t="n">
+        <v>6.581533333333332</v>
+      </c>
+      <c r="H35" t="n">
         <v>6.501533333333333</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="L35" t="n">
+        <v>6.552</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1965,27 @@
         <v>58811.6895</v>
       </c>
       <c r="G36" t="n">
+        <v>6.586133333333333</v>
+      </c>
+      <c r="H36" t="n">
         <v>6.506766666666667</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="L36" t="n">
+        <v>6.552</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +2009,27 @@
         <v>304058.9999</v>
       </c>
       <c r="G37" t="n">
+        <v>6.592733333333332</v>
+      </c>
+      <c r="H37" t="n">
         <v>6.512383333333333</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="L37" t="n">
+        <v>6.552</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +2053,27 @@
         <v>66793.8082</v>
       </c>
       <c r="G38" t="n">
+        <v>6.599999999999999</v>
+      </c>
+      <c r="H38" t="n">
         <v>6.518133333333334</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="L38" t="n">
+        <v>6.552</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +2097,27 @@
         <v>20130</v>
       </c>
       <c r="G39" t="n">
+        <v>6.601799999999999</v>
+      </c>
+      <c r="H39" t="n">
         <v>6.523133333333334</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="L39" t="n">
+        <v>6.552</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +2141,27 @@
         <v>8017.0909</v>
       </c>
       <c r="G40" t="n">
+        <v>6.603599999999999</v>
+      </c>
+      <c r="H40" t="n">
         <v>6.528050000000001</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="L40" t="n">
+        <v>6.552</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +2185,27 @@
         <v>32036.1719</v>
       </c>
       <c r="G41" t="n">
+        <v>6.605333333333333</v>
+      </c>
+      <c r="H41" t="n">
         <v>6.532966666666668</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="L41" t="n">
+        <v>6.552</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +2229,27 @@
         <v>2122.0147</v>
       </c>
       <c r="G42" t="n">
+        <v>6.607133333333334</v>
+      </c>
+      <c r="H42" t="n">
         <v>6.537966666666668</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="L42" t="n">
+        <v>6.552</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2273,27 @@
         <v>1507.025230397341</v>
       </c>
       <c r="G43" t="n">
+        <v>6.6084</v>
+      </c>
+      <c r="H43" t="n">
         <v>6.542783333333334</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="L43" t="n">
+        <v>6.552</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2317,27 @@
         <v>34793.7097</v>
       </c>
       <c r="G44" t="n">
+        <v>6.607733333333334</v>
+      </c>
+      <c r="H44" t="n">
         <v>6.547116666666668</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="L44" t="n">
+        <v>6.552</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2361,27 @@
         <v>8225.2003</v>
       </c>
       <c r="G45" t="n">
+        <v>6.608266666666667</v>
+      </c>
+      <c r="H45" t="n">
         <v>6.551533333333335</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="L45" t="n">
+        <v>6.552</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2405,27 @@
         <v>8290</v>
       </c>
       <c r="G46" t="n">
+        <v>6.611400000000001</v>
+      </c>
+      <c r="H46" t="n">
         <v>6.555600000000002</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="L46" t="n">
+        <v>6.552</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2449,27 @@
         <v>50000</v>
       </c>
       <c r="G47" t="n">
+        <v>6.610266666666667</v>
+      </c>
+      <c r="H47" t="n">
         <v>6.558616666666668</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="L47" t="n">
+        <v>6.552</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2493,27 @@
         <v>48061.4955</v>
       </c>
       <c r="G48" t="n">
+        <v>6.609533333333334</v>
+      </c>
+      <c r="H48" t="n">
         <v>6.561466666666669</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="L48" t="n">
+        <v>6.552</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2537,29 @@
         <v>34138.92</v>
       </c>
       <c r="G49" t="n">
+        <v>6.609466666666667</v>
+      </c>
+      <c r="H49" t="n">
         <v>6.564016666666669</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+        <v>1</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="L49" t="n">
+        <v>6.552</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2583,29 @@
         <v>18680.5274</v>
       </c>
       <c r="G50" t="n">
+        <v>6.607600000000001</v>
+      </c>
+      <c r="H50" t="n">
         <v>6.566366666666668</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+        <v>1</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
+        <v>6.553</v>
+      </c>
+      <c r="L50" t="n">
+        <v>6.552</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2629,29 @@
         <v>27608.9949</v>
       </c>
       <c r="G51" t="n">
+        <v>6.606800000000001</v>
+      </c>
+      <c r="H51" t="n">
         <v>6.568166666666668</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+        <v>1</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
+        <v>6.592</v>
+      </c>
+      <c r="L51" t="n">
+        <v>6.552</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2675,27 @@
         <v>6844.4936</v>
       </c>
       <c r="G52" t="n">
+        <v>6.603133333333333</v>
+      </c>
+      <c r="H52" t="n">
         <v>6.569750000000002</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="L52" t="n">
+        <v>6.552</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2719,27 @@
         <v>73171</v>
       </c>
       <c r="G53" t="n">
+        <v>6.600466666666667</v>
+      </c>
+      <c r="H53" t="n">
         <v>6.570916666666668</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="L53" t="n">
+        <v>6.552</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2763,27 @@
         <v>9520.055899999999</v>
       </c>
       <c r="G54" t="n">
+        <v>6.600666666666667</v>
+      </c>
+      <c r="H54" t="n">
         <v>6.572800000000002</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="L54" t="n">
+        <v>6.552</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2807,27 @@
         <v>12447</v>
       </c>
       <c r="G55" t="n">
+        <v>6.603133333333333</v>
+      </c>
+      <c r="H55" t="n">
         <v>6.574500000000001</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="L55" t="n">
+        <v>6.552</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2851,27 @@
         <v>514780.0476</v>
       </c>
       <c r="G56" t="n">
+        <v>6.605799999999999</v>
+      </c>
+      <c r="H56" t="n">
         <v>6.576500000000001</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="L56" t="n">
+        <v>6.552</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2895,27 @@
         <v>82261.3508</v>
       </c>
       <c r="G57" t="n">
+        <v>6.609066666666665</v>
+      </c>
+      <c r="H57" t="n">
         <v>6.578633333333334</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="L57" t="n">
+        <v>6.552</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2939,27 @@
         <v>17247</v>
       </c>
       <c r="G58" t="n">
+        <v>6.612399999999998</v>
+      </c>
+      <c r="H58" t="n">
         <v>6.580333333333334</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="L58" t="n">
+        <v>6.552</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2983,27 @@
         <v>6926.3003</v>
       </c>
       <c r="G59" t="n">
+        <v>6.617599999999999</v>
+      </c>
+      <c r="H59" t="n">
         <v>6.582966666666668</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="L59" t="n">
+        <v>6.552</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +3027,27 @@
         <v>0.0001</v>
       </c>
       <c r="G60" t="n">
+        <v>6.622133333333333</v>
+      </c>
+      <c r="H60" t="n">
         <v>6.585400000000002</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="L60" t="n">
+        <v>6.552</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +3071,27 @@
         <v>79757.19530000001</v>
       </c>
       <c r="G61" t="n">
+        <v>6.626466666666667</v>
+      </c>
+      <c r="H61" t="n">
         <v>6.587616666666668</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="L61" t="n">
+        <v>6.552</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +3115,27 @@
         <v>105708.6704</v>
       </c>
       <c r="G62" t="n">
+        <v>6.6322</v>
+      </c>
+      <c r="H62" t="n">
         <v>6.589916666666668</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="L62" t="n">
+        <v>6.552</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +3159,27 @@
         <v>14549.0255</v>
       </c>
       <c r="G63" t="n">
+        <v>6.640866666666667</v>
+      </c>
+      <c r="H63" t="n">
         <v>6.592216666666668</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="L63" t="n">
+        <v>6.552</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +3203,27 @@
         <v>6000</v>
       </c>
       <c r="G64" t="n">
+        <v>6.650666666666667</v>
+      </c>
+      <c r="H64" t="n">
         <v>6.594866666666667</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="L64" t="n">
+        <v>6.552</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +3247,27 @@
         <v>96530.4877</v>
       </c>
       <c r="G65" t="n">
+        <v>6.657866666666667</v>
+      </c>
+      <c r="H65" t="n">
         <v>6.597333333333334</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="L65" t="n">
+        <v>6.552</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +3291,27 @@
         <v>155096.5289</v>
       </c>
       <c r="G66" t="n">
+        <v>6.664000000000001</v>
+      </c>
+      <c r="H66" t="n">
         <v>6.5998</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="L66" t="n">
+        <v>6.552</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +3335,27 @@
         <v>1762.9486</v>
       </c>
       <c r="G67" t="n">
+        <v>6.671000000000001</v>
+      </c>
+      <c r="H67" t="n">
         <v>6.602416666666667</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="L67" t="n">
+        <v>6.552</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +3379,27 @@
         <v>22206.1372</v>
       </c>
       <c r="G68" t="n">
+        <v>6.678266666666667</v>
+      </c>
+      <c r="H68" t="n">
         <v>6.605516666666666</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="L68" t="n">
+        <v>6.552</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +3423,27 @@
         <v>339950.5292</v>
       </c>
       <c r="G69" t="n">
+        <v>6.686066666666666</v>
+      </c>
+      <c r="H69" t="n">
         <v>6.6088</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="L69" t="n">
+        <v>6.552</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3467,27 @@
         <v>444709.2401</v>
       </c>
       <c r="G70" t="n">
+        <v>6.693733333333333</v>
+      </c>
+      <c r="H70" t="n">
         <v>6.612483333333333</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="L70" t="n">
+        <v>6.552</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3511,27 @@
         <v>92522.8227</v>
       </c>
       <c r="G71" t="n">
+        <v>6.702733333333334</v>
+      </c>
+      <c r="H71" t="n">
         <v>6.616683333333333</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="L71" t="n">
+        <v>6.552</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3555,27 @@
         <v>275646.0262</v>
       </c>
       <c r="G72" t="n">
+        <v>6.711466666666667</v>
+      </c>
+      <c r="H72" t="n">
         <v>6.620883333333333</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="L72" t="n">
+        <v>6.552</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3599,27 @@
         <v>21262.6433</v>
       </c>
       <c r="G73" t="n">
+        <v>6.719666666666668</v>
+      </c>
+      <c r="H73" t="n">
         <v>6.625416666666666</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="L73" t="n">
+        <v>6.552</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3643,27 @@
         <v>191.25</v>
       </c>
       <c r="G74" t="n">
+        <v>6.729200000000001</v>
+      </c>
+      <c r="H74" t="n">
         <v>6.630016666666665</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="L74" t="n">
+        <v>6.552</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3687,27 @@
         <v>53574.1848</v>
       </c>
       <c r="G75" t="n">
+        <v>6.741866666666668</v>
+      </c>
+      <c r="H75" t="n">
         <v>6.635399999999999</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="L75" t="n">
+        <v>6.552</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,18 +3731,27 @@
         <v>1868160.7221</v>
       </c>
       <c r="G76" t="n">
+        <v>6.7568</v>
+      </c>
+      <c r="H76" t="n">
         <v>6.641033333333332</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="L76" t="n">
+        <v>6.552</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,18 +3775,27 @@
         <v>158720.1813</v>
       </c>
       <c r="G77" t="n">
+        <v>6.770333333333334</v>
+      </c>
+      <c r="H77" t="n">
         <v>6.646849999999999</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="L77" t="n">
+        <v>6.552</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,18 +3819,27 @@
         <v>326202.7785</v>
       </c>
       <c r="G78" t="n">
+        <v>6.776933333333334</v>
+      </c>
+      <c r="H78" t="n">
         <v>6.651016666666665</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="L78" t="n">
+        <v>6.552</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,18 +3863,27 @@
         <v>466382.6007</v>
       </c>
       <c r="G79" t="n">
+        <v>6.788200000000001</v>
+      </c>
+      <c r="H79" t="n">
         <v>6.656316666666666</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="L79" t="n">
+        <v>6.552</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,18 +3907,27 @@
         <v>550528.4618</v>
       </c>
       <c r="G80" t="n">
+        <v>6.8008</v>
+      </c>
+      <c r="H80" t="n">
         <v>6.66195</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="L80" t="n">
+        <v>6.552</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3213,18 +3951,27 @@
         <v>420288.3354</v>
       </c>
       <c r="G81" t="n">
+        <v>6.816866666666667</v>
+      </c>
+      <c r="H81" t="n">
         <v>6.668449999999999</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="L81" t="n">
+        <v>6.552</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3248,19 +3995,28 @@
         <v>136702.4849</v>
       </c>
       <c r="G82" t="n">
+        <v>6.8302</v>
+      </c>
+      <c r="H82" t="n">
         <v>6.674266666666666</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>1</v>
+      </c>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
+      <c r="L82" t="n">
+        <v>6.552</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
+        <v>1.048113553113553</v>
       </c>
     </row>
     <row r="83">
@@ -3283,18 +4039,21 @@
         <v>101235.0812</v>
       </c>
       <c r="G83" t="n">
+        <v>6.8368</v>
+      </c>
+      <c r="H83" t="n">
         <v>6.678883333333332</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>1</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3318,18 +4077,21 @@
         <v>3804.3478</v>
       </c>
       <c r="G84" t="n">
+        <v>6.843266666666667</v>
+      </c>
+      <c r="H84" t="n">
         <v>6.682949999999999</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>1</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3353,18 +4115,21 @@
         <v>173320.9279</v>
       </c>
       <c r="G85" t="n">
+        <v>6.848466666666667</v>
+      </c>
+      <c r="H85" t="n">
         <v>6.687233333333332</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>1</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3388,18 +4153,21 @@
         <v>42517.4039</v>
       </c>
       <c r="G86" t="n">
+        <v>6.852133333333333</v>
+      </c>
+      <c r="H86" t="n">
         <v>6.6915</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>1</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3423,18 +4191,21 @@
         <v>480288.893</v>
       </c>
       <c r="G87" t="n">
+        <v>6.848533333333333</v>
+      </c>
+      <c r="H87" t="n">
         <v>6.694049999999999</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>1</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3458,18 +4229,21 @@
         <v>113562.0207</v>
       </c>
       <c r="G88" t="n">
+        <v>6.847133333333333</v>
+      </c>
+      <c r="H88" t="n">
         <v>6.696899999999999</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>1</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3493,18 +4267,21 @@
         <v>5174.0871</v>
       </c>
       <c r="G89" t="n">
+        <v>6.843666666666667</v>
+      </c>
+      <c r="H89" t="n">
         <v>6.699549999999999</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>1</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3528,18 +4305,21 @@
         <v>362518.8159</v>
       </c>
       <c r="G90" t="n">
+        <v>6.833133333333334</v>
+      </c>
+      <c r="H90" t="n">
         <v>6.701349999999999</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>1</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3563,18 +4343,21 @@
         <v>79190.34</v>
       </c>
       <c r="G91" t="n">
+        <v>6.820533333333334</v>
+      </c>
+      <c r="H91" t="n">
         <v>6.703799999999998</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>1</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3598,18 +4381,21 @@
         <v>303341.7475</v>
       </c>
       <c r="G92" t="n">
+        <v>6.804266666666667</v>
+      </c>
+      <c r="H92" t="n">
         <v>6.704266666666665</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>1</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3633,18 +4419,21 @@
         <v>331238.8066</v>
       </c>
       <c r="G93" t="n">
+        <v>6.790999999999999</v>
+      </c>
+      <c r="H93" t="n">
         <v>6.704583333333332</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>1</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,18 +4457,21 @@
         <v>12949.7448</v>
       </c>
       <c r="G94" t="n">
+        <v>6.769733333333333</v>
+      </c>
+      <c r="H94" t="n">
         <v>6.704516666666666</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3703,18 +4495,21 @@
         <v>116.3456</v>
       </c>
       <c r="G95" t="n">
+        <v>6.747333333333333</v>
+      </c>
+      <c r="H95" t="n">
         <v>6.703399999999999</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3738,18 +4533,21 @@
         <v>25393.0152</v>
       </c>
       <c r="G96" t="n">
+        <v>6.7226</v>
+      </c>
+      <c r="H96" t="n">
         <v>6.702566666666666</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3773,18 +4571,21 @@
         <v>23768.6932</v>
       </c>
       <c r="G97" t="n">
+        <v>6.702066666666666</v>
+      </c>
+      <c r="H97" t="n">
         <v>6.701599999999999</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3808,18 +4609,21 @@
         <v>700</v>
       </c>
       <c r="G98" t="n">
+        <v>6.684933333333333</v>
+      </c>
+      <c r="H98" t="n">
         <v>6.700116666666665</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3843,18 +4647,21 @@
         <v>141259.9889</v>
       </c>
       <c r="G99" t="n">
+        <v>6.667199999999998</v>
+      </c>
+      <c r="H99" t="n">
         <v>6.699299999999999</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3878,18 +4685,21 @@
         <v>8243.4496</v>
       </c>
       <c r="G100" t="n">
+        <v>6.647399999999999</v>
+      </c>
+      <c r="H100" t="n">
         <v>6.698183333333333</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3913,18 +4723,21 @@
         <v>149547.7341</v>
       </c>
       <c r="G101" t="n">
+        <v>6.629199999999999</v>
+      </c>
+      <c r="H101" t="n">
         <v>6.697466666666666</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3948,18 +4761,21 @@
         <v>6203.9976</v>
       </c>
       <c r="G102" t="n">
+        <v>6.618133333333333</v>
+      </c>
+      <c r="H102" t="n">
         <v>6.696799999999999</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3983,18 +4799,21 @@
         <v>26077.3953</v>
       </c>
       <c r="G103" t="n">
+        <v>6.605399999999999</v>
+      </c>
+      <c r="H103" t="n">
         <v>6.696149999999998</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4018,18 +4837,21 @@
         <v>41994.7746</v>
       </c>
       <c r="G104" t="n">
+        <v>6.593466666666666</v>
+      </c>
+      <c r="H104" t="n">
         <v>6.695983333333332</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4053,18 +4875,21 @@
         <v>150000</v>
       </c>
       <c r="G105" t="n">
+        <v>6.585466666666665</v>
+      </c>
+      <c r="H105" t="n">
         <v>6.695649999999998</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4088,18 +4913,21 @@
         <v>177002.3397</v>
       </c>
       <c r="G106" t="n">
+        <v>6.577466666666665</v>
+      </c>
+      <c r="H106" t="n">
         <v>6.695316666666664</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4123,18 +4951,21 @@
         <v>237006.7679</v>
       </c>
       <c r="G107" t="n">
+        <v>6.574466666666665</v>
+      </c>
+      <c r="H107" t="n">
         <v>6.695316666666664</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4158,18 +4989,21 @@
         <v>21458.1079</v>
       </c>
       <c r="G108" t="n">
+        <v>6.573799999999999</v>
+      </c>
+      <c r="H108" t="n">
         <v>6.695649999999997</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4193,18 +5027,21 @@
         <v>380926.6003</v>
       </c>
       <c r="G109" t="n">
+        <v>6.578866666666666</v>
+      </c>
+      <c r="H109" t="n">
         <v>6.696866666666663</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4228,18 +5065,21 @@
         <v>20020.1076</v>
       </c>
       <c r="G110" t="n">
+        <v>6.583733333333333</v>
+      </c>
+      <c r="H110" t="n">
         <v>6.69743333333333</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4263,18 +5103,21 @@
         <v>14897.2669</v>
       </c>
       <c r="G111" t="n">
+        <v>6.587866666666668</v>
+      </c>
+      <c r="H111" t="n">
         <v>6.69783333333333</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4298,18 +5141,21 @@
         <v>150000</v>
       </c>
       <c r="G112" t="n">
+        <v>6.5906</v>
+      </c>
+      <c r="H112" t="n">
         <v>6.698466666666662</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4333,18 +5179,21 @@
         <v>17335.7783</v>
       </c>
       <c r="G113" t="n">
+        <v>6.594933333333334</v>
+      </c>
+      <c r="H113" t="n">
         <v>6.698733333333329</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4368,18 +5217,21 @@
         <v>31586.3941</v>
       </c>
       <c r="G114" t="n">
+        <v>6.599266666666667</v>
+      </c>
+      <c r="H114" t="n">
         <v>6.698949999999996</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4403,18 +5255,21 @@
         <v>12931</v>
       </c>
       <c r="G115" t="n">
+        <v>6.605266666666667</v>
+      </c>
+      <c r="H115" t="n">
         <v>6.698716666666663</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4438,18 +5293,21 @@
         <v>28532.3068</v>
       </c>
       <c r="G116" t="n">
+        <v>6.606866666666667</v>
+      </c>
+      <c r="H116" t="n">
         <v>6.697733333333329</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4473,18 +5331,21 @@
         <v>71779.2591</v>
       </c>
       <c r="G117" t="n">
+        <v>6.607600000000001</v>
+      </c>
+      <c r="H117" t="n">
         <v>6.69643333333333</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4508,18 +5369,21 @@
         <v>113202.2541</v>
       </c>
       <c r="G118" t="n">
+        <v>6.608466666666668</v>
+      </c>
+      <c r="H118" t="n">
         <v>6.695166666666664</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4543,18 +5407,21 @@
         <v>8182.4652</v>
       </c>
       <c r="G119" t="n">
+        <v>6.609133333333334</v>
+      </c>
+      <c r="H119" t="n">
         <v>6.693866666666663</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4578,18 +5445,21 @@
         <v>4624.8716</v>
       </c>
       <c r="G120" t="n">
+        <v>6.609800000000002</v>
+      </c>
+      <c r="H120" t="n">
         <v>6.692566666666663</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4613,18 +5483,21 @@
         <v>68510</v>
       </c>
       <c r="G121" t="n">
+        <v>6.613800000000001</v>
+      </c>
+      <c r="H121" t="n">
         <v>6.692149999999995</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4648,18 +5521,21 @@
         <v>588.644</v>
       </c>
       <c r="G122" t="n">
+        <v>6.618800000000002</v>
+      </c>
+      <c r="H122" t="n">
         <v>6.691966666666661</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4683,18 +5559,21 @@
         <v>47979.8716</v>
       </c>
       <c r="G123" t="n">
+        <v>6.623133333333334</v>
+      </c>
+      <c r="H123" t="n">
         <v>6.691216666666661</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4718,18 +5597,21 @@
         <v>9468.134599999999</v>
       </c>
       <c r="G124" t="n">
+        <v>6.623466666666668</v>
+      </c>
+      <c r="H124" t="n">
         <v>6.690066666666662</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4753,18 +5635,21 @@
         <v>3045332.5565</v>
       </c>
       <c r="G125" t="n">
+        <v>6.621133333333334</v>
+      </c>
+      <c r="H125" t="n">
         <v>6.688249999999996</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4788,18 +5673,21 @@
         <v>17130</v>
       </c>
       <c r="G126" t="n">
+        <v>6.622</v>
+      </c>
+      <c r="H126" t="n">
         <v>6.687333333333329</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4823,18 +5711,21 @@
         <v>34218.6211</v>
       </c>
       <c r="G127" t="n">
+        <v>6.621933333333334</v>
+      </c>
+      <c r="H127" t="n">
         <v>6.686199999999996</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4858,18 +5749,21 @@
         <v>17732.4312</v>
       </c>
       <c r="G128" t="n">
+        <v>6.621600000000001</v>
+      </c>
+      <c r="H128" t="n">
         <v>6.684566666666663</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4893,18 +5787,21 @@
         <v>107602.637</v>
       </c>
       <c r="G129" t="n">
+        <v>6.622800000000001</v>
+      </c>
+      <c r="H129" t="n">
         <v>6.68313333333333</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4928,18 +5825,21 @@
         <v>93510.2303</v>
       </c>
       <c r="G130" t="n">
+        <v>6.621933333333334</v>
+      </c>
+      <c r="H130" t="n">
         <v>6.680766666666663</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4963,18 +5863,21 @@
         <v>12699.6087</v>
       </c>
       <c r="G131" t="n">
+        <v>6.623866666666667</v>
+      </c>
+      <c r="H131" t="n">
         <v>6.678016666666663</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4998,18 +5901,21 @@
         <v>19797.7689</v>
       </c>
       <c r="G132" t="n">
+        <v>6.628066666666667</v>
+      </c>
+      <c r="H132" t="n">
         <v>6.675583333333329</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5033,18 +5939,21 @@
         <v>213644.5947</v>
       </c>
       <c r="G133" t="n">
+        <v>6.632133333333333</v>
+      </c>
+      <c r="H133" t="n">
         <v>6.673283333333329</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5068,18 +5977,21 @@
         <v>266167.4085</v>
       </c>
       <c r="G134" t="n">
+        <v>6.6366</v>
+      </c>
+      <c r="H134" t="n">
         <v>6.670716666666663</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5103,18 +6015,21 @@
         <v>49363.1592</v>
       </c>
       <c r="G135" t="n">
+        <v>6.641066666666665</v>
+      </c>
+      <c r="H135" t="n">
         <v>6.667366666666663</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5138,18 +6053,21 @@
         <v>277430.4314</v>
       </c>
       <c r="G136" t="n">
+        <v>6.643133333333333</v>
+      </c>
+      <c r="H136" t="n">
         <v>6.663733333333329</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5173,18 +6091,21 @@
         <v>202614.7473</v>
       </c>
       <c r="G137" t="n">
+        <v>6.647333333333333</v>
+      </c>
+      <c r="H137" t="n">
         <v>6.661216666666663</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5208,18 +6129,21 @@
         <v>165843.7621</v>
       </c>
       <c r="G138" t="n">
+        <v>6.650333333333333</v>
+      </c>
+      <c r="H138" t="n">
         <v>6.659566666666663</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5243,18 +6167,21 @@
         <v>534.0071</v>
       </c>
       <c r="G139" t="n">
+        <v>6.653866666666667</v>
+      </c>
+      <c r="H139" t="n">
         <v>6.65648333333333</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5278,18 +6205,21 @@
         <v>33145.9242</v>
       </c>
       <c r="G140" t="n">
+        <v>6.660933333333333</v>
+      </c>
+      <c r="H140" t="n">
         <v>6.65328333333333</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5313,18 +6243,21 @@
         <v>417451.9999</v>
       </c>
       <c r="G141" t="n">
+        <v>6.663666666666667</v>
+      </c>
+      <c r="H141" t="n">
         <v>6.64903333333333</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5348,18 +6281,21 @@
         <v>34775.6006</v>
       </c>
       <c r="G142" t="n">
+        <v>6.667266666666666</v>
+      </c>
+      <c r="H142" t="n">
         <v>6.645466666666663</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5383,18 +6319,21 @@
         <v>102814</v>
       </c>
       <c r="G143" t="n">
+        <v>6.669866666666666</v>
+      </c>
+      <c r="H143" t="n">
         <v>6.64283333333333</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5418,18 +6357,21 @@
         <v>96455.81</v>
       </c>
       <c r="G144" t="n">
+        <v>6.6708</v>
+      </c>
+      <c r="H144" t="n">
         <v>6.640016666666664</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5453,18 +6395,21 @@
         <v>343217.6006</v>
       </c>
       <c r="G145" t="n">
+        <v>6.6726</v>
+      </c>
+      <c r="H145" t="n">
         <v>6.636799999999996</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5488,18 +6433,21 @@
         <v>111597.5762</v>
       </c>
       <c r="G146" t="n">
+        <v>6.6744</v>
+      </c>
+      <c r="H146" t="n">
         <v>6.63358333333333</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5523,18 +6471,21 @@
         <v>2069.799</v>
       </c>
       <c r="G147" t="n">
+        <v>6.672066666666667</v>
+      </c>
+      <c r="H147" t="n">
         <v>6.631466666666664</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5558,18 +6509,21 @@
         <v>9920.662200000001</v>
       </c>
       <c r="G148" t="n">
+        <v>6.668200000000001</v>
+      </c>
+      <c r="H148" t="n">
         <v>6.628549999999996</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5593,18 +6547,21 @@
         <v>167445.3417</v>
       </c>
       <c r="G149" t="n">
+        <v>6.663733333333335</v>
+      </c>
+      <c r="H149" t="n">
         <v>6.625733333333329</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5628,18 +6585,21 @@
         <v>241047.9999</v>
       </c>
       <c r="G150" t="n">
+        <v>6.659266666666668</v>
+      </c>
+      <c r="H150" t="n">
         <v>6.623899999999995</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5663,18 +6623,21 @@
         <v>25441.3585</v>
       </c>
       <c r="G151" t="n">
+        <v>6.653866666666668</v>
+      </c>
+      <c r="H151" t="n">
         <v>6.622066666666663</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5698,18 +6661,21 @@
         <v>72882.06170000001</v>
       </c>
       <c r="G152" t="n">
+        <v>6.645333333333335</v>
+      </c>
+      <c r="H152" t="n">
         <v>6.621483333333329</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5733,18 +6699,21 @@
         <v>374</v>
       </c>
       <c r="G153" t="n">
+        <v>6.640533333333335</v>
+      </c>
+      <c r="H153" t="n">
         <v>6.621949999999995</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5768,18 +6737,21 @@
         <v>7687.5319</v>
       </c>
       <c r="G154" t="n">
+        <v>6.636066666666668</v>
+      </c>
+      <c r="H154" t="n">
         <v>6.623066666666661</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5803,18 +6775,21 @@
         <v>5220</v>
       </c>
       <c r="G155" t="n">
+        <v>6.631466666666668</v>
+      </c>
+      <c r="H155" t="n">
         <v>6.624316666666661</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5838,18 +6813,21 @@
         <v>137527.3779</v>
       </c>
       <c r="G156" t="n">
+        <v>6.627600000000001</v>
+      </c>
+      <c r="H156" t="n">
         <v>6.625283333333328</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5873,18 +6851,21 @@
         <v>93407.1379</v>
       </c>
       <c r="G157" t="n">
+        <v>6.623733333333335</v>
+      </c>
+      <c r="H157" t="n">
         <v>6.625883333333328</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5908,18 +6889,21 @@
         <v>88619.91800000001</v>
       </c>
       <c r="G158" t="n">
+        <v>6.621533333333335</v>
+      </c>
+      <c r="H158" t="n">
         <v>6.626983333333327</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5943,18 +6927,21 @@
         <v>255929.6913357401</v>
       </c>
       <c r="G159" t="n">
+        <v>6.620200000000001</v>
+      </c>
+      <c r="H159" t="n">
         <v>6.628266666666661</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5978,18 +6965,21 @@
         <v>756975.3669</v>
       </c>
       <c r="G160" t="n">
+        <v>6.619600000000001</v>
+      </c>
+      <c r="H160" t="n">
         <v>6.629849999999994</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6013,18 +7003,21 @@
         <v>3915.6012</v>
       </c>
       <c r="G161" t="n">
+        <v>6.619066666666668</v>
+      </c>
+      <c r="H161" t="n">
         <v>6.631049999999994</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6048,18 +7041,21 @@
         <v>54060</v>
       </c>
       <c r="G162" t="n">
+        <v>6.617800000000001</v>
+      </c>
+      <c r="H162" t="n">
         <v>6.631383333333329</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6083,18 +7079,21 @@
         <v>8532.962</v>
       </c>
       <c r="G163" t="n">
+        <v>6.617400000000001</v>
+      </c>
+      <c r="H163" t="n">
         <v>6.631549999999995</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6118,18 +7117,21 @@
         <v>231771.0409</v>
       </c>
       <c r="G164" t="n">
+        <v>6.616400000000001</v>
+      </c>
+      <c r="H164" t="n">
         <v>6.631466666666662</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6153,18 +7155,21 @@
         <v>353285.2157</v>
       </c>
       <c r="G165" t="n">
+        <v>6.6154</v>
+      </c>
+      <c r="H165" t="n">
         <v>6.631383333333329</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
+      <c r="M165" t="inlineStr"/>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6188,18 +7193,21 @@
         <v>216096.527</v>
       </c>
       <c r="G166" t="n">
+        <v>6.614400000000001</v>
+      </c>
+      <c r="H166" t="n">
         <v>6.631299999999995</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6223,18 +7231,21 @@
         <v>19660</v>
       </c>
       <c r="G167" t="n">
+        <v>6.614266666666667</v>
+      </c>
+      <c r="H167" t="n">
         <v>6.631433333333329</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6258,18 +7269,21 @@
         <v>496.4217</v>
       </c>
       <c r="G168" t="n">
+        <v>6.609866666666666</v>
+      </c>
+      <c r="H168" t="n">
         <v>6.630966666666663</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
+      <c r="M168" t="inlineStr"/>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6293,18 +7307,21 @@
         <v>34260</v>
       </c>
       <c r="G169" t="n">
+        <v>6.606066666666666</v>
+      </c>
+      <c r="H169" t="n">
         <v>6.629866666666663</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
+      <c r="M169" t="inlineStr"/>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6328,18 +7345,21 @@
         <v>7780</v>
       </c>
       <c r="G170" t="n">
+        <v>6.601599999999999</v>
+      </c>
+      <c r="H170" t="n">
         <v>6.62878333333333</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6363,18 +7383,21 @@
         <v>7780</v>
       </c>
       <c r="G171" t="n">
+        <v>6.597799999999999</v>
+      </c>
+      <c r="H171" t="n">
         <v>6.627766666666663</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
+      <c r="M171" t="inlineStr"/>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6398,18 +7421,21 @@
         <v>5000</v>
       </c>
       <c r="G172" t="n">
+        <v>6.591266666666666</v>
+      </c>
+      <c r="H172" t="n">
         <v>6.626049999999997</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
+      <c r="M172" t="inlineStr"/>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6433,18 +7459,21 @@
         <v>37236.7161</v>
       </c>
       <c r="G173" t="n">
+        <v>6.584133333333332</v>
+      </c>
+      <c r="H173" t="n">
         <v>6.624283333333329</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
+      <c r="M173" t="inlineStr"/>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6468,18 +7497,21 @@
         <v>3017.5965</v>
       </c>
       <c r="G174" t="n">
+        <v>6.576333333333333</v>
+      </c>
+      <c r="H174" t="n">
         <v>6.622533333333329</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
+      <c r="M174" t="inlineStr"/>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6503,18 +7535,21 @@
         <v>7314.9168</v>
       </c>
       <c r="G175" t="n">
+        <v>6.567333333333334</v>
+      </c>
+      <c r="H175" t="n">
         <v>6.620366666666663</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
       <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
+      <c r="M175" t="inlineStr"/>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6538,18 +7573,21 @@
         <v>93733.4215</v>
       </c>
       <c r="G176" t="n">
+        <v>6.559933333333333</v>
+      </c>
+      <c r="H176" t="n">
         <v>6.619316666666663</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
       <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
+      <c r="M176" t="inlineStr"/>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6573,18 +7611,21 @@
         <v>616449.0095</v>
       </c>
       <c r="G177" t="n">
+        <v>6.553266666666667</v>
+      </c>
+      <c r="H177" t="n">
         <v>6.617799999999996</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
       <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
+      <c r="M177" t="inlineStr"/>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6608,18 +7649,21 @@
         <v>28568.2678</v>
       </c>
       <c r="G178" t="n">
+        <v>6.551933333333333</v>
+      </c>
+      <c r="H178" t="n">
         <v>6.617416666666662</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
       <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
+      <c r="M178" t="inlineStr"/>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6643,18 +7687,21 @@
         <v>122784</v>
       </c>
       <c r="G179" t="n">
+        <v>6.5514</v>
+      </c>
+      <c r="H179" t="n">
         <v>6.617033333333329</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
       <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
+      <c r="M179" t="inlineStr"/>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6678,18 +7725,21 @@
         <v>140.2538</v>
       </c>
       <c r="G180" t="n">
+        <v>6.5498</v>
+      </c>
+      <c r="H180" t="n">
         <v>6.61638333333333</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
+      <c r="M180" t="inlineStr"/>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6713,18 +7763,21 @@
         <v>30623.1817</v>
       </c>
       <c r="G181" t="n">
+        <v>6.545533333333333</v>
+      </c>
+      <c r="H181" t="n">
         <v>6.61423333333333</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
       <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
+      <c r="M181" t="inlineStr"/>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6748,18 +7801,21 @@
         <v>332542.7925</v>
       </c>
       <c r="G182" t="n">
+        <v>6.536333333333333</v>
+      </c>
+      <c r="H182" t="n">
         <v>6.610816666666664</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
       <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6783,18 +7839,21 @@
         <v>16965.8799</v>
       </c>
       <c r="G183" t="n">
+        <v>6.528866666666667</v>
+      </c>
+      <c r="H183" t="n">
         <v>6.607399999999997</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
+      <c r="M183" t="inlineStr"/>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6818,18 +7877,21 @@
         <v>17202.3188</v>
       </c>
       <c r="G184" t="n">
+        <v>6.521533333333334</v>
+      </c>
+      <c r="H184" t="n">
         <v>6.60438333333333</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
+      <c r="M184" t="inlineStr"/>
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6853,22 +7915,25 @@
         <v>7928.9982</v>
       </c>
       <c r="G185" t="n">
+        <v>6.514133333333334</v>
+      </c>
+      <c r="H185" t="n">
         <v>6.602033333333329</v>
       </c>
-      <c r="H185" t="n">
-        <v>1</v>
-      </c>
       <c r="I185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J185" t="n">
-        <v>6.45</v>
+        <v>0</v>
       </c>
       <c r="K185" t="n">
         <v>6.45</v>
       </c>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
+      <c r="L185" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6892,26 +7957,29 @@
         <v>700.0001999999999</v>
       </c>
       <c r="G186" t="n">
+        <v>6.504733333333335</v>
+      </c>
+      <c r="H186" t="n">
         <v>6.598449999999997</v>
       </c>
-      <c r="H186" t="n">
-        <v>1</v>
-      </c>
       <c r="I186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J186" t="n">
-        <v>6.45</v>
+        <v>0</v>
       </c>
       <c r="K186" t="n">
         <v>6.45</v>
       </c>
-      <c r="L186" t="inlineStr">
+      <c r="L186" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="M186" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M186" t="n">
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6935,26 +8003,29 @@
         <v>2911937.3722</v>
       </c>
       <c r="G187" t="n">
+        <v>6.499200000000002</v>
+      </c>
+      <c r="H187" t="n">
         <v>6.595366666666663</v>
       </c>
-      <c r="H187" t="n">
-        <v>1</v>
-      </c>
       <c r="I187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J187" t="n">
+        <v>0</v>
+      </c>
+      <c r="K187" t="n">
         <v>6.43</v>
       </c>
-      <c r="K187" t="n">
+      <c r="L187" t="n">
         <v>6.45</v>
       </c>
-      <c r="L187" t="inlineStr">
+      <c r="M187" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M187" t="n">
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6978,24 +8049,27 @@
         <v>7314.9168</v>
       </c>
       <c r="G188" t="n">
+        <v>6.491200000000002</v>
+      </c>
+      <c r="H188" t="n">
         <v>6.591683333333331</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="n">
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="n">
         <v>6.45</v>
       </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
+      <c r="M188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7019,24 +8093,27 @@
         <v>86.43210000000001</v>
       </c>
       <c r="G189" t="n">
+        <v>6.481800000000002</v>
+      </c>
+      <c r="H189" t="n">
         <v>6.587283333333331</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="n">
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="n">
         <v>6.45</v>
       </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
+      <c r="M189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7060,24 +8137,27 @@
         <v>364736.9216</v>
       </c>
       <c r="G190" t="n">
+        <v>6.474266666666668</v>
+      </c>
+      <c r="H190" t="n">
         <v>6.583449999999997</v>
       </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="n">
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="n">
         <v>6.45</v>
       </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
+      <c r="M190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7101,24 +8181,27 @@
         <v>19749.9653</v>
       </c>
       <c r="G191" t="n">
+        <v>6.467266666666669</v>
+      </c>
+      <c r="H191" t="n">
         <v>6.580166666666664</v>
       </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="n">
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="n">
         <v>6.45</v>
       </c>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
+      <c r="M191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7142,24 +8225,29 @@
         <v>18210</v>
       </c>
       <c r="G192" t="n">
+        <v>6.462666666666668</v>
+      </c>
+      <c r="H192" t="n">
         <v>6.576449999999997</v>
       </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
       <c r="I192" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
       <c r="K192" t="n">
+        <v>6.433</v>
+      </c>
+      <c r="L192" t="n">
         <v>6.45</v>
       </c>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M192" t="n">
+      <c r="M192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7183,26 +8271,29 @@
         <v>25735.055</v>
       </c>
       <c r="G193" t="n">
+        <v>6.454266666666668</v>
+      </c>
+      <c r="H193" t="n">
         <v>6.572949999999997</v>
       </c>
-      <c r="H193" t="n">
-        <v>1</v>
-      </c>
       <c r="I193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J193" t="n">
+        <v>0</v>
+      </c>
+      <c r="K193" t="n">
         <v>6.431</v>
       </c>
-      <c r="K193" t="n">
+      <c r="L193" t="n">
         <v>6.45</v>
       </c>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M193" t="n">
+      <c r="M193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7226,26 +8317,29 @@
         <v>15269.9999</v>
       </c>
       <c r="G194" t="n">
+        <v>6.446733333333335</v>
+      </c>
+      <c r="H194" t="n">
         <v>6.569566666666664</v>
       </c>
-      <c r="H194" t="n">
-        <v>1</v>
-      </c>
       <c r="I194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J194" t="n">
+        <v>0</v>
+      </c>
+      <c r="K194" t="n">
         <v>6.444</v>
       </c>
-      <c r="K194" t="n">
+      <c r="L194" t="n">
         <v>6.45</v>
       </c>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M194" t="n">
+      <c r="M194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7269,24 +8363,29 @@
         <v>15280</v>
       </c>
       <c r="G195" t="n">
+        <v>6.440400000000001</v>
+      </c>
+      <c r="H195" t="n">
         <v>6.566216666666665</v>
       </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
       <c r="I195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J195" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
       <c r="K195" t="n">
+        <v>6.454</v>
+      </c>
+      <c r="L195" t="n">
         <v>6.45</v>
       </c>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M195" t="n">
+      <c r="M195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7310,24 +8409,29 @@
         <v>16676</v>
       </c>
       <c r="G196" t="n">
+        <v>6.438866666666669</v>
+      </c>
+      <c r="H196" t="n">
         <v>6.563166666666665</v>
       </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
       <c r="I196" t="n">
-        <v>0</v>
-      </c>
-      <c r="J196" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
       <c r="K196" t="n">
+        <v>6.456</v>
+      </c>
+      <c r="L196" t="n">
         <v>6.45</v>
       </c>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M196" t="n">
+      <c r="M196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7351,24 +8455,29 @@
         <v>62393.6213</v>
       </c>
       <c r="G197" t="n">
+        <v>6.441333333333334</v>
+      </c>
+      <c r="H197" t="n">
         <v>6.559316666666665</v>
       </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
       <c r="I197" t="n">
-        <v>0</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
       <c r="K197" t="n">
+        <v>6.488</v>
+      </c>
+      <c r="L197" t="n">
         <v>6.45</v>
       </c>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M197" t="n">
+      <c r="M197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7392,24 +8501,27 @@
         <v>241737.2435</v>
       </c>
       <c r="G198" t="n">
+        <v>6.442666666666668</v>
+      </c>
+      <c r="H198" t="n">
         <v>6.555483333333332</v>
       </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="n">
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="n">
         <v>6.45</v>
       </c>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M198" t="n">
+      <c r="M198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7433,24 +8545,27 @@
         <v>937.9422</v>
       </c>
       <c r="G199" t="n">
+        <v>6.444466666666668</v>
+      </c>
+      <c r="H199" t="n">
         <v>6.552033333333331</v>
       </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="n">
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="n">
         <v>6.45</v>
       </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M199" t="n">
+      <c r="M199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7474,24 +8589,27 @@
         <v>24464.9623</v>
       </c>
       <c r="G200" t="n">
+        <v>6.443133333333334</v>
+      </c>
+      <c r="H200" t="n">
         <v>6.547583333333332</v>
       </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="n">
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="n">
         <v>6.45</v>
       </c>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M200" t="n">
+      <c r="M200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N200" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7515,26 +8633,27 @@
         <v>26249.2298</v>
       </c>
       <c r="G201" t="n">
+        <v>6.442600000000001</v>
+      </c>
+      <c r="H201" t="n">
         <v>6.543183333333332</v>
       </c>
-      <c r="H201" t="n">
-        <v>1</v>
-      </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
       <c r="J201" t="n">
-        <v>6.43</v>
-      </c>
-      <c r="K201" t="n">
+        <v>0</v>
+      </c>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="n">
         <v>6.45</v>
       </c>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M201" t="n">
+      <c r="M201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7558,26 +8677,27 @@
         <v>4530</v>
       </c>
       <c r="G202" t="n">
+        <v>6.444066666666667</v>
+      </c>
+      <c r="H202" t="n">
         <v>6.539566666666667</v>
       </c>
-      <c r="H202" t="n">
-        <v>1</v>
-      </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
       <c r="J202" t="n">
-        <v>6.422</v>
-      </c>
-      <c r="K202" t="n">
+        <v>0</v>
+      </c>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="n">
         <v>6.45</v>
       </c>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M202" t="n">
+      <c r="M202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N202" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7601,24 +8721,29 @@
         <v>375.1991</v>
       </c>
       <c r="G203" t="n">
+        <v>6.442800000000001</v>
+      </c>
+      <c r="H203" t="n">
         <v>6.534916666666666</v>
       </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
       <c r="I203" t="n">
-        <v>0</v>
-      </c>
-      <c r="J203" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
       <c r="K203" t="n">
+        <v>6.469</v>
+      </c>
+      <c r="L203" t="n">
         <v>6.45</v>
       </c>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M203" t="n">
+      <c r="M203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N203" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7642,26 +8767,27 @@
         <v>63942.2702</v>
       </c>
       <c r="G204" t="n">
+        <v>6.442800000000001</v>
+      </c>
+      <c r="H204" t="n">
         <v>6.530283333333332</v>
       </c>
-      <c r="H204" t="n">
-        <v>1</v>
-      </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
       <c r="J204" t="n">
-        <v>6.391</v>
-      </c>
-      <c r="K204" t="n">
+        <v>0</v>
+      </c>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="n">
         <v>6.45</v>
       </c>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M204" t="n">
+      <c r="M204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N204" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7685,26 +8811,27 @@
         <v>17130</v>
       </c>
       <c r="G205" t="n">
+        <v>6.443533333333334</v>
+      </c>
+      <c r="H205" t="n">
         <v>6.526183333333333</v>
       </c>
-      <c r="H205" t="n">
-        <v>1</v>
-      </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
       <c r="J205" t="n">
-        <v>6.39</v>
-      </c>
-      <c r="K205" t="n">
+        <v>0</v>
+      </c>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="n">
         <v>6.45</v>
       </c>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M205" t="n">
+      <c r="M205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N205" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7728,26 +8855,27 @@
         <v>66209.9999</v>
       </c>
       <c r="G206" t="n">
+        <v>6.441533333333335</v>
+      </c>
+      <c r="H206" t="n">
         <v>6.52195</v>
       </c>
-      <c r="H206" t="n">
-        <v>1</v>
-      </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
       <c r="J206" t="n">
-        <v>6.411</v>
-      </c>
-      <c r="K206" t="n">
+        <v>0</v>
+      </c>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="n">
         <v>6.45</v>
       </c>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M206" t="n">
+      <c r="M206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N206" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7771,26 +8899,27 @@
         <v>5419.9999</v>
       </c>
       <c r="G207" t="n">
+        <v>6.440800000000001</v>
+      </c>
+      <c r="H207" t="n">
         <v>6.518633333333335</v>
       </c>
-      <c r="H207" t="n">
-        <v>1</v>
-      </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
       <c r="J207" t="n">
-        <v>6.403</v>
-      </c>
-      <c r="K207" t="n">
+        <v>0</v>
+      </c>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="n">
         <v>6.45</v>
       </c>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M207" t="n">
+      <c r="M207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N207" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7814,26 +8943,27 @@
         <v>221178.4231</v>
       </c>
       <c r="G208" t="n">
+        <v>6.439200000000001</v>
+      </c>
+      <c r="H208" t="n">
         <v>6.515700000000001</v>
       </c>
-      <c r="H208" t="n">
-        <v>1</v>
-      </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
       <c r="J208" t="n">
-        <v>6.42</v>
-      </c>
-      <c r="K208" t="n">
+        <v>0</v>
+      </c>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="n">
         <v>6.45</v>
       </c>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M208" t="n">
+      <c r="M208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N208" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7857,26 +8987,27 @@
         <v>13907.8717</v>
       </c>
       <c r="G209" t="n">
+        <v>6.436933333333335</v>
+      </c>
+      <c r="H209" t="n">
         <v>6.512866666666668</v>
       </c>
-      <c r="H209" t="n">
-        <v>1</v>
-      </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
       <c r="J209" t="n">
-        <v>6.42</v>
-      </c>
-      <c r="K209" t="n">
+        <v>0</v>
+      </c>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="n">
         <v>6.45</v>
       </c>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M209" t="n">
+      <c r="M209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N209" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7900,26 +9031,27 @@
         <v>12810.3132</v>
       </c>
       <c r="G210" t="n">
+        <v>6.434533333333335</v>
+      </c>
+      <c r="H210" t="n">
         <v>6.510033333333336</v>
       </c>
-      <c r="H210" t="n">
-        <v>1</v>
-      </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
       <c r="J210" t="n">
-        <v>6.42</v>
-      </c>
-      <c r="K210" t="n">
+        <v>0</v>
+      </c>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="n">
         <v>6.45</v>
       </c>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M210" t="n">
+      <c r="M210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N210" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7943,26 +9075,27 @@
         <v>4137729.2424</v>
       </c>
       <c r="G211" t="n">
+        <v>6.433933333333335</v>
+      </c>
+      <c r="H211" t="n">
         <v>6.508183333333336</v>
       </c>
-      <c r="H211" t="n">
-        <v>1</v>
-      </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
       <c r="J211" t="n">
-        <v>6.42</v>
-      </c>
-      <c r="K211" t="n">
+        <v>0</v>
+      </c>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="n">
         <v>6.45</v>
       </c>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M211" t="n">
+      <c r="M211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N211" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7986,24 +9119,27 @@
         <v>203985.2233</v>
       </c>
       <c r="G212" t="n">
+        <v>6.434133333333335</v>
+      </c>
+      <c r="H212" t="n">
         <v>6.50651666666667</v>
       </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="n">
+      <c r="J212" t="n">
+        <v>0</v>
+      </c>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="n">
         <v>6.45</v>
       </c>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M212" t="n">
+      <c r="M212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N212" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8027,24 +9163,27 @@
         <v>168.6466</v>
       </c>
       <c r="G213" t="n">
+        <v>6.434466666666668</v>
+      </c>
+      <c r="H213" t="n">
         <v>6.50396666666667</v>
       </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="n">
+      <c r="J213" t="n">
+        <v>0</v>
+      </c>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="n">
         <v>6.45</v>
       </c>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M213" t="n">
+      <c r="M213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N213" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8068,24 +9207,27 @@
         <v>94321.99340000001</v>
       </c>
       <c r="G214" t="n">
+        <v>6.436000000000002</v>
+      </c>
+      <c r="H214" t="n">
         <v>6.502016666666671</v>
       </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="n">
+      <c r="J214" t="n">
+        <v>0</v>
+      </c>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="n">
         <v>6.45</v>
       </c>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M214" t="n">
+      <c r="M214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N214" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8109,24 +9251,27 @@
         <v>39613.066</v>
       </c>
       <c r="G215" t="n">
+        <v>6.439333333333336</v>
+      </c>
+      <c r="H215" t="n">
         <v>6.499550000000004</v>
       </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="n">
+      <c r="J215" t="n">
+        <v>0</v>
+      </c>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="n">
         <v>6.45</v>
       </c>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M215" t="n">
+      <c r="M215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N215" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8150,24 +9295,27 @@
         <v>4392.6673</v>
       </c>
       <c r="G216" t="n">
+        <v>6.443866666666668</v>
+      </c>
+      <c r="H216" t="n">
         <v>6.497250000000005</v>
       </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="n">
+      <c r="J216" t="n">
+        <v>0</v>
+      </c>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="n">
         <v>6.45</v>
       </c>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M216" t="n">
+      <c r="M216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N216" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8191,24 +9339,27 @@
         <v>19088.8469</v>
       </c>
       <c r="G217" t="n">
+        <v>6.445333333333336</v>
+      </c>
+      <c r="H217" t="n">
         <v>6.494966666666671</v>
       </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="n">
+      <c r="J217" t="n">
+        <v>0</v>
+      </c>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="n">
         <v>6.45</v>
       </c>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M217" t="n">
+      <c r="M217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N217" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8232,24 +9383,27 @@
         <v>3896.1535</v>
       </c>
       <c r="G218" t="n">
+        <v>6.452000000000002</v>
+      </c>
+      <c r="H218" t="n">
         <v>6.492533333333338</v>
       </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="n">
+      <c r="J218" t="n">
+        <v>0</v>
+      </c>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="n">
         <v>6.45</v>
       </c>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M218" t="n">
+      <c r="M218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N218" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8273,24 +9427,27 @@
         <v>182.3346</v>
       </c>
       <c r="G219" t="n">
+        <v>6.458133333333335</v>
+      </c>
+      <c r="H219" t="n">
         <v>6.489766666666671</v>
       </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="n">
+      <c r="J219" t="n">
+        <v>0</v>
+      </c>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="n">
         <v>6.45</v>
       </c>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M219" t="n">
+      <c r="M219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N219" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8314,24 +9471,27 @@
         <v>730.1075268817204</v>
       </c>
       <c r="G220" t="n">
+        <v>6.464733333333336</v>
+      </c>
+      <c r="H220" t="n">
         <v>6.487466666666671</v>
       </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="n">
+      <c r="J220" t="n">
+        <v>0</v>
+      </c>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="n">
         <v>6.45</v>
       </c>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M220" t="n">
+      <c r="M220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N220" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8355,24 +9515,27 @@
         <v>490</v>
       </c>
       <c r="G221" t="n">
+        <v>6.472533333333335</v>
+      </c>
+      <c r="H221" t="n">
         <v>6.48531666666667</v>
       </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="n">
+      <c r="J221" t="n">
+        <v>0</v>
+      </c>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="n">
         <v>6.45</v>
       </c>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M221" t="n">
+      <c r="M221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N221" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8396,24 +9559,27 @@
         <v>1108.5592</v>
       </c>
       <c r="G222" t="n">
+        <v>6.479200000000001</v>
+      </c>
+      <c r="H222" t="n">
         <v>6.483983333333336</v>
       </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="n">
+      <c r="J222" t="n">
+        <v>0</v>
+      </c>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="n">
         <v>6.45</v>
       </c>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M222" t="n">
+      <c r="M222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N222" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8437,24 +9603,27 @@
         <v>6954</v>
       </c>
       <c r="G223" t="n">
+        <v>6.486000000000002</v>
+      </c>
+      <c r="H223" t="n">
         <v>6.482850000000003</v>
       </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
       <c r="I223" t="n">
         <v>0</v>
       </c>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="n">
+      <c r="J223" t="n">
+        <v>0</v>
+      </c>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="n">
         <v>6.45</v>
       </c>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M223" t="n">
+      <c r="M223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N223" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8478,24 +9647,27 @@
         <v>2770.0625</v>
       </c>
       <c r="G224" t="n">
+        <v>6.492933333333335</v>
+      </c>
+      <c r="H224" t="n">
         <v>6.482000000000003</v>
       </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
       <c r="I224" t="n">
         <v>0</v>
       </c>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="n">
+      <c r="J224" t="n">
+        <v>0</v>
+      </c>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="n">
         <v>6.45</v>
       </c>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M224" t="n">
+      <c r="M224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N224" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8519,24 +9691,27 @@
         <v>29359.8892</v>
       </c>
       <c r="G225" t="n">
+        <v>6.499733333333335</v>
+      </c>
+      <c r="H225" t="n">
         <v>6.48111666666667</v>
       </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
       <c r="I225" t="n">
         <v>0</v>
       </c>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="n">
+      <c r="J225" t="n">
+        <v>0</v>
+      </c>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="n">
         <v>6.45</v>
       </c>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M225" t="n">
+      <c r="M225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N225" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8560,24 +9735,27 @@
         <v>500</v>
       </c>
       <c r="G226" t="n">
+        <v>6.502533333333335</v>
+      </c>
+      <c r="H226" t="n">
         <v>6.48021666666667</v>
       </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
       <c r="I226" t="n">
         <v>0</v>
       </c>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="n">
+      <c r="J226" t="n">
+        <v>0</v>
+      </c>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="n">
         <v>6.45</v>
       </c>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M226" t="n">
+      <c r="M226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N226" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8601,24 +9779,27 @@
         <v>13000</v>
       </c>
       <c r="G227" t="n">
+        <v>6.503866666666669</v>
+      </c>
+      <c r="H227" t="n">
         <v>6.478916666666669</v>
       </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
       <c r="I227" t="n">
         <v>0</v>
       </c>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="n">
+      <c r="J227" t="n">
+        <v>0</v>
+      </c>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="n">
         <v>6.45</v>
       </c>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M227" t="n">
+      <c r="M227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N227" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8642,24 +9823,27 @@
         <v>38529</v>
       </c>
       <c r="G228" t="n">
+        <v>6.509533333333336</v>
+      </c>
+      <c r="H228" t="n">
         <v>6.478883333333337</v>
       </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="n">
+      <c r="J228" t="n">
+        <v>0</v>
+      </c>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="n">
         <v>6.45</v>
       </c>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M228" t="n">
+      <c r="M228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N228" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8683,24 +9867,27 @@
         <v>91865.21739999999</v>
       </c>
       <c r="G229" t="n">
+        <v>6.513133333333337</v>
+      </c>
+      <c r="H229" t="n">
         <v>6.478783333333336</v>
       </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
       <c r="I229" t="n">
         <v>0</v>
       </c>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="n">
+      <c r="J229" t="n">
+        <v>0</v>
+      </c>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="n">
         <v>6.45</v>
       </c>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M229" t="n">
+      <c r="M229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N229" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8724,24 +9911,27 @@
         <v>5546.8564</v>
       </c>
       <c r="G230" t="n">
+        <v>6.518000000000002</v>
+      </c>
+      <c r="H230" t="n">
         <v>6.478650000000003</v>
       </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
       <c r="I230" t="n">
         <v>0</v>
       </c>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="n">
+      <c r="J230" t="n">
+        <v>0</v>
+      </c>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="n">
         <v>6.45</v>
       </c>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M230" t="n">
+      <c r="M230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N230" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8765,24 +9955,27 @@
         <v>77</v>
       </c>
       <c r="G231" t="n">
+        <v>6.522800000000003</v>
+      </c>
+      <c r="H231" t="n">
         <v>6.478500000000002</v>
       </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
       <c r="I231" t="n">
         <v>0</v>
       </c>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="n">
+      <c r="J231" t="n">
+        <v>0</v>
+      </c>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="n">
         <v>6.45</v>
       </c>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M231" t="n">
+      <c r="M231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N231" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8806,24 +9999,27 @@
         <v>239999.9999</v>
       </c>
       <c r="G232" t="n">
+        <v>6.530066666666669</v>
+      </c>
+      <c r="H232" t="n">
         <v>6.47966666666667</v>
       </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
       <c r="I232" t="n">
         <v>0</v>
       </c>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="n">
+      <c r="J232" t="n">
+        <v>0</v>
+      </c>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="n">
         <v>6.45</v>
       </c>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M232" t="n">
+      <c r="M232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N232" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8847,24 +10043,27 @@
         <v>97728.1685</v>
       </c>
       <c r="G233" t="n">
+        <v>6.538933333333335</v>
+      </c>
+      <c r="H233" t="n">
         <v>6.481233333333337</v>
       </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
       <c r="I233" t="n">
         <v>0</v>
       </c>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="n">
+      <c r="J233" t="n">
+        <v>0</v>
+      </c>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="n">
         <v>6.45</v>
       </c>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M233" t="n">
+      <c r="M233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N233" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8888,24 +10087,27 @@
         <v>1545.3049</v>
       </c>
       <c r="G234" t="n">
+        <v>6.548400000000002</v>
+      </c>
+      <c r="H234" t="n">
         <v>6.482783333333338</v>
       </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
       <c r="I234" t="n">
         <v>0</v>
       </c>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="n">
+      <c r="J234" t="n">
+        <v>0</v>
+      </c>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="n">
         <v>6.45</v>
       </c>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M234" t="n">
+      <c r="M234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N234" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8929,24 +10131,27 @@
         <v>8412.5237</v>
       </c>
       <c r="G235" t="n">
+        <v>6.556000000000001</v>
+      </c>
+      <c r="H235" t="n">
         <v>6.484633333333338</v>
       </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
       <c r="I235" t="n">
         <v>0</v>
       </c>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="n">
+      <c r="J235" t="n">
+        <v>0</v>
+      </c>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="n">
         <v>6.45</v>
       </c>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M235" t="n">
+      <c r="M235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N235" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8970,24 +10175,27 @@
         <v>57660.298</v>
       </c>
       <c r="G236" t="n">
+        <v>6.562933333333334</v>
+      </c>
+      <c r="H236" t="n">
         <v>6.486066666666672</v>
       </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
       <c r="I236" t="n">
         <v>0</v>
       </c>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="n">
+      <c r="J236" t="n">
+        <v>0</v>
+      </c>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="n">
         <v>6.45</v>
       </c>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M236" t="n">
+      <c r="M236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N236" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9011,24 +10219,27 @@
         <v>29475.6983</v>
       </c>
       <c r="G237" t="n">
+        <v>6.569866666666668</v>
+      </c>
+      <c r="H237" t="n">
         <v>6.488133333333339</v>
       </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
       <c r="I237" t="n">
         <v>0</v>
       </c>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="n">
+      <c r="J237" t="n">
+        <v>0</v>
+      </c>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="n">
         <v>6.45</v>
       </c>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M237" t="n">
+      <c r="M237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N237" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9052,24 +10263,27 @@
         <v>89962.72319999999</v>
       </c>
       <c r="G238" t="n">
+        <v>6.576666666666667</v>
+      </c>
+      <c r="H238" t="n">
         <v>6.48903333333334</v>
       </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
       <c r="I238" t="n">
         <v>0</v>
       </c>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="n">
+      <c r="J238" t="n">
+        <v>0</v>
+      </c>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="n">
         <v>6.45</v>
       </c>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M238" t="n">
+      <c r="M238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N238" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9093,24 +10307,27 @@
         <v>23273.8366</v>
       </c>
       <c r="G239" t="n">
+        <v>6.583333333333333</v>
+      </c>
+      <c r="H239" t="n">
         <v>6.48998333333334</v>
       </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
       <c r="I239" t="n">
         <v>0</v>
       </c>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="n">
+      <c r="J239" t="n">
+        <v>0</v>
+      </c>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="n">
         <v>6.45</v>
       </c>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M239" t="n">
+      <c r="M239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N239" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9134,24 +10351,27 @@
         <v>131.1994</v>
       </c>
       <c r="G240" t="n">
+        <v>6.590666666666666</v>
+      </c>
+      <c r="H240" t="n">
         <v>6.491333333333341</v>
       </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
       <c r="I240" t="n">
         <v>0</v>
       </c>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="n">
+      <c r="J240" t="n">
+        <v>0</v>
+      </c>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="n">
         <v>6.45</v>
       </c>
-      <c r="L240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M240" t="n">
+      <c r="M240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N240" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9175,24 +10395,27 @@
         <v>110236.3549</v>
       </c>
       <c r="G241" t="n">
+        <v>6.5976</v>
+      </c>
+      <c r="H241" t="n">
         <v>6.49323333333334</v>
       </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
       <c r="I241" t="n">
         <v>0</v>
       </c>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="n">
+      <c r="J241" t="n">
+        <v>0</v>
+      </c>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="n">
         <v>6.45</v>
       </c>
-      <c r="L241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M241" t="n">
+      <c r="M241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N241" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9216,24 +10439,27 @@
         <v>5130.1556</v>
       </c>
       <c r="G242" t="n">
+        <v>6.605666666666666</v>
+      </c>
+      <c r="H242" t="n">
         <v>6.496250000000006</v>
       </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
       <c r="I242" t="n">
         <v>0</v>
       </c>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="n">
+      <c r="J242" t="n">
+        <v>0</v>
+      </c>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="n">
         <v>6.45</v>
       </c>
-      <c r="L242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M242" t="n">
+      <c r="M242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N242" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9257,24 +10483,27 @@
         <v>1156.0638</v>
       </c>
       <c r="G243" t="n">
+        <v>6.610466666666666</v>
+      </c>
+      <c r="H243" t="n">
         <v>6.49928333333334</v>
       </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
       <c r="I243" t="n">
         <v>0</v>
       </c>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="n">
+      <c r="J243" t="n">
+        <v>0</v>
+      </c>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="n">
         <v>6.45</v>
       </c>
-      <c r="L243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M243" t="n">
+      <c r="M243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N243" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9298,24 +10527,27 @@
         <v>69484.51149999999</v>
       </c>
       <c r="G244" t="n">
+        <v>6.6202</v>
+      </c>
+      <c r="H244" t="n">
         <v>6.503450000000006</v>
       </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
       <c r="I244" t="n">
         <v>0</v>
       </c>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="n">
+      <c r="J244" t="n">
+        <v>0</v>
+      </c>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="n">
         <v>6.45</v>
       </c>
-      <c r="L244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M244" t="n">
+      <c r="M244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N244" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9339,24 +10571,27 @@
         <v>119573.8659</v>
       </c>
       <c r="G245" t="n">
+        <v>6.627466666666667</v>
+      </c>
+      <c r="H245" t="n">
         <v>6.50698333333334</v>
       </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
       <c r="I245" t="n">
         <v>0</v>
       </c>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="n">
+      <c r="J245" t="n">
+        <v>0</v>
+      </c>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="n">
         <v>6.45</v>
       </c>
-      <c r="L245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M245" t="n">
+      <c r="M245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N245" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9380,24 +10615,27 @@
         <v>109057.7864</v>
       </c>
       <c r="G246" t="n">
+        <v>6.634866666666667</v>
+      </c>
+      <c r="H246" t="n">
         <v>6.51103333333334</v>
       </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
       <c r="I246" t="n">
         <v>0</v>
       </c>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="n">
+      <c r="J246" t="n">
+        <v>0</v>
+      </c>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="n">
         <v>6.45</v>
       </c>
-      <c r="L246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M246" t="n">
+      <c r="M246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N246" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9421,24 +10659,27 @@
         <v>4026.2456</v>
       </c>
       <c r="G247" t="n">
+        <v>6.641333333333335</v>
+      </c>
+      <c r="H247" t="n">
         <v>6.515200000000006</v>
       </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
       <c r="I247" t="n">
         <v>0</v>
       </c>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="n">
+      <c r="J247" t="n">
+        <v>0</v>
+      </c>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="n">
         <v>6.45</v>
       </c>
-      <c r="L247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M247" t="n">
+      <c r="M247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N247" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9462,24 +10703,27 @@
         <v>53304.4497</v>
       </c>
       <c r="G248" t="n">
+        <v>6.646400000000002</v>
+      </c>
+      <c r="H248" t="n">
         <v>6.520033333333339</v>
       </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
       <c r="I248" t="n">
         <v>0</v>
       </c>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="n">
+      <c r="J248" t="n">
+        <v>0</v>
+      </c>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="n">
         <v>6.45</v>
       </c>
-      <c r="L248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M248" t="n">
+      <c r="M248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N248" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9503,24 +10747,27 @@
         <v>10581.531</v>
       </c>
       <c r="G249" t="n">
+        <v>6.649466666666669</v>
+      </c>
+      <c r="H249" t="n">
         <v>6.524700000000006</v>
       </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
       <c r="I249" t="n">
         <v>0</v>
       </c>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="n">
+      <c r="J249" t="n">
+        <v>0</v>
+      </c>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="n">
         <v>6.45</v>
       </c>
-      <c r="L249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M249" t="n">
+      <c r="M249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N249" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9544,24 +10791,27 @@
         <v>8686.182500000001</v>
       </c>
       <c r="G250" t="n">
+        <v>6.653800000000003</v>
+      </c>
+      <c r="H250" t="n">
         <v>6.529516666666674</v>
       </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
       <c r="I250" t="n">
         <v>0</v>
       </c>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="n">
+      <c r="J250" t="n">
+        <v>0</v>
+      </c>
+      <c r="K250" t="inlineStr"/>
+      <c r="L250" t="n">
         <v>6.45</v>
       </c>
-      <c r="L250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M250" t="n">
+      <c r="M250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N250" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9585,24 +10835,27 @@
         <v>161727.8926</v>
       </c>
       <c r="G251" t="n">
+        <v>6.65886666666667</v>
+      </c>
+      <c r="H251" t="n">
         <v>6.533966666666673</v>
       </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
       <c r="I251" t="n">
         <v>0</v>
       </c>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="n">
+      <c r="J251" t="n">
+        <v>0</v>
+      </c>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="n">
         <v>6.45</v>
       </c>
-      <c r="L251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M251" t="n">
+      <c r="M251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N251" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9626,24 +10879,27 @@
         <v>839.6577</v>
       </c>
       <c r="G252" t="n">
+        <v>6.663933333333337</v>
+      </c>
+      <c r="H252" t="n">
         <v>6.538450000000007</v>
       </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
       <c r="I252" t="n">
         <v>0</v>
       </c>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="n">
+      <c r="J252" t="n">
+        <v>0</v>
+      </c>
+      <c r="K252" t="inlineStr"/>
+      <c r="L252" t="n">
         <v>6.45</v>
       </c>
-      <c r="L252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M252" t="n">
+      <c r="M252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N252" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9667,24 +10923,27 @@
         <v>24569.9999</v>
       </c>
       <c r="G253" t="n">
+        <v>6.669000000000005</v>
+      </c>
+      <c r="H253" t="n">
         <v>6.542716666666673</v>
       </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
       <c r="I253" t="n">
         <v>0</v>
       </c>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="n">
+      <c r="J253" t="n">
+        <v>0</v>
+      </c>
+      <c r="K253" t="inlineStr"/>
+      <c r="L253" t="n">
         <v>6.45</v>
       </c>
-      <c r="L253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M253" t="n">
+      <c r="M253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N253" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9708,25 +10967,28 @@
         <v>6025</v>
       </c>
       <c r="G254" t="n">
+        <v>6.676533333333338</v>
+      </c>
+      <c r="H254" t="n">
         <v>6.54743333333334</v>
       </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
       <c r="I254" t="n">
-        <v>1</v>
-      </c>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="n">
+        <v>0</v>
+      </c>
+      <c r="J254" t="n">
+        <v>0</v>
+      </c>
+      <c r="K254" t="inlineStr"/>
+      <c r="L254" t="n">
         <v>6.45</v>
       </c>
-      <c r="L254" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M254" t="n">
-        <v>1.039496124031008</v>
+      <c r="M254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N254" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="255">
@@ -9749,18 +11011,27 @@
         <v>8721.5252</v>
       </c>
       <c r="G255" t="n">
+        <v>6.680266666666671</v>
+      </c>
+      <c r="H255" t="n">
         <v>6.551300000000007</v>
       </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
       <c r="I255" t="n">
-        <v>1</v>
-      </c>
-      <c r="J255" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J255" t="n">
+        <v>0</v>
+      </c>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
+      <c r="L255" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="M255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N255" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9784,18 +11055,27 @@
         <v>178648.282</v>
       </c>
       <c r="G256" t="n">
+        <v>6.684600000000004</v>
+      </c>
+      <c r="H256" t="n">
         <v>6.554666666666673</v>
       </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
       <c r="I256" t="n">
-        <v>1</v>
-      </c>
-      <c r="J256" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J256" t="n">
+        <v>0</v>
+      </c>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
+      <c r="L256" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="M256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N256" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9819,18 +11099,27 @@
         <v>12590</v>
       </c>
       <c r="G257" t="n">
+        <v>6.688000000000004</v>
+      </c>
+      <c r="H257" t="n">
         <v>6.557916666666673</v>
       </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
       <c r="I257" t="n">
         <v>0</v>
       </c>
-      <c r="J257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>0</v>
+      </c>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
-      <c r="M257" t="n">
+      <c r="L257" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="M257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N257" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9854,18 +11143,27 @@
         <v>142550.1763</v>
       </c>
       <c r="G258" t="n">
+        <v>6.691333333333337</v>
+      </c>
+      <c r="H258" t="n">
         <v>6.561450000000006</v>
       </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
       <c r="I258" t="n">
-        <v>1</v>
-      </c>
-      <c r="J258" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J258" t="n">
+        <v>0</v>
+      </c>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
-      <c r="M258" t="n">
+      <c r="L258" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="M258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N258" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9889,18 +11187,27 @@
         <v>74999.19839999999</v>
       </c>
       <c r="G259" t="n">
+        <v>6.689800000000004</v>
+      </c>
+      <c r="H259" t="n">
         <v>6.56478333333334</v>
       </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
       <c r="I259" t="n">
         <v>0</v>
       </c>
-      <c r="J259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>0</v>
+      </c>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
-      <c r="M259" t="n">
+      <c r="L259" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="M259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N259" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9924,18 +11231,27 @@
         <v>165354.5323</v>
       </c>
       <c r="G260" t="n">
+        <v>6.68906666666667</v>
+      </c>
+      <c r="H260" t="n">
         <v>6.568466666666674</v>
       </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
       <c r="I260" t="n">
         <v>0</v>
       </c>
-      <c r="J260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>0</v>
+      </c>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
-      <c r="M260" t="n">
+      <c r="L260" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="M260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N260" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9959,18 +11275,27 @@
         <v>0.0001</v>
       </c>
       <c r="G261" t="n">
+        <v>6.687600000000002</v>
+      </c>
+      <c r="H261" t="n">
         <v>6.57228333333334</v>
       </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
       <c r="I261" t="n">
         <v>0</v>
       </c>
-      <c r="J261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>0</v>
+      </c>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
-      <c r="M261" t="n">
+      <c r="L261" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="M261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N261" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9994,18 +11319,27 @@
         <v>165354.5324</v>
       </c>
       <c r="G262" t="n">
+        <v>6.685400000000002</v>
+      </c>
+      <c r="H262" t="n">
         <v>6.57553333333334</v>
       </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
       <c r="I262" t="n">
         <v>0</v>
       </c>
-      <c r="J262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>0</v>
+      </c>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
-      <c r="M262" t="n">
+      <c r="L262" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="M262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N262" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10029,18 +11363,27 @@
         <v>14893.1195</v>
       </c>
       <c r="G263" t="n">
+        <v>6.685266666666669</v>
+      </c>
+      <c r="H263" t="n">
         <v>6.580650000000006</v>
       </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
       <c r="I263" t="n">
         <v>0</v>
       </c>
-      <c r="J263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>0</v>
+      </c>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
-      <c r="M263" t="n">
+      <c r="L263" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="M263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N263" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10064,18 +11407,27 @@
         <v>5222.75</v>
       </c>
       <c r="G264" t="n">
+        <v>6.684266666666669</v>
+      </c>
+      <c r="H264" t="n">
         <v>6.585066666666672</v>
       </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
       <c r="I264" t="n">
         <v>0</v>
       </c>
-      <c r="J264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>0</v>
+      </c>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
-      <c r="M264" t="n">
+      <c r="L264" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="M264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N264" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10099,18 +11451,27 @@
         <v>271000</v>
       </c>
       <c r="G265" t="n">
+        <v>6.685866666666669</v>
+      </c>
+      <c r="H265" t="n">
         <v>6.590100000000006</v>
       </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
       <c r="I265" t="n">
         <v>0</v>
       </c>
-      <c r="J265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>0</v>
+      </c>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
-      <c r="M265" t="n">
+      <c r="L265" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="M265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N265" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10134,18 +11495,27 @@
         <v>292000</v>
       </c>
       <c r="G266" t="n">
+        <v>6.689200000000002</v>
+      </c>
+      <c r="H266" t="n">
         <v>6.595883333333338</v>
       </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
       <c r="I266" t="n">
         <v>0</v>
       </c>
-      <c r="J266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>0</v>
+      </c>
       <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
-      <c r="M266" t="n">
+      <c r="L266" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="M266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N266" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10169,18 +11539,27 @@
         <v>20576.9851</v>
       </c>
       <c r="G267" t="n">
+        <v>6.691266666666668</v>
+      </c>
+      <c r="H267" t="n">
         <v>6.601066666666672</v>
       </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
       <c r="I267" t="n">
         <v>0</v>
       </c>
-      <c r="J267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>0</v>
+      </c>
       <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
-      <c r="M267" t="n">
+      <c r="L267" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="M267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N267" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10204,18 +11583,27 @@
         <v>27515.2976</v>
       </c>
       <c r="G268" t="n">
+        <v>6.693000000000001</v>
+      </c>
+      <c r="H268" t="n">
         <v>6.606166666666671</v>
       </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
       <c r="I268" t="n">
         <v>0</v>
       </c>
-      <c r="J268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>0</v>
+      </c>
       <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
-      <c r="M268" t="n">
+      <c r="L268" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="M268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N268" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10239,18 +11627,27 @@
         <v>105070.5695</v>
       </c>
       <c r="G269" t="n">
+        <v>6.691800000000002</v>
+      </c>
+      <c r="H269" t="n">
         <v>6.611150000000005</v>
       </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
       <c r="I269" t="n">
         <v>0</v>
       </c>
-      <c r="J269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>0</v>
+      </c>
       <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
-      <c r="M269" t="n">
+      <c r="L269" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="M269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N269" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10274,18 +11671,27 @@
         <v>13775</v>
       </c>
       <c r="G270" t="n">
+        <v>6.692133333333334</v>
+      </c>
+      <c r="H270" t="n">
         <v>6.615700000000004</v>
       </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
       <c r="I270" t="n">
         <v>0</v>
       </c>
-      <c r="J270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>0</v>
+      </c>
       <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
-      <c r="M270" t="n">
+      <c r="L270" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="M270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N270" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10309,18 +11715,27 @@
         <v>111367.9077</v>
       </c>
       <c r="G271" t="n">
+        <v>6.692333333333335</v>
+      </c>
+      <c r="H271" t="n">
         <v>6.619266666666671</v>
       </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
       <c r="I271" t="n">
         <v>0</v>
       </c>
-      <c r="J271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>0</v>
+      </c>
       <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
-      <c r="M271" t="n">
+      <c r="L271" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="M271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N271" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10344,18 +11759,27 @@
         <v>600</v>
       </c>
       <c r="G272" t="n">
+        <v>6.693533333333335</v>
+      </c>
+      <c r="H272" t="n">
         <v>6.62276666666667</v>
       </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
       <c r="I272" t="n">
         <v>0</v>
       </c>
-      <c r="J272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>0</v>
+      </c>
       <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
-      <c r="M272" t="n">
+      <c r="L272" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="M272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N272" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10379,18 +11803,27 @@
         <v>72199.4375</v>
       </c>
       <c r="G273" t="n">
+        <v>6.694066666666668</v>
+      </c>
+      <c r="H273" t="n">
         <v>6.626350000000003</v>
       </c>
-      <c r="H273" t="n">
-        <v>0</v>
-      </c>
       <c r="I273" t="n">
         <v>0</v>
       </c>
-      <c r="J273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>0</v>
+      </c>
       <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
-      <c r="M273" t="n">
+      <c r="L273" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="M273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N273" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10414,18 +11847,27 @@
         <v>6000</v>
       </c>
       <c r="G274" t="n">
+        <v>6.694266666666667</v>
+      </c>
+      <c r="H274" t="n">
         <v>6.629350000000003</v>
       </c>
-      <c r="H274" t="n">
-        <v>0</v>
-      </c>
       <c r="I274" t="n">
         <v>0</v>
       </c>
-      <c r="J274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>0</v>
+      </c>
       <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
-      <c r="M274" t="n">
+      <c r="L274" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="M274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N274" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10449,18 +11891,27 @@
         <v>22542.6103</v>
       </c>
       <c r="G275" t="n">
+        <v>6.697533333333335</v>
+      </c>
+      <c r="H275" t="n">
         <v>6.633016666666669</v>
       </c>
-      <c r="H275" t="n">
-        <v>0</v>
-      </c>
       <c r="I275" t="n">
         <v>0</v>
       </c>
-      <c r="J275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>0</v>
+      </c>
       <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
-      <c r="M275" t="n">
+      <c r="L275" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="M275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N275" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10484,18 +11935,27 @@
         <v>9556.911599999999</v>
       </c>
       <c r="G276" t="n">
+        <v>6.700800000000002</v>
+      </c>
+      <c r="H276" t="n">
         <v>6.636516666666669</v>
       </c>
-      <c r="H276" t="n">
-        <v>0</v>
-      </c>
       <c r="I276" t="n">
         <v>0</v>
       </c>
-      <c r="J276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>0</v>
+      </c>
       <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
-      <c r="M276" t="n">
+      <c r="L276" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="M276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N276" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10519,18 +11979,27 @@
         <v>1714.3937</v>
       </c>
       <c r="G277" t="n">
+        <v>6.703200000000002</v>
+      </c>
+      <c r="H277" t="n">
         <v>6.640000000000002</v>
       </c>
-      <c r="H277" t="n">
-        <v>0</v>
-      </c>
       <c r="I277" t="n">
         <v>0</v>
       </c>
-      <c r="J277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>0</v>
+      </c>
       <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
-      <c r="M277" t="n">
+      <c r="L277" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="M277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N277" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10554,18 +12023,467 @@
         <v>263450</v>
       </c>
       <c r="G278" t="n">
+        <v>6.702866666666669</v>
+      </c>
+      <c r="H278" t="n">
         <v>6.643366666666669</v>
       </c>
-      <c r="H278" t="n">
-        <v>0</v>
-      </c>
       <c r="I278" t="n">
         <v>0</v>
       </c>
-      <c r="J278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>0</v>
+      </c>
       <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
-      <c r="M278" t="n">
+      <c r="L278" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="M278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N278" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B279" t="n">
+        <v>6.693</v>
+      </c>
+      <c r="C279" t="n">
+        <v>6.693</v>
+      </c>
+      <c r="D279" t="n">
+        <v>6.693</v>
+      </c>
+      <c r="E279" t="n">
+        <v>6.693</v>
+      </c>
+      <c r="F279" t="n">
+        <v>59792.9642</v>
+      </c>
+      <c r="G279" t="n">
+        <v>6.705400000000002</v>
+      </c>
+      <c r="H279" t="n">
+        <v>6.646883333333335</v>
+      </c>
+      <c r="I279" t="n">
+        <v>0</v>
+      </c>
+      <c r="J279" t="n">
+        <v>0</v>
+      </c>
+      <c r="K279" t="inlineStr"/>
+      <c r="L279" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="M279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N279" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B280" t="n">
+        <v>6.695</v>
+      </c>
+      <c r="C280" t="n">
+        <v>6.695</v>
+      </c>
+      <c r="D280" t="n">
+        <v>6.695</v>
+      </c>
+      <c r="E280" t="n">
+        <v>6.695</v>
+      </c>
+      <c r="F280" t="n">
+        <v>5350</v>
+      </c>
+      <c r="G280" t="n">
+        <v>6.704200000000003</v>
+      </c>
+      <c r="H280" t="n">
+        <v>6.649966666666669</v>
+      </c>
+      <c r="I280" t="n">
+        <v>0</v>
+      </c>
+      <c r="J280" t="n">
+        <v>0</v>
+      </c>
+      <c r="K280" t="inlineStr"/>
+      <c r="L280" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="M280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N280" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B281" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="C281" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D281" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="E281" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="F281" t="n">
+        <v>929.6913</v>
+      </c>
+      <c r="G281" t="n">
+        <v>6.70086666666667</v>
+      </c>
+      <c r="H281" t="n">
+        <v>6.652966666666669</v>
+      </c>
+      <c r="I281" t="n">
+        <v>0</v>
+      </c>
+      <c r="J281" t="n">
+        <v>0</v>
+      </c>
+      <c r="K281" t="inlineStr"/>
+      <c r="L281" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="M281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N281" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B282" t="n">
+        <v>6.69</v>
+      </c>
+      <c r="C282" t="n">
+        <v>6.69</v>
+      </c>
+      <c r="D282" t="n">
+        <v>6.69</v>
+      </c>
+      <c r="E282" t="n">
+        <v>6.69</v>
+      </c>
+      <c r="F282" t="n">
+        <v>54996.7859</v>
+      </c>
+      <c r="G282" t="n">
+        <v>6.698133333333336</v>
+      </c>
+      <c r="H282" t="n">
+        <v>6.655800000000002</v>
+      </c>
+      <c r="I282" t="n">
+        <v>0</v>
+      </c>
+      <c r="J282" t="n">
+        <v>0</v>
+      </c>
+      <c r="K282" t="inlineStr"/>
+      <c r="L282" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="M282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N282" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="B283" t="n">
+        <v>6.69</v>
+      </c>
+      <c r="C283" t="n">
+        <v>6.68</v>
+      </c>
+      <c r="D283" t="n">
+        <v>6.69</v>
+      </c>
+      <c r="E283" t="n">
+        <v>6.68</v>
+      </c>
+      <c r="F283" t="n">
+        <v>230632.8408</v>
+      </c>
+      <c r="G283" t="n">
+        <v>6.69506666666667</v>
+      </c>
+      <c r="H283" t="n">
+        <v>6.658433333333336</v>
+      </c>
+      <c r="I283" t="n">
+        <v>0</v>
+      </c>
+      <c r="J283" t="n">
+        <v>0</v>
+      </c>
+      <c r="K283" t="inlineStr"/>
+      <c r="L283" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="M283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N283" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="B284" t="n">
+        <v>6.67</v>
+      </c>
+      <c r="C284" t="n">
+        <v>6.66</v>
+      </c>
+      <c r="D284" t="n">
+        <v>6.67</v>
+      </c>
+      <c r="E284" t="n">
+        <v>6.66</v>
+      </c>
+      <c r="F284" t="n">
+        <v>81430.1783</v>
+      </c>
+      <c r="G284" t="n">
+        <v>6.691133333333337</v>
+      </c>
+      <c r="H284" t="n">
+        <v>6.660700000000003</v>
+      </c>
+      <c r="I284" t="n">
+        <v>0</v>
+      </c>
+      <c r="J284" t="n">
+        <v>0</v>
+      </c>
+      <c r="K284" t="inlineStr"/>
+      <c r="L284" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="M284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N284" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="B285" t="n">
+        <v>6.66</v>
+      </c>
+      <c r="C285" t="n">
+        <v>6.66</v>
+      </c>
+      <c r="D285" t="n">
+        <v>6.66</v>
+      </c>
+      <c r="E285" t="n">
+        <v>6.66</v>
+      </c>
+      <c r="F285" t="n">
+        <v>68607.41559999999</v>
+      </c>
+      <c r="G285" t="n">
+        <v>6.688933333333337</v>
+      </c>
+      <c r="H285" t="n">
+        <v>6.663000000000003</v>
+      </c>
+      <c r="I285" t="n">
+        <v>0</v>
+      </c>
+      <c r="J285" t="n">
+        <v>0</v>
+      </c>
+      <c r="K285" t="inlineStr"/>
+      <c r="L285" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="M285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N285" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n">
+        <v>284</v>
+      </c>
+      <c r="B286" t="n">
+        <v>6.66</v>
+      </c>
+      <c r="C286" t="n">
+        <v>6.678</v>
+      </c>
+      <c r="D286" t="n">
+        <v>6.678</v>
+      </c>
+      <c r="E286" t="n">
+        <v>6.66</v>
+      </c>
+      <c r="F286" t="n">
+        <v>302157.4472</v>
+      </c>
+      <c r="G286" t="n">
+        <v>6.687933333333336</v>
+      </c>
+      <c r="H286" t="n">
+        <v>6.665616666666669</v>
+      </c>
+      <c r="I286" t="n">
+        <v>0</v>
+      </c>
+      <c r="J286" t="n">
+        <v>0</v>
+      </c>
+      <c r="K286" t="inlineStr"/>
+      <c r="L286" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="M286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N286" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="B287" t="n">
+        <v>6.661</v>
+      </c>
+      <c r="C287" t="n">
+        <v>6.661</v>
+      </c>
+      <c r="D287" t="n">
+        <v>6.661</v>
+      </c>
+      <c r="E287" t="n">
+        <v>6.661</v>
+      </c>
+      <c r="F287" t="n">
+        <v>4420</v>
+      </c>
+      <c r="G287" t="n">
+        <v>6.685333333333336</v>
+      </c>
+      <c r="H287" t="n">
+        <v>6.668133333333336</v>
+      </c>
+      <c r="I287" t="n">
+        <v>0</v>
+      </c>
+      <c r="J287" t="n">
+        <v>0</v>
+      </c>
+      <c r="K287" t="inlineStr"/>
+      <c r="L287" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="M287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N287" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="n">
+        <v>286</v>
+      </c>
+      <c r="B288" t="n">
+        <v>6.661</v>
+      </c>
+      <c r="C288" t="n">
+        <v>6.661</v>
+      </c>
+      <c r="D288" t="n">
+        <v>6.661</v>
+      </c>
+      <c r="E288" t="n">
+        <v>6.661</v>
+      </c>
+      <c r="F288" t="n">
+        <v>580</v>
+      </c>
+      <c r="G288" t="n">
+        <v>6.683400000000003</v>
+      </c>
+      <c r="H288" t="n">
+        <v>6.66981666666667</v>
+      </c>
+      <c r="I288" t="n">
+        <v>0</v>
+      </c>
+      <c r="J288" t="n">
+        <v>0</v>
+      </c>
+      <c r="K288" t="inlineStr"/>
+      <c r="L288" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="M288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N288" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-16 BackTest VET.xlsx
+++ b/BackTest/2020-01-16 BackTest VET.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-2063432.6403</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-1816504.7728</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>6.281</v>
@@ -521,7 +521,7 @@
         <v>-2088283.8474</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>6.3</v>
@@ -562,7 +562,7 @@
         <v>-1856913.1275</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>6.281</v>
@@ -603,7 +603,7 @@
         <v>-1856913.1275</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>6.318</v>
@@ -644,7 +644,7 @@
         <v>-1636122.1275</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>6.318</v>
@@ -685,9 +685,11 @@
         <v>-1659894.7184</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>6.338</v>
+      </c>
       <c r="J8" t="n">
         <v>6.281</v>
       </c>
@@ -724,9 +726,11 @@
         <v>-1676397.1179</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>6.321</v>
+      </c>
       <c r="J9" t="n">
         <v>6.281</v>
       </c>
@@ -763,9 +767,11 @@
         <v>-1777313.9565</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>6.31</v>
+      </c>
       <c r="J10" t="n">
         <v>6.281</v>
       </c>
@@ -802,9 +808,11 @@
         <v>-1763783.9565</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>6.268</v>
+      </c>
       <c r="J11" t="n">
         <v>6.281</v>
       </c>
@@ -841,9 +849,11 @@
         <v>-1741573.9566</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>6.272</v>
+      </c>
       <c r="J12" t="n">
         <v>6.281</v>
       </c>
@@ -880,7 +890,7 @@
         <v>-1741573.9566</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>6.289</v>
@@ -921,7 +931,7 @@
         <v>-1706556.4928</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>6.289</v>
@@ -962,7 +972,7 @@
         <v>-1704498.05</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>6.299</v>
@@ -1003,7 +1013,7 @@
         <v>-1722754.3025</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>6.325</v>
@@ -1044,7 +1054,7 @@
         <v>-1717374.3025</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>6.311</v>
@@ -1085,9 +1095,11 @@
         <v>-1759782.3025</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>6.329</v>
+      </c>
       <c r="J18" t="n">
         <v>6.281</v>
       </c>
@@ -1124,9 +1136,11 @@
         <v>-1759782.3025</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>6.31</v>
+      </c>
       <c r="J19" t="n">
         <v>6.281</v>
       </c>
@@ -1163,9 +1177,11 @@
         <v>-1732111.3025</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>6.31</v>
+      </c>
       <c r="J20" t="n">
         <v>6.281</v>
       </c>
@@ -1202,9 +1218,11 @@
         <v>-1704440.3025</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>6.338</v>
+      </c>
       <c r="J21" t="n">
         <v>6.281</v>
       </c>
@@ -1241,9 +1259,11 @@
         <v>-1523920.6163</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>6.339</v>
+      </c>
       <c r="J22" t="n">
         <v>6.281</v>
       </c>
@@ -1280,9 +1300,11 @@
         <v>-1402844.2935</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>6.34</v>
+      </c>
       <c r="J23" t="n">
         <v>6.281</v>
       </c>
@@ -1319,9 +1341,11 @@
         <v>-1402844.2935</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>6.348</v>
+      </c>
       <c r="J24" t="n">
         <v>6.281</v>
       </c>
@@ -1358,9 +1382,11 @@
         <v>-1396565.9338</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>6.348</v>
+      </c>
       <c r="J25" t="n">
         <v>6.281</v>
       </c>
@@ -1397,9 +1423,11 @@
         <v>-1401778.3731</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>6.356</v>
+      </c>
       <c r="J26" t="n">
         <v>6.281</v>
       </c>
@@ -1436,9 +1464,11 @@
         <v>-1154287.3731</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>6.31</v>
+      </c>
       <c r="J27" t="n">
         <v>6.281</v>
       </c>
@@ -1475,9 +1505,11 @@
         <v>-1152986.4795</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>6.319</v>
+      </c>
       <c r="J28" t="n">
         <v>6.281</v>
       </c>
@@ -1514,9 +1546,11 @@
         <v>-1148258.3471</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>6.34</v>
+      </c>
       <c r="J29" t="n">
         <v>6.281</v>
       </c>
@@ -1553,9 +1587,11 @@
         <v>-1152974.0633</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>6.345</v>
+      </c>
       <c r="J30" t="n">
         <v>6.281</v>
       </c>
@@ -1592,7 +1628,7 @@
         <v>-1165959.9519</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>6.33</v>
@@ -1633,7 +1669,7 @@
         <v>-1158819.9519</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>6.301</v>
@@ -1674,7 +1710,7 @@
         <v>-1163565.4449</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>6.336</v>
@@ -1715,9 +1751,11 @@
         <v>-1179438.4608</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>6.324</v>
+      </c>
       <c r="J34" t="n">
         <v>6.281</v>
       </c>
@@ -1754,7 +1792,7 @@
         <v>-1163598.1314</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>6.306</v>
@@ -1795,9 +1833,11 @@
         <v>-1084421.5676</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>6.313</v>
+      </c>
       <c r="J36" t="n">
         <v>6.281</v>
       </c>
@@ -1834,7 +1874,7 @@
         <v>-912746.8602999997</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>6.315</v>
@@ -1875,9 +1915,11 @@
         <v>-884036.2471999998</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>6.32</v>
+      </c>
       <c r="J38" t="n">
         <v>6.281</v>
       </c>
@@ -1914,7 +1956,7 @@
         <v>-884036.2471999998</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>6.325</v>
@@ -1955,9 +1997,11 @@
         <v>-964610.0720999998</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>6.325</v>
+      </c>
       <c r="J40" t="n">
         <v>6.281</v>
       </c>
@@ -1994,9 +2038,11 @@
         <v>-878305.3196999998</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>6.32</v>
+      </c>
       <c r="J41" t="n">
         <v>6.281</v>
       </c>
@@ -2033,9 +2079,11 @@
         <v>-878305.3196999998</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>6.33</v>
+      </c>
       <c r="J42" t="n">
         <v>6.281</v>
       </c>
@@ -2072,9 +2120,11 @@
         <v>-873445.3196999998</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>6.33</v>
+      </c>
       <c r="J43" t="n">
         <v>6.281</v>
       </c>
@@ -2111,9 +2161,11 @@
         <v>-838668.5388999998</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>6.335</v>
+      </c>
       <c r="J44" t="n">
         <v>6.281</v>
       </c>
@@ -2150,9 +2202,11 @@
         <v>-831729.5388999998</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>6.356</v>
+      </c>
       <c r="J45" t="n">
         <v>6.281</v>
       </c>
@@ -2189,9 +2243,11 @@
         <v>-831729.5388999998</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>6.399</v>
+      </c>
       <c r="J46" t="n">
         <v>6.281</v>
       </c>
@@ -2228,9 +2284,11 @@
         <v>-517234.1169999998</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>6.399</v>
+      </c>
       <c r="J47" t="n">
         <v>6.281</v>
       </c>
@@ -2267,9 +2325,11 @@
         <v>-511583.5931999998</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>6.4</v>
+      </c>
       <c r="J48" t="n">
         <v>6.281</v>
       </c>
@@ -2306,9 +2366,11 @@
         <v>-504647.2004999997</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>6.451</v>
+      </c>
       <c r="J49" t="n">
         <v>6.281</v>
       </c>
@@ -2618,9 +2680,11 @@
         <v>-193370.9713999997</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>6.567</v>
+      </c>
       <c r="J57" t="n">
         <v>6.281</v>
       </c>
@@ -2657,9 +2721,11 @@
         <v>-160247.4202999998</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>6.51</v>
+      </c>
       <c r="J58" t="n">
         <v>6.281</v>
       </c>
@@ -2696,9 +2762,11 @@
         <v>-158731.8522999998</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>6.522</v>
+      </c>
       <c r="J59" t="n">
         <v>6.281</v>
       </c>
@@ -2735,9 +2803,11 @@
         <v>-163537.0812999998</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>6.532</v>
+      </c>
       <c r="J60" t="n">
         <v>6.281</v>
       </c>
@@ -2774,9 +2844,11 @@
         <v>-150391.8529999998</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>6.528</v>
+      </c>
       <c r="J61" t="n">
         <v>6.281</v>
       </c>
@@ -2813,9 +2885,11 @@
         <v>-155785.4151999998</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>6.562</v>
+      </c>
       <c r="J62" t="n">
         <v>6.281</v>
       </c>
@@ -2852,9 +2926,11 @@
         <v>-129715.4151999998</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>6.541</v>
+      </c>
       <c r="J63" t="n">
         <v>6.281</v>
       </c>
@@ -2891,9 +2967,11 @@
         <v>-129715.4151999998</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>6.552</v>
+      </c>
       <c r="J64" t="n">
         <v>6.281</v>
       </c>
@@ -2930,9 +3008,11 @@
         <v>-170443.8457999997</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>6.552</v>
+      </c>
       <c r="J65" t="n">
         <v>6.281</v>
       </c>
@@ -2969,9 +3049,11 @@
         <v>-170443.8457999997</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>6.543</v>
+      </c>
       <c r="J66" t="n">
         <v>6.281</v>
       </c>
@@ -3008,9 +3090,11 @@
         <v>-170443.8457999997</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>6.543</v>
+      </c>
       <c r="J67" t="n">
         <v>6.281</v>
       </c>
@@ -3047,9 +3131,11 @@
         <v>-119133.6615999997</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>6.543</v>
+      </c>
       <c r="J68" t="n">
         <v>6.281</v>
       </c>
@@ -3086,9 +3172,11 @@
         <v>-133186.4501999997</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>6.551</v>
+      </c>
       <c r="J69" t="n">
         <v>6.281</v>
       </c>
@@ -3125,9 +3213,11 @@
         <v>-30372.45019999973</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>6.543</v>
+      </c>
       <c r="J70" t="n">
         <v>6.281</v>
       </c>
@@ -3164,9 +3254,11 @@
         <v>-91229.45019999973</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>6.548</v>
+      </c>
       <c r="J71" t="n">
         <v>6.281</v>
       </c>
@@ -3203,9 +3295,11 @@
         <v>-57334.93149999973</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>6.52</v>
+      </c>
       <c r="J72" t="n">
         <v>6.281</v>
       </c>
@@ -3242,9 +3336,11 @@
         <v>-57334.93149999973</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>6.535</v>
+      </c>
       <c r="J73" t="n">
         <v>6.281</v>
       </c>
@@ -3281,9 +3377,11 @@
         <v>407665.0685000003</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>6.535</v>
+      </c>
       <c r="J74" t="n">
         <v>6.281</v>
       </c>
@@ -3320,9 +3418,11 @@
         <v>133959.4193000003</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>6.551</v>
+      </c>
       <c r="J75" t="n">
         <v>6.281</v>
       </c>
@@ -3359,9 +3459,11 @@
         <v>193343.1299000003</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>6.52</v>
+      </c>
       <c r="J76" t="n">
         <v>6.281</v>
       </c>
@@ -3398,9 +3500,11 @@
         <v>423593.2049000003</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>6.549</v>
+      </c>
       <c r="J77" t="n">
         <v>6.281</v>
       </c>
@@ -3437,9 +3541,11 @@
         <v>423593.2049000003</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>6.551</v>
+      </c>
       <c r="J78" t="n">
         <v>6.281</v>
       </c>
@@ -3476,9 +3582,11 @@
         <v>423593.2049000003</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>6.551</v>
+      </c>
       <c r="J79" t="n">
         <v>6.281</v>
       </c>
@@ -3515,9 +3623,11 @@
         <v>423593.2049000003</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>6.551</v>
+      </c>
       <c r="J80" t="n">
         <v>6.281</v>
       </c>
@@ -3554,9 +3664,11 @@
         <v>423593.2049000003</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>6.551</v>
+      </c>
       <c r="J81" t="n">
         <v>6.281</v>
       </c>
@@ -3593,9 +3705,11 @@
         <v>912737.4258000003</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>6.551</v>
+      </c>
       <c r="J82" t="n">
         <v>6.281</v>
       </c>
@@ -3632,9 +3746,11 @@
         <v>912737.4258000003</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>6.593</v>
+      </c>
       <c r="J83" t="n">
         <v>6.281</v>
       </c>
@@ -3671,9 +3787,11 @@
         <v>1020108.0455</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>6.593</v>
+      </c>
       <c r="J84" t="n">
         <v>6.281</v>
       </c>
@@ -3710,9 +3828,11 @@
         <v>959864.7283000003</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>6.594</v>
+      </c>
       <c r="J85" t="n">
         <v>6.281</v>
       </c>
@@ -3749,9 +3869,11 @@
         <v>1030661.5844</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>6.593</v>
+      </c>
       <c r="J86" t="n">
         <v>6.281</v>
       </c>
@@ -3788,9 +3910,11 @@
         <v>1030661.5844</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>6.6</v>
+      </c>
       <c r="J87" t="n">
         <v>6.281</v>
       </c>
@@ -3827,9 +3951,11 @@
         <v>712276.0494000004</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>6.6</v>
+      </c>
       <c r="J88" t="n">
         <v>6.281</v>
       </c>
@@ -3866,9 +3992,11 @@
         <v>704383.8174000004</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>6.592</v>
+      </c>
       <c r="J89" t="n">
         <v>6.281</v>
       </c>
@@ -3905,9 +4033,11 @@
         <v>806383.8174000004</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>6.553</v>
+      </c>
       <c r="J90" t="n">
         <v>6.281</v>
       </c>
@@ -3944,9 +4074,11 @@
         <v>774675.5761000004</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>6.597</v>
+      </c>
       <c r="J91" t="n">
         <v>6.281</v>
       </c>
@@ -3983,9 +4115,11 @@
         <v>627850.3319000005</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>6.581</v>
+      </c>
       <c r="J92" t="n">
         <v>6.281</v>
       </c>
@@ -4022,9 +4156,11 @@
         <v>843921.8626000005</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>6.554</v>
+      </c>
       <c r="J93" t="n">
         <v>6.281</v>
       </c>
@@ -4061,9 +4197,11 @@
         <v>843921.8626000005</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>6.62</v>
+      </c>
       <c r="J94" t="n">
         <v>6.281</v>
       </c>
@@ -4100,9 +4238,11 @@
         <v>1147980.862500001</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>6.62</v>
+      </c>
       <c r="J95" t="n">
         <v>6.281</v>
       </c>
@@ -4139,9 +4279,11 @@
         <v>1214774.670700001</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>6.65</v>
+      </c>
       <c r="J96" t="n">
         <v>6.281</v>
       </c>
@@ -5660,7 +5802,7 @@
         <v>4716545.491569603</v>
       </c>
       <c r="H135" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="n">
@@ -5668,15 +5810,13 @@
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L135" t="n">
-        <v>1.088615666295176</v>
-      </c>
-      <c r="M135" t="n">
-        <v>1.005572361088999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5701,11 +5841,17 @@
         <v>4390342.713069603</v>
       </c>
       <c r="H136" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>6.281</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5734,11 +5880,17 @@
         <v>4856725.313769603</v>
       </c>
       <c r="H137" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>6.281</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5767,11 +5919,17 @@
         <v>5407253.775569603</v>
       </c>
       <c r="H138" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>6.281</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5800,11 +5958,17 @@
         <v>5827542.110969603</v>
       </c>
       <c r="H139" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>6.281</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5833,11 +5997,17 @@
         <v>5690839.626069603</v>
       </c>
       <c r="H140" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>6.281</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5866,15 +6036,23 @@
         <v>5589604.544869604</v>
       </c>
       <c r="H141" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>6.281</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+        <v>1.082088043305206</v>
+      </c>
+      <c r="M141" t="n">
+        <v>1.005572361088999</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5899,7 +6077,7 @@
         <v>5593408.892669603</v>
       </c>
       <c r="H142" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5932,7 +6110,7 @@
         <v>5766729.820569603</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5965,7 +6143,7 @@
         <v>5766729.820569603</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5998,7 +6176,7 @@
         <v>5286440.927569603</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -6031,7 +6209,7 @@
         <v>5400002.948269603</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -6064,7 +6242,7 @@
         <v>5394828.861169603</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -6097,7 +6275,7 @@
         <v>5032310.045269603</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -6130,7 +6308,7 @@
         <v>5032310.045269603</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -6163,7 +6341,7 @@
         <v>4728968.297769603</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -6196,7 +6374,7 @@
         <v>4397729.491169604</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -6229,7 +6407,7 @@
         <v>4384779.746369603</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -6262,7 +6440,7 @@
         <v>4384896.091969603</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -6295,7 +6473,7 @@
         <v>4410289.107169603</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -6328,7 +6506,7 @@
         <v>4434057.800369603</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -6361,7 +6539,7 @@
         <v>4433357.800369603</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -6394,7 +6572,7 @@
         <v>4433357.800369603</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -6427,7 +6605,7 @@
         <v>4425114.350769603</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -6460,7 +6638,7 @@
         <v>4574662.084869603</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -6493,7 +6671,7 @@
         <v>4580866.082469603</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -6526,7 +6704,7 @@
         <v>4580866.082469603</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6592,7 +6770,7 @@
         <v>4580866.082469603</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6625,7 +6803,7 @@
         <v>4580866.082469603</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6658,7 +6836,7 @@
         <v>4580866.082469603</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6691,7 +6869,7 @@
         <v>4602324.190369603</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6724,7 +6902,7 @@
         <v>4983250.790669603</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6757,7 +6935,7 @@
         <v>4983250.790669603</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6790,7 +6968,7 @@
         <v>4998148.057569603</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6823,7 +7001,7 @@
         <v>5148148.057569603</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6856,7 +7034,7 @@
         <v>5165483.835869604</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6889,7 +7067,7 @@
         <v>5165483.835869604</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6922,7 +7100,7 @@
         <v>5178414.835869604</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6955,7 +7133,7 @@
         <v>5149882.529069603</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6988,7 +7166,7 @@
         <v>5078103.269969603</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -7021,7 +7199,7 @@
         <v>5191305.524069603</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -7054,7 +7232,7 @@
         <v>5183123.058869602</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -7087,7 +7265,7 @@
         <v>5183123.058869602</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -7120,7 +7298,7 @@
         <v>5251633.058869602</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -7153,7 +7331,7 @@
         <v>5252221.702869602</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -7186,7 +7364,7 @@
         <v>5252221.702869602</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -7219,7 +7397,7 @@
         <v>5242753.568269602</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -7252,7 +7430,7 @@
         <v>2197421.011769602</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -7285,7 +7463,7 @@
         <v>2214551.011769602</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -7318,7 +7496,7 @@
         <v>2180332.390669602</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -7351,7 +7529,7 @@
         <v>2162599.959469602</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -7384,7 +7562,7 @@
         <v>2270202.596469602</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -7417,7 +7595,7 @@
         <v>2176692.366169602</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -7483,7 +7661,7 @@
         <v>2196490.135069602</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7516,7 +7694,7 @@
         <v>2196490.135069602</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7615,7 +7793,7 @@
         <v>2740087.974969602</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7681,7 +7859,7 @@
         <v>2776858.960169602</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -9232,7 +9410,7 @@
         <v>733032.0494053415</v>
       </c>
       <c r="H243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -9265,7 +9443,7 @@
         <v>732332.0492053415</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -9298,7 +9476,7 @@
         <v>3644269.421405341</v>
       </c>
       <c r="H245" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -9331,7 +9509,7 @@
         <v>3636954.504605342</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -9364,7 +9542,7 @@
         <v>3636868.072505342</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -9991,7 +10169,7 @@
         <v>3618751.430305343</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -11245,7 +11423,7 @@
         <v>8240461.227732225</v>
       </c>
       <c r="H304" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -11410,7 +11588,7 @@
         <v>8457624.467132226</v>
       </c>
       <c r="H309" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -11443,7 +11621,7 @@
         <v>8457624.467132226</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -11476,7 +11654,7 @@
         <v>8457624.467132226</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -11509,7 +11687,7 @@
         <v>8463649.467132226</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -11542,7 +11720,7 @@
         <v>8454927.941932226</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -11575,7 +11753,7 @@
         <v>8633576.223932225</v>
       </c>
       <c r="H314" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -11608,7 +11786,7 @@
         <v>8620986.223932225</v>
       </c>
       <c r="H315" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -11641,7 +11819,7 @@
         <v>8620986.223932225</v>
       </c>
       <c r="H316" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -11674,7 +11852,7 @@
         <v>8545987.025532225</v>
       </c>
       <c r="H317" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -11707,7 +11885,7 @@
         <v>8380632.493232225</v>
       </c>
       <c r="H318" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -11740,7 +11918,7 @@
         <v>8380632.493232225</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -11773,7 +11951,7 @@
         <v>8545987.025632225</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -11806,7 +11984,7 @@
         <v>8560880.145132225</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11839,7 +12017,7 @@
         <v>8555657.395132225</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11872,7 +12050,7 @@
         <v>8826657.395132225</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11905,7 +12083,7 @@
         <v>9118657.395132225</v>
       </c>
       <c r="H324" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11938,7 +12116,7 @@
         <v>9098080.410032226</v>
       </c>
       <c r="H325" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11971,7 +12149,7 @@
         <v>9070565.112432227</v>
       </c>
       <c r="H326" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -12004,7 +12182,7 @@
         <v>8965494.542932227</v>
       </c>
       <c r="H327" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -12037,7 +12215,7 @@
         <v>8951719.542932227</v>
       </c>
       <c r="H328" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -12070,7 +12248,7 @@
         <v>8951719.542932227</v>
       </c>
       <c r="H329" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -12103,7 +12281,7 @@
         <v>8952319.542932227</v>
       </c>
       <c r="H330" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -12136,7 +12314,7 @@
         <v>8880120.105432227</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -12169,7 +12347,7 @@
         <v>8874120.105432227</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -12202,7 +12380,7 @@
         <v>8896662.715732228</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -12235,7 +12413,7 @@
         <v>8896662.715732228</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -12268,7 +12446,7 @@
         <v>8896662.715732228</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -12301,7 +12479,7 @@
         <v>8633212.715732228</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -12334,7 +12512,7 @@
         <v>8633212.715732228</v>
       </c>
       <c r="H337" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -12367,7 +12545,7 @@
         <v>8638562.715732228</v>
       </c>
       <c r="H338" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -12400,7 +12578,7 @@
         <v>8639492.407032227</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -12433,7 +12611,7 @@
         <v>8584495.621132227</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -12466,7 +12644,7 @@
         <v>8353862.780332226</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -12499,7 +12677,7 @@
         <v>8272432.602032227</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -12532,7 +12710,7 @@
         <v>8272432.602032227</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -12565,7 +12743,7 @@
         <v>8574590.049232226</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -12598,7 +12776,7 @@
         <v>8570170.049232226</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -12631,7 +12809,7 @@
         <v>8570170.049232226</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -12642,6 +12820,6 @@
       <c r="M346" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest VET.xlsx
+++ b/BackTest/2020-01-16 BackTest VET.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -644,11 +644,9 @@
         <v>-1636122.1275</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>6.318</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="n">
         <v>6.281</v>
       </c>
@@ -685,11 +683,9 @@
         <v>-1659894.7184</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>6.338</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
         <v>6.281</v>
       </c>
@@ -726,11 +722,9 @@
         <v>-1676397.1179</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>6.321</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="n">
         <v>6.281</v>
       </c>
@@ -767,11 +761,9 @@
         <v>-1777313.9565</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>6.31</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="n">
         <v>6.281</v>
       </c>
@@ -808,11 +800,9 @@
         <v>-1763783.9565</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>6.268</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="n">
         <v>6.281</v>
       </c>
@@ -1259,11 +1249,9 @@
         <v>-1523920.6163</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>6.339</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="n">
         <v>6.281</v>
       </c>
@@ -1300,11 +1288,9 @@
         <v>-1402844.2935</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>6.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="n">
         <v>6.281</v>
       </c>
@@ -1341,11 +1327,9 @@
         <v>-1402844.2935</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>6.348</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="n">
         <v>6.281</v>
       </c>
@@ -1382,11 +1366,9 @@
         <v>-1396565.9338</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>6.348</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="n">
         <v>6.281</v>
       </c>
@@ -1423,11 +1405,9 @@
         <v>-1401778.3731</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>6.356</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="n">
         <v>6.281</v>
       </c>
@@ -2284,11 +2264,9 @@
         <v>-517234.1169999998</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>6.399</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="n">
         <v>6.281</v>
       </c>
@@ -2325,11 +2303,9 @@
         <v>-511583.5931999998</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>6.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="n">
         <v>6.281</v>
       </c>
@@ -2366,11 +2342,9 @@
         <v>-504647.2004999997</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>6.451</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="n">
         <v>6.281</v>
       </c>
@@ -2563,7 +2537,7 @@
         <v>-390696.6761999998</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="n">
@@ -2571,11 +2545,11 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>1</v>
+        <v>1.03623547205859</v>
       </c>
       <c r="M54" t="inlineStr"/>
     </row>
@@ -2602,17 +2576,11 @@
         <v>-156293.6761999998</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>6.281</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2641,17 +2609,11 @@
         <v>-142446.6699999998</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>6.281</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2680,19 +2642,11 @@
         <v>-193370.9713999997</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>6.567</v>
-      </c>
-      <c r="J57" t="n">
-        <v>6.281</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2721,19 +2675,11 @@
         <v>-160247.4202999998</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>6.51</v>
-      </c>
-      <c r="J58" t="n">
-        <v>6.281</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2762,19 +2708,11 @@
         <v>-158731.8522999998</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>6.522</v>
-      </c>
-      <c r="J59" t="n">
-        <v>6.281</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2803,19 +2741,11 @@
         <v>-163537.0812999998</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>6.532</v>
-      </c>
-      <c r="J60" t="n">
-        <v>6.281</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2844,19 +2774,11 @@
         <v>-150391.8529999998</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>6.528</v>
-      </c>
-      <c r="J61" t="n">
-        <v>6.281</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2885,19 +2807,11 @@
         <v>-155785.4151999998</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>6.562</v>
-      </c>
-      <c r="J62" t="n">
-        <v>6.281</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2926,19 +2840,11 @@
         <v>-129715.4151999998</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>6.541</v>
-      </c>
-      <c r="J63" t="n">
-        <v>6.281</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2967,19 +2873,11 @@
         <v>-129715.4151999998</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>6.552</v>
-      </c>
-      <c r="J64" t="n">
-        <v>6.281</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -3008,19 +2906,11 @@
         <v>-170443.8457999997</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>6.552</v>
-      </c>
-      <c r="J65" t="n">
-        <v>6.281</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -3049,19 +2939,11 @@
         <v>-170443.8457999997</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>6.543</v>
-      </c>
-      <c r="J66" t="n">
-        <v>6.281</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -3090,19 +2972,11 @@
         <v>-170443.8457999997</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>6.543</v>
-      </c>
-      <c r="J67" t="n">
-        <v>6.281</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -3131,19 +3005,11 @@
         <v>-119133.6615999997</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>6.543</v>
-      </c>
-      <c r="J68" t="n">
-        <v>6.281</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3172,19 +3038,11 @@
         <v>-133186.4501999997</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>6.551</v>
-      </c>
-      <c r="J69" t="n">
-        <v>6.281</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3213,19 +3071,11 @@
         <v>-30372.45019999973</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>6.543</v>
-      </c>
-      <c r="J70" t="n">
-        <v>6.281</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3254,19 +3104,11 @@
         <v>-91229.45019999973</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>6.548</v>
-      </c>
-      <c r="J71" t="n">
-        <v>6.281</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3295,19 +3137,11 @@
         <v>-57334.93149999973</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>6.52</v>
-      </c>
-      <c r="J72" t="n">
-        <v>6.281</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3336,19 +3170,11 @@
         <v>-57334.93149999973</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>6.535</v>
-      </c>
-      <c r="J73" t="n">
-        <v>6.281</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3377,19 +3203,11 @@
         <v>407665.0685000003</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>6.535</v>
-      </c>
-      <c r="J74" t="n">
-        <v>6.281</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3418,19 +3236,11 @@
         <v>133959.4193000003</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>6.551</v>
-      </c>
-      <c r="J75" t="n">
-        <v>6.281</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3459,19 +3269,11 @@
         <v>193343.1299000003</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>6.52</v>
-      </c>
-      <c r="J76" t="n">
-        <v>6.281</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3500,19 +3302,11 @@
         <v>423593.2049000003</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>6.549</v>
-      </c>
-      <c r="J77" t="n">
-        <v>6.281</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3541,19 +3335,11 @@
         <v>423593.2049000003</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>6.551</v>
-      </c>
-      <c r="J78" t="n">
-        <v>6.281</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3582,19 +3368,11 @@
         <v>423593.2049000003</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>6.551</v>
-      </c>
-      <c r="J79" t="n">
-        <v>6.281</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3623,19 +3401,11 @@
         <v>423593.2049000003</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>6.551</v>
-      </c>
-      <c r="J80" t="n">
-        <v>6.281</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3664,19 +3434,11 @@
         <v>423593.2049000003</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>6.551</v>
-      </c>
-      <c r="J81" t="n">
-        <v>6.281</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3705,19 +3467,11 @@
         <v>912737.4258000003</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>6.551</v>
-      </c>
-      <c r="J82" t="n">
-        <v>6.281</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3746,19 +3500,11 @@
         <v>912737.4258000003</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>6.593</v>
-      </c>
-      <c r="J83" t="n">
-        <v>6.281</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3787,19 +3533,11 @@
         <v>1020108.0455</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>6.593</v>
-      </c>
-      <c r="J84" t="n">
-        <v>6.281</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3828,19 +3566,11 @@
         <v>959864.7283000003</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>6.594</v>
-      </c>
-      <c r="J85" t="n">
-        <v>6.281</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3869,19 +3599,11 @@
         <v>1030661.5844</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>6.593</v>
-      </c>
-      <c r="J86" t="n">
-        <v>6.281</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3910,19 +3632,11 @@
         <v>1030661.5844</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="J87" t="n">
-        <v>6.281</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3951,19 +3665,11 @@
         <v>712276.0494000004</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="J88" t="n">
-        <v>6.281</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3992,19 +3698,11 @@
         <v>704383.8174000004</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>6.592</v>
-      </c>
-      <c r="J89" t="n">
-        <v>6.281</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -4033,19 +3731,11 @@
         <v>806383.8174000004</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>6.553</v>
-      </c>
-      <c r="J90" t="n">
-        <v>6.281</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -4074,19 +3764,11 @@
         <v>774675.5761000004</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>6.597</v>
-      </c>
-      <c r="J91" t="n">
-        <v>6.281</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -4115,19 +3797,11 @@
         <v>627850.3319000005</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>6.581</v>
-      </c>
-      <c r="J92" t="n">
-        <v>6.281</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -4156,19 +3830,11 @@
         <v>843921.8626000005</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>6.554</v>
-      </c>
-      <c r="J93" t="n">
-        <v>6.281</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -4197,19 +3863,11 @@
         <v>843921.8626000005</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>6.62</v>
-      </c>
-      <c r="J94" t="n">
-        <v>6.281</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4238,19 +3896,11 @@
         <v>1147980.862500001</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>6.62</v>
-      </c>
-      <c r="J95" t="n">
-        <v>6.281</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4279,19 +3929,11 @@
         <v>1214774.670700001</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>6.65</v>
-      </c>
-      <c r="J96" t="n">
-        <v>6.281</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4323,14 +3965,8 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>6.281</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4362,14 +3998,8 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>6.281</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4401,14 +4031,8 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>6.281</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4440,14 +4064,8 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>6.281</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4479,14 +4097,8 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>6.281</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4518,14 +4130,8 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>6.281</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4557,14 +4163,8 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>6.281</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4596,14 +4196,8 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>6.281</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4635,14 +4229,8 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>6.281</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4674,14 +4262,8 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>6.281</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4713,14 +4295,8 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>6.281</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4752,14 +4328,8 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>6.281</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4791,14 +4361,8 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>6.281</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4830,14 +4394,8 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>6.281</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4869,14 +4427,8 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>6.281</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4908,14 +4460,8 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>6.281</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4947,14 +4493,8 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>6.281</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4986,14 +4526,8 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>6.281</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -5025,14 +4559,8 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>6.281</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -5064,14 +4592,8 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>6.281</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -5103,14 +4625,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>6.281</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -5142,14 +4658,8 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>6.281</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -5181,14 +4691,8 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>6.281</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -5220,14 +4724,8 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>6.281</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -5259,14 +4757,8 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>6.281</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5298,14 +4790,8 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>6.281</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5337,14 +4823,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>6.281</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5376,14 +4856,8 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>6.281</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5415,14 +4889,8 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>6.281</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5454,14 +4922,8 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>6.281</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5493,14 +4955,8 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>6.281</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5532,14 +4988,8 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>6.281</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5571,14 +5021,8 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>6.281</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5610,14 +5054,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>6.281</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5649,14 +5087,8 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>6.281</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5688,14 +5120,8 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>6.281</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5727,14 +5153,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>6.281</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5766,14 +5186,8 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>6.281</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5805,14 +5219,8 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>6.281</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5844,14 +5252,8 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>6.281</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5883,14 +5285,8 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>6.281</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5922,14 +5318,8 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>6.281</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5961,14 +5351,8 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>6.281</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -6000,14 +5384,8 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>6.281</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -6036,23 +5414,15 @@
         <v>5589604.544869604</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>6.281</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
-        <v>1.082088043305206</v>
-      </c>
-      <c r="M141" t="n">
-        <v>1.005572361088999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -6077,7 +5447,7 @@
         <v>5593408.892669603</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -6110,7 +5480,7 @@
         <v>5766729.820569603</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -6143,7 +5513,7 @@
         <v>5766729.820569603</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -6176,7 +5546,7 @@
         <v>5286440.927569603</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -6209,7 +5579,7 @@
         <v>5400002.948269603</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -6242,7 +5612,7 @@
         <v>5394828.861169603</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -6275,7 +5645,7 @@
         <v>5032310.045269603</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -6308,7 +5678,7 @@
         <v>5032310.045269603</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -6341,7 +5711,7 @@
         <v>4728968.297769603</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -6374,7 +5744,7 @@
         <v>4397729.491169604</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -6407,7 +5777,7 @@
         <v>4384779.746369603</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -6440,7 +5810,7 @@
         <v>4384896.091969603</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -6473,7 +5843,7 @@
         <v>4410289.107169603</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -6506,7 +5876,7 @@
         <v>4434057.800369603</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -6539,7 +5909,7 @@
         <v>4433357.800369603</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -6704,7 +6074,7 @@
         <v>4580866.082469603</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6836,7 +6206,7 @@
         <v>4580866.082469603</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6869,7 +6239,7 @@
         <v>4602324.190369603</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6902,7 +6272,7 @@
         <v>4983250.790669603</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6935,7 +6305,7 @@
         <v>4983250.790669603</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6968,7 +6338,7 @@
         <v>4998148.057569603</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -7001,7 +6371,7 @@
         <v>5148148.057569603</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -7034,7 +6404,7 @@
         <v>5165483.835869604</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -7067,7 +6437,7 @@
         <v>5165483.835869604</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -7100,7 +6470,7 @@
         <v>5178414.835869604</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -7133,7 +6503,7 @@
         <v>5149882.529069603</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -7166,7 +6536,7 @@
         <v>5078103.269969603</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -7199,7 +6569,7 @@
         <v>5191305.524069603</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -7232,7 +6602,7 @@
         <v>5183123.058869602</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -7265,7 +6635,7 @@
         <v>5183123.058869602</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -7298,7 +6668,7 @@
         <v>5251633.058869602</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -7331,7 +6701,7 @@
         <v>5252221.702869602</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -7364,7 +6734,7 @@
         <v>5252221.702869602</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -7397,7 +6767,7 @@
         <v>5242753.568269602</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -7430,7 +6800,7 @@
         <v>2197421.011769602</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -7463,7 +6833,7 @@
         <v>2214551.011769602</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -7496,7 +6866,7 @@
         <v>2180332.390669602</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -7529,7 +6899,7 @@
         <v>2162599.959469602</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -7562,7 +6932,7 @@
         <v>2270202.596469602</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -7595,7 +6965,7 @@
         <v>2176692.366169602</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -7661,7 +7031,7 @@
         <v>2196490.135069602</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7793,7 +7163,7 @@
         <v>2740087.974969602</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7859,7 +7229,7 @@
         <v>2776858.960169602</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -8321,7 +7691,7 @@
         <v>1670095.663869602</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -11027,7 +10397,7 @@
         <v>8285311.731832225</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -11060,7 +10430,7 @@
         <v>8285311.731832225</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -11093,7 +10463,7 @@
         <v>8285311.731832225</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -11126,7 +10496,7 @@
         <v>8285311.731832225</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -11159,7 +10529,7 @@
         <v>8285311.731832225</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -11192,7 +10562,7 @@
         <v>8285311.731832225</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -11225,7 +10595,7 @@
         <v>8285442.931232225</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -11258,7 +10628,7 @@
         <v>8175206.576332225</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -11291,7 +10661,7 @@
         <v>8180336.731932226</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -11324,7 +10694,7 @@
         <v>8181492.795732225</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -11357,7 +10727,7 @@
         <v>8250977.307232225</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -11390,7 +10760,7 @@
         <v>8131403.441332226</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -11423,7 +10793,7 @@
         <v>8240461.227732225</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -11456,7 +10826,7 @@
         <v>8244487.473332225</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -11489,7 +10859,7 @@
         <v>8297791.923032225</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -11522,7 +10892,7 @@
         <v>8287210.392032225</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -11555,7 +10925,7 @@
         <v>8295896.574532225</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -11588,7 +10958,7 @@
         <v>8457624.467132226</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -11621,7 +10991,7 @@
         <v>8457624.467132226</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -11852,7 +11222,7 @@
         <v>8545987.025532225</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -11885,7 +11255,7 @@
         <v>8380632.493232225</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -11918,7 +11288,7 @@
         <v>8380632.493232225</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -11951,7 +11321,7 @@
         <v>8545987.025632225</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -11984,7 +11354,7 @@
         <v>8560880.145132225</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -12017,7 +11387,7 @@
         <v>8555657.395132225</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -12050,7 +11420,7 @@
         <v>8826657.395132225</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -12083,7 +11453,7 @@
         <v>9118657.395132225</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -12116,7 +11486,7 @@
         <v>9098080.410032226</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -12149,7 +11519,7 @@
         <v>9070565.112432227</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -12182,7 +11552,7 @@
         <v>8965494.542932227</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -12215,7 +11585,7 @@
         <v>8951719.542932227</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -12248,7 +11618,7 @@
         <v>8951719.542932227</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -12281,7 +11651,7 @@
         <v>8952319.542932227</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -12314,7 +11684,7 @@
         <v>8880120.105432227</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -12347,7 +11717,7 @@
         <v>8874120.105432227</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -12380,7 +11750,7 @@
         <v>8896662.715732228</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -12413,7 +11783,7 @@
         <v>8896662.715732228</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -12446,7 +11816,7 @@
         <v>8896662.715732228</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -12479,7 +11849,7 @@
         <v>8633212.715732228</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -12512,7 +11882,7 @@
         <v>8633212.715732228</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -12545,7 +11915,7 @@
         <v>8638562.715732228</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -12578,7 +11948,7 @@
         <v>8639492.407032227</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -12611,7 +11981,7 @@
         <v>8584495.621132227</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -12644,7 +12014,7 @@
         <v>8353862.780332226</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -12677,7 +12047,7 @@
         <v>8272432.602032227</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -12710,7 +12080,7 @@
         <v>8272432.602032227</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -12743,7 +12113,7 @@
         <v>8574590.049232226</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -12776,7 +12146,7 @@
         <v>8570170.049232226</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -12809,7 +12179,7 @@
         <v>8570170.049232226</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -12820,6 +12190,6 @@
       <c r="M346" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest VET.xlsx
+++ b/BackTest/2020-01-16 BackTest VET.xlsx
@@ -644,9 +644,11 @@
         <v>-1636122.1275</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>6.318</v>
+      </c>
       <c r="J7" t="n">
         <v>6.281</v>
       </c>
@@ -683,9 +685,11 @@
         <v>-1659894.7184</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>6.338</v>
+      </c>
       <c r="J8" t="n">
         <v>6.281</v>
       </c>
@@ -722,9 +726,11 @@
         <v>-1676397.1179</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>6.321</v>
+      </c>
       <c r="J9" t="n">
         <v>6.281</v>
       </c>
@@ -761,9 +767,11 @@
         <v>-1777313.9565</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>6.31</v>
+      </c>
       <c r="J10" t="n">
         <v>6.281</v>
       </c>
@@ -800,9 +808,11 @@
         <v>-1763783.9565</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>6.268</v>
+      </c>
       <c r="J11" t="n">
         <v>6.281</v>
       </c>
@@ -1249,9 +1259,11 @@
         <v>-1523920.6163</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>6.339</v>
+      </c>
       <c r="J22" t="n">
         <v>6.281</v>
       </c>
@@ -1288,9 +1300,11 @@
         <v>-1402844.2935</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>6.34</v>
+      </c>
       <c r="J23" t="n">
         <v>6.281</v>
       </c>
@@ -1327,9 +1341,11 @@
         <v>-1402844.2935</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>6.348</v>
+      </c>
       <c r="J24" t="n">
         <v>6.281</v>
       </c>
@@ -1366,9 +1382,11 @@
         <v>-1396565.9338</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>6.348</v>
+      </c>
       <c r="J25" t="n">
         <v>6.281</v>
       </c>
@@ -1405,9 +1423,11 @@
         <v>-1401778.3731</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>6.356</v>
+      </c>
       <c r="J26" t="n">
         <v>6.281</v>
       </c>
@@ -2223,11 +2243,9 @@
         <v>-831729.5388999998</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>6.399</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="n">
         <v>6.281</v>
       </c>
@@ -2537,7 +2555,7 @@
         <v>-390696.6761999998</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="n">
@@ -2545,11 +2563,11 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>1.03623547205859</v>
+        <v>1</v>
       </c>
       <c r="M54" t="inlineStr"/>
     </row>
@@ -2576,11 +2594,17 @@
         <v>-156293.6761999998</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>6.281</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2609,11 +2633,17 @@
         <v>-142446.6699999998</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>6.281</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2642,11 +2672,17 @@
         <v>-193370.9713999997</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>6.281</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2675,11 +2711,17 @@
         <v>-160247.4202999998</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>6.281</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2711,8 +2753,14 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>6.281</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2741,11 +2789,17 @@
         <v>-163537.0812999998</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>6.281</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2777,8 +2831,14 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>6.281</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2810,8 +2870,14 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>6.281</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2843,8 +2909,14 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>6.281</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2876,8 +2948,14 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>6.281</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2909,8 +2987,14 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>6.281</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2942,8 +3026,14 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>6.281</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2975,8 +3065,14 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>6.281</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -3008,8 +3104,14 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>6.281</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3041,8 +3143,14 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>6.281</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3074,8 +3182,14 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>6.281</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3107,8 +3221,14 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>6.281</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3140,8 +3260,14 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>6.281</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3173,8 +3299,14 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>6.281</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3203,11 +3335,17 @@
         <v>407665.0685000003</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>6.281</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3236,11 +3374,17 @@
         <v>133959.4193000003</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>6.281</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3269,11 +3413,17 @@
         <v>193343.1299000003</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>6.281</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3302,11 +3452,17 @@
         <v>423593.2049000003</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>6.281</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3335,11 +3491,17 @@
         <v>423593.2049000003</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>6.281</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3368,11 +3530,17 @@
         <v>423593.2049000003</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>6.281</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3401,11 +3569,17 @@
         <v>423593.2049000003</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>6.281</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3434,11 +3608,17 @@
         <v>423593.2049000003</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>6.281</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3467,11 +3647,17 @@
         <v>912737.4258000003</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>6.281</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3500,11 +3686,17 @@
         <v>912737.4258000003</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>6.281</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3533,11 +3725,17 @@
         <v>1020108.0455</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>6.281</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3566,11 +3764,17 @@
         <v>959864.7283000003</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>6.281</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3599,11 +3803,17 @@
         <v>1030661.5844</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>6.281</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3632,11 +3842,17 @@
         <v>1030661.5844</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>6.281</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3665,11 +3881,17 @@
         <v>712276.0494000004</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>6.281</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3698,11 +3920,17 @@
         <v>704383.8174000004</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>6.281</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3731,11 +3959,17 @@
         <v>806383.8174000004</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>6.281</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3764,11 +3998,17 @@
         <v>774675.5761000004</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>6.281</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3797,11 +4037,17 @@
         <v>627850.3319000005</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>6.281</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3830,11 +4076,17 @@
         <v>843921.8626000005</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>6.281</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3863,11 +4115,17 @@
         <v>843921.8626000005</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>6.281</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3896,11 +4154,17 @@
         <v>1147980.862500001</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>6.281</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3932,8 +4196,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>6.281</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3965,8 +4235,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>6.281</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3998,8 +4274,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>6.281</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4031,8 +4313,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>6.281</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4064,8 +4352,14 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>6.281</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4097,8 +4391,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>6.281</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4130,8 +4430,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>6.281</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4163,8 +4469,14 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>6.281</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4196,8 +4508,14 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>6.281</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4229,8 +4547,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>6.281</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4262,8 +4586,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>6.281</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4295,8 +4625,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>6.281</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4328,8 +4664,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>6.281</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4361,8 +4703,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>6.281</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4394,8 +4742,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>6.281</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4427,8 +4781,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>6.281</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4460,8 +4820,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>6.281</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4493,8 +4859,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>6.281</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4526,8 +4898,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>6.281</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4559,8 +4937,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>6.281</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4592,8 +4976,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>6.281</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4625,8 +5015,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>6.281</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4658,8 +5054,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>6.281</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4691,8 +5093,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>6.281</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4724,8 +5132,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>6.281</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4757,8 +5171,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>6.281</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4790,8 +5210,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>6.281</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4823,8 +5249,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>6.281</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4856,8 +5288,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>6.281</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4889,8 +5327,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>6.281</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4922,8 +5366,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>6.281</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4955,8 +5405,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>6.281</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4988,8 +5444,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>6.281</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5021,8 +5483,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>6.281</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5054,8 +5522,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>6.281</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5087,8 +5561,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>6.281</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5120,8 +5600,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>6.281</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5153,8 +5639,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>6.281</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5183,15 +5675,23 @@
         <v>4875265.672869603</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>6.281</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+        <v>1.091799872631747</v>
+      </c>
+      <c r="M134" t="n">
+        <v>1.005572361088999</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5216,7 +5716,7 @@
         <v>4716545.491569603</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5249,7 +5749,7 @@
         <v>4390342.713069603</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5282,7 +5782,7 @@
         <v>4856725.313769603</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5315,7 +5815,7 @@
         <v>5407253.775569603</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5348,7 +5848,7 @@
         <v>5827542.110969603</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5381,7 +5881,7 @@
         <v>5690839.626069603</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5414,7 +5914,7 @@
         <v>5589604.544869604</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5447,7 +5947,7 @@
         <v>5593408.892669603</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5480,7 +5980,7 @@
         <v>5766729.820569603</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5513,7 +6013,7 @@
         <v>5766729.820569603</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5546,7 +6046,7 @@
         <v>5286440.927569603</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5579,7 +6079,7 @@
         <v>5400002.948269603</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5612,7 +6112,7 @@
         <v>5394828.861169603</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5645,7 +6145,7 @@
         <v>5032310.045269603</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5678,7 +6178,7 @@
         <v>5032310.045269603</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -7691,7 +8191,7 @@
         <v>1670095.663869602</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -10397,7 +10897,7 @@
         <v>8285311.731832225</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10430,7 +10930,7 @@
         <v>8285311.731832225</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10463,7 +10963,7 @@
         <v>8285311.731832225</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10496,7 +10996,7 @@
         <v>8285311.731832225</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10529,7 +11029,7 @@
         <v>8285311.731832225</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10562,7 +11062,7 @@
         <v>8285311.731832225</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10595,7 +11095,7 @@
         <v>8285442.931232225</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10628,7 +11128,7 @@
         <v>8175206.576332225</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10661,7 +11161,7 @@
         <v>8180336.731932226</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10694,7 +11194,7 @@
         <v>8181492.795732225</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10727,7 +11227,7 @@
         <v>8250977.307232225</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10760,7 +11260,7 @@
         <v>8131403.441332226</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10793,7 +11293,7 @@
         <v>8240461.227732225</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10826,7 +11326,7 @@
         <v>8244487.473332225</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10859,7 +11359,7 @@
         <v>8297791.923032225</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10892,7 +11392,7 @@
         <v>8287210.392032225</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10925,7 +11425,7 @@
         <v>8295896.574532225</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10958,7 +11458,7 @@
         <v>8457624.467132226</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -11024,7 +11524,7 @@
         <v>8457624.467132226</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -11057,7 +11557,7 @@
         <v>8463649.467132226</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -11090,7 +11590,7 @@
         <v>8454927.941932226</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -11123,7 +11623,7 @@
         <v>8633576.223932225</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -11156,7 +11656,7 @@
         <v>8620986.223932225</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -11189,7 +11689,7 @@
         <v>8620986.223932225</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
